--- a/algoDs/CodeWars Challenge Guide.xlsx
+++ b/algoDs/CodeWars Challenge Guide.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>Category</t>
   </si>
@@ -1504,8 +1504,8 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66:C73"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
@@ -1764,31 +1764,41 @@
       <c r="B37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="6"/>
+      <c r="C37" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="38" customHeight="1" spans="2:3">
       <c r="B38" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="6"/>
+      <c r="C38" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="39" customHeight="1" spans="2:3">
       <c r="B39" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="40" customHeight="1" spans="2:3">
       <c r="B40" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="41" customHeight="1" spans="2:3">
       <c r="B41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="6"/>
+      <c r="C41" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="42" customHeight="1" spans="1:3">
       <c r="A42" s="7" t="s">

--- a/algoDs/CodeWars Challenge Guide.xlsx
+++ b/algoDs/CodeWars Challenge Guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8675"/>
+    <workbookView windowWidth="22188" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>Category</t>
   </si>
@@ -1504,8 +1504,8 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
@@ -1807,13 +1807,17 @@
       <c r="B42" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="43" customHeight="1" spans="2:3">
       <c r="B43" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="6"/>
+      <c r="C43" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="44" customHeight="1" spans="2:3">
       <c r="B44" s="8" t="s">

--- a/algoDs/CodeWars Challenge Guide.xlsx
+++ b/algoDs/CodeWars Challenge Guide.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
   <si>
     <t>Category</t>
   </si>
@@ -264,30 +264,6 @@
   </si>
   <si>
     <t>Sum of numbers from 0 to N</t>
-  </si>
-  <si>
-    <t>#Changing Gears</t>
-  </si>
-  <si>
-    <t>Multiples of 3 or 5</t>
-  </si>
-  <si>
-    <t>Sum of Digits / Digital Root</t>
-  </si>
-  <si>
-    <t>Who likes it?</t>
-  </si>
-  <si>
-    <t>Find The Parity Outlier</t>
-  </si>
-  <si>
-    <t>Stop gninnipS My sdroW!</t>
-  </si>
-  <si>
-    <t>#Fire At Will</t>
-  </si>
-  <si>
-    <t>You're free to chose the problems you want to solve, Just bring home 150 points</t>
   </si>
 </sst>
 </file>
@@ -300,7 +276,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -323,12 +299,6 @@
     </font>
     <font>
       <u/>
-      <sz val="13"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lato"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color rgb="FFFFFFFF"/>
       <name val="Lato"/>
@@ -847,28 +817,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -877,122 +850,119 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1012,14 +982,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1502,10 +1469,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C1000"/>
+  <dimension ref="A1:C993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
@@ -1823,19 +1790,25 @@
       <c r="B44" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="6"/>
+      <c r="C44" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="45" customHeight="1" spans="2:3">
       <c r="B45" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="46" customHeight="1" spans="2:3">
       <c r="B46" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C46" s="6"/>
+      <c r="C46" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="47" customHeight="1" spans="1:3">
       <c r="A47" s="4" t="s">
@@ -1943,7 +1916,9 @@
       <c r="B62" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C62" s="6"/>
+      <c r="C62" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="63" customHeight="1" spans="2:3">
       <c r="B63" s="8" t="s">
@@ -1969,3761 +1944,3716 @@
       </c>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" customHeight="1" spans="1:3">
-      <c r="A67" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68" customHeight="1" spans="2:3">
-      <c r="B68" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="6"/>
-    </row>
-    <row r="69" customHeight="1" spans="2:3">
-      <c r="B69" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" s="6"/>
-    </row>
-    <row r="70" customHeight="1" spans="2:3">
-      <c r="B70" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="6"/>
-    </row>
-    <row r="71" customHeight="1" spans="2:3">
-      <c r="B71" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C71" s="6"/>
+    <row r="67" customHeight="1" spans="1:2">
+      <c r="A67" s="9"/>
+      <c r="B67" s="10"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:3">
+      <c r="A68" s="11"/>
+      <c r="C68" s="11"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:3">
+      <c r="A69" s="11"/>
+      <c r="C69" s="11"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:3">
+      <c r="A70" s="11"/>
+      <c r="C70" s="11"/>
+    </row>
+    <row r="71" customHeight="1" spans="1:3">
+      <c r="A71" s="11"/>
+      <c r="C71" s="11"/>
     </row>
     <row r="72" customHeight="1" spans="1:3">
-      <c r="A72" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" s="6"/>
-    </row>
-    <row r="73" customHeight="1" spans="3:3">
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" customHeight="1" spans="1:2">
-      <c r="A74" s="10"/>
-      <c r="B74" s="11"/>
+      <c r="A72" s="11"/>
+      <c r="C72" s="11"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:3">
+      <c r="A73" s="11"/>
+      <c r="C73" s="11"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:3">
+      <c r="A74" s="11"/>
+      <c r="C74" s="11"/>
     </row>
     <row r="75" customHeight="1" spans="1:3">
-      <c r="A75" s="12"/>
-      <c r="C75" s="12"/>
+      <c r="A75" s="11"/>
+      <c r="C75" s="11"/>
     </row>
     <row r="76" customHeight="1" spans="1:3">
-      <c r="A76" s="12"/>
-      <c r="C76" s="12"/>
+      <c r="A76" s="11"/>
+      <c r="C76" s="11"/>
     </row>
     <row r="77" customHeight="1" spans="1:3">
-      <c r="A77" s="12"/>
-      <c r="C77" s="12"/>
+      <c r="A77" s="11"/>
+      <c r="C77" s="11"/>
     </row>
     <row r="78" customHeight="1" spans="1:3">
-      <c r="A78" s="12"/>
-      <c r="C78" s="12"/>
+      <c r="A78" s="11"/>
+      <c r="C78" s="11"/>
     </row>
     <row r="79" customHeight="1" spans="1:3">
-      <c r="A79" s="12"/>
-      <c r="C79" s="12"/>
+      <c r="A79" s="11"/>
+      <c r="C79" s="11"/>
     </row>
     <row r="80" customHeight="1" spans="1:3">
-      <c r="A80" s="12"/>
-      <c r="C80" s="12"/>
+      <c r="A80" s="11"/>
+      <c r="C80" s="11"/>
     </row>
     <row r="81" customHeight="1" spans="1:3">
-      <c r="A81" s="12"/>
-      <c r="C81" s="12"/>
+      <c r="A81" s="11"/>
+      <c r="C81" s="11"/>
     </row>
     <row r="82" customHeight="1" spans="1:3">
-      <c r="A82" s="12"/>
-      <c r="C82" s="12"/>
+      <c r="A82" s="11"/>
+      <c r="C82" s="11"/>
     </row>
     <row r="83" customHeight="1" spans="1:3">
-      <c r="A83" s="12"/>
-      <c r="C83" s="12"/>
+      <c r="A83" s="11"/>
+      <c r="C83" s="11"/>
     </row>
     <row r="84" customHeight="1" spans="1:3">
-      <c r="A84" s="12"/>
-      <c r="C84" s="12"/>
+      <c r="A84" s="11"/>
+      <c r="C84" s="11"/>
     </row>
     <row r="85" customHeight="1" spans="1:3">
-      <c r="A85" s="12"/>
-      <c r="C85" s="12"/>
+      <c r="A85" s="11"/>
+      <c r="C85" s="11"/>
     </row>
     <row r="86" customHeight="1" spans="1:3">
-      <c r="A86" s="12"/>
-      <c r="C86" s="12"/>
+      <c r="A86" s="11"/>
+      <c r="C86" s="11"/>
     </row>
     <row r="87" customHeight="1" spans="1:3">
-      <c r="A87" s="12"/>
-      <c r="C87" s="12"/>
+      <c r="A87" s="11"/>
+      <c r="C87" s="11"/>
     </row>
     <row r="88" customHeight="1" spans="1:3">
-      <c r="A88" s="12"/>
-      <c r="C88" s="12"/>
+      <c r="A88" s="11"/>
+      <c r="C88" s="11"/>
     </row>
     <row r="89" customHeight="1" spans="1:3">
-      <c r="A89" s="12"/>
-      <c r="C89" s="12"/>
+      <c r="A89" s="11"/>
+      <c r="C89" s="11"/>
     </row>
     <row r="90" customHeight="1" spans="1:3">
-      <c r="A90" s="12"/>
-      <c r="C90" s="12"/>
+      <c r="A90" s="11"/>
+      <c r="C90" s="11"/>
     </row>
     <row r="91" customHeight="1" spans="1:3">
-      <c r="A91" s="12"/>
-      <c r="C91" s="12"/>
+      <c r="A91" s="11"/>
+      <c r="C91" s="11"/>
     </row>
     <row r="92" customHeight="1" spans="1:3">
-      <c r="A92" s="12"/>
-      <c r="C92" s="12"/>
+      <c r="A92" s="11"/>
+      <c r="C92" s="11"/>
     </row>
     <row r="93" customHeight="1" spans="1:3">
-      <c r="A93" s="12"/>
-      <c r="C93" s="12"/>
+      <c r="A93" s="11"/>
+      <c r="C93" s="11"/>
     </row>
     <row r="94" customHeight="1" spans="1:3">
-      <c r="A94" s="12"/>
-      <c r="C94" s="12"/>
+      <c r="A94" s="11"/>
+      <c r="C94" s="11"/>
     </row>
     <row r="95" customHeight="1" spans="1:3">
-      <c r="A95" s="12"/>
-      <c r="C95" s="12"/>
+      <c r="A95" s="11"/>
+      <c r="C95" s="11"/>
     </row>
     <row r="96" customHeight="1" spans="1:3">
-      <c r="A96" s="12"/>
-      <c r="C96" s="12"/>
+      <c r="A96" s="11"/>
+      <c r="C96" s="11"/>
     </row>
     <row r="97" customHeight="1" spans="1:3">
-      <c r="A97" s="12"/>
-      <c r="C97" s="12"/>
+      <c r="A97" s="11"/>
+      <c r="C97" s="11"/>
     </row>
     <row r="98" customHeight="1" spans="1:3">
-      <c r="A98" s="12"/>
-      <c r="C98" s="12"/>
+      <c r="A98" s="11"/>
+      <c r="C98" s="11"/>
     </row>
     <row r="99" customHeight="1" spans="1:3">
-      <c r="A99" s="12"/>
-      <c r="C99" s="12"/>
+      <c r="A99" s="11"/>
+      <c r="C99" s="11"/>
     </row>
     <row r="100" customHeight="1" spans="1:3">
-      <c r="A100" s="12"/>
-      <c r="C100" s="12"/>
+      <c r="A100" s="11"/>
+      <c r="C100" s="11"/>
     </row>
     <row r="101" customHeight="1" spans="1:3">
-      <c r="A101" s="12"/>
-      <c r="C101" s="12"/>
+      <c r="A101" s="11"/>
+      <c r="C101" s="11"/>
     </row>
     <row r="102" customHeight="1" spans="1:3">
-      <c r="A102" s="12"/>
-      <c r="C102" s="12"/>
+      <c r="A102" s="11"/>
+      <c r="C102" s="11"/>
     </row>
     <row r="103" customHeight="1" spans="1:3">
-      <c r="A103" s="12"/>
-      <c r="C103" s="12"/>
+      <c r="A103" s="11"/>
+      <c r="C103" s="11"/>
     </row>
     <row r="104" customHeight="1" spans="1:3">
-      <c r="A104" s="12"/>
-      <c r="C104" s="12"/>
+      <c r="A104" s="11"/>
+      <c r="C104" s="11"/>
     </row>
     <row r="105" customHeight="1" spans="1:3">
-      <c r="A105" s="12"/>
-      <c r="C105" s="12"/>
+      <c r="A105" s="11"/>
+      <c r="C105" s="11"/>
     </row>
     <row r="106" customHeight="1" spans="1:3">
-      <c r="A106" s="12"/>
-      <c r="C106" s="12"/>
+      <c r="A106" s="11"/>
+      <c r="C106" s="11"/>
     </row>
     <row r="107" customHeight="1" spans="1:3">
-      <c r="A107" s="12"/>
-      <c r="C107" s="12"/>
+      <c r="A107" s="11"/>
+      <c r="C107" s="11"/>
     </row>
     <row r="108" customHeight="1" spans="1:3">
-      <c r="A108" s="12"/>
-      <c r="C108" s="12"/>
+      <c r="A108" s="11"/>
+      <c r="C108" s="11"/>
     </row>
     <row r="109" customHeight="1" spans="1:3">
-      <c r="A109" s="12"/>
-      <c r="C109" s="12"/>
+      <c r="A109" s="11"/>
+      <c r="C109" s="11"/>
     </row>
     <row r="110" customHeight="1" spans="1:3">
-      <c r="A110" s="12"/>
-      <c r="C110" s="12"/>
+      <c r="A110" s="11"/>
+      <c r="C110" s="11"/>
     </row>
     <row r="111" customHeight="1" spans="1:3">
-      <c r="A111" s="12"/>
-      <c r="C111" s="12"/>
+      <c r="A111" s="11"/>
+      <c r="C111" s="11"/>
     </row>
     <row r="112" customHeight="1" spans="1:3">
-      <c r="A112" s="12"/>
-      <c r="C112" s="12"/>
+      <c r="A112" s="11"/>
+      <c r="C112" s="11"/>
     </row>
     <row r="113" customHeight="1" spans="1:3">
-      <c r="A113" s="12"/>
-      <c r="C113" s="12"/>
+      <c r="A113" s="11"/>
+      <c r="C113" s="11"/>
     </row>
     <row r="114" customHeight="1" spans="1:3">
-      <c r="A114" s="12"/>
-      <c r="C114" s="12"/>
+      <c r="A114" s="11"/>
+      <c r="C114" s="11"/>
     </row>
     <row r="115" customHeight="1" spans="1:3">
-      <c r="A115" s="12"/>
-      <c r="C115" s="12"/>
+      <c r="A115" s="11"/>
+      <c r="C115" s="11"/>
     </row>
     <row r="116" customHeight="1" spans="1:3">
-      <c r="A116" s="12"/>
-      <c r="C116" s="12"/>
+      <c r="A116" s="11"/>
+      <c r="C116" s="11"/>
     </row>
     <row r="117" customHeight="1" spans="1:3">
-      <c r="A117" s="12"/>
-      <c r="C117" s="12"/>
+      <c r="A117" s="11"/>
+      <c r="C117" s="11"/>
     </row>
     <row r="118" customHeight="1" spans="1:3">
-      <c r="A118" s="12"/>
-      <c r="C118" s="12"/>
+      <c r="A118" s="11"/>
+      <c r="C118" s="11"/>
     </row>
     <row r="119" customHeight="1" spans="1:3">
-      <c r="A119" s="12"/>
-      <c r="C119" s="12"/>
+      <c r="A119" s="11"/>
+      <c r="C119" s="11"/>
     </row>
     <row r="120" customHeight="1" spans="1:3">
-      <c r="A120" s="12"/>
-      <c r="C120" s="12"/>
+      <c r="A120" s="11"/>
+      <c r="C120" s="11"/>
     </row>
     <row r="121" customHeight="1" spans="1:3">
-      <c r="A121" s="12"/>
-      <c r="C121" s="12"/>
+      <c r="A121" s="11"/>
+      <c r="C121" s="11"/>
     </row>
     <row r="122" customHeight="1" spans="1:3">
-      <c r="A122" s="12"/>
-      <c r="C122" s="12"/>
+      <c r="A122" s="11"/>
+      <c r="C122" s="11"/>
     </row>
     <row r="123" customHeight="1" spans="1:3">
-      <c r="A123" s="12"/>
-      <c r="C123" s="12"/>
+      <c r="A123" s="11"/>
+      <c r="C123" s="11"/>
     </row>
     <row r="124" customHeight="1" spans="1:3">
-      <c r="A124" s="12"/>
-      <c r="C124" s="12"/>
+      <c r="A124" s="11"/>
+      <c r="C124" s="11"/>
     </row>
     <row r="125" customHeight="1" spans="1:3">
-      <c r="A125" s="12"/>
-      <c r="C125" s="12"/>
+      <c r="A125" s="11"/>
+      <c r="C125" s="11"/>
     </row>
     <row r="126" customHeight="1" spans="1:3">
-      <c r="A126" s="12"/>
-      <c r="C126" s="12"/>
+      <c r="A126" s="11"/>
+      <c r="C126" s="11"/>
     </row>
     <row r="127" customHeight="1" spans="1:3">
-      <c r="A127" s="12"/>
-      <c r="C127" s="12"/>
+      <c r="A127" s="11"/>
+      <c r="C127" s="11"/>
     </row>
     <row r="128" customHeight="1" spans="1:3">
-      <c r="A128" s="12"/>
-      <c r="C128" s="12"/>
+      <c r="A128" s="11"/>
+      <c r="C128" s="11"/>
     </row>
     <row r="129" customHeight="1" spans="1:3">
-      <c r="A129" s="12"/>
-      <c r="C129" s="12"/>
+      <c r="A129" s="11"/>
+      <c r="C129" s="11"/>
     </row>
     <row r="130" customHeight="1" spans="1:3">
-      <c r="A130" s="12"/>
-      <c r="C130" s="12"/>
+      <c r="A130" s="11"/>
+      <c r="C130" s="11"/>
     </row>
     <row r="131" customHeight="1" spans="1:3">
-      <c r="A131" s="12"/>
-      <c r="C131" s="12"/>
+      <c r="A131" s="11"/>
+      <c r="C131" s="11"/>
     </row>
     <row r="132" customHeight="1" spans="1:3">
-      <c r="A132" s="12"/>
-      <c r="C132" s="12"/>
+      <c r="A132" s="11"/>
+      <c r="C132" s="11"/>
     </row>
     <row r="133" customHeight="1" spans="1:3">
-      <c r="A133" s="12"/>
-      <c r="C133" s="12"/>
+      <c r="A133" s="11"/>
+      <c r="C133" s="11"/>
     </row>
     <row r="134" customHeight="1" spans="1:3">
-      <c r="A134" s="12"/>
-      <c r="C134" s="12"/>
+      <c r="A134" s="11"/>
+      <c r="C134" s="11"/>
     </row>
     <row r="135" customHeight="1" spans="1:3">
-      <c r="A135" s="12"/>
-      <c r="C135" s="12"/>
+      <c r="A135" s="11"/>
+      <c r="C135" s="11"/>
     </row>
     <row r="136" customHeight="1" spans="1:3">
-      <c r="A136" s="12"/>
-      <c r="C136" s="12"/>
+      <c r="A136" s="11"/>
+      <c r="C136" s="11"/>
     </row>
     <row r="137" customHeight="1" spans="1:3">
-      <c r="A137" s="12"/>
-      <c r="C137" s="12"/>
+      <c r="A137" s="11"/>
+      <c r="C137" s="11"/>
     </row>
     <row r="138" customHeight="1" spans="1:3">
-      <c r="A138" s="12"/>
-      <c r="C138" s="12"/>
+      <c r="A138" s="11"/>
+      <c r="C138" s="11"/>
     </row>
     <row r="139" customHeight="1" spans="1:3">
-      <c r="A139" s="12"/>
-      <c r="C139" s="12"/>
+      <c r="A139" s="11"/>
+      <c r="C139" s="11"/>
     </row>
     <row r="140" customHeight="1" spans="1:3">
-      <c r="A140" s="12"/>
-      <c r="C140" s="12"/>
+      <c r="A140" s="11"/>
+      <c r="C140" s="11"/>
     </row>
     <row r="141" customHeight="1" spans="1:3">
-      <c r="A141" s="12"/>
-      <c r="C141" s="12"/>
+      <c r="A141" s="11"/>
+      <c r="C141" s="11"/>
     </row>
     <row r="142" customHeight="1" spans="1:3">
-      <c r="A142" s="12"/>
-      <c r="C142" s="12"/>
+      <c r="A142" s="11"/>
+      <c r="C142" s="11"/>
     </row>
     <row r="143" customHeight="1" spans="1:3">
-      <c r="A143" s="12"/>
-      <c r="C143" s="12"/>
+      <c r="A143" s="11"/>
+      <c r="C143" s="11"/>
     </row>
     <row r="144" customHeight="1" spans="1:3">
-      <c r="A144" s="12"/>
-      <c r="C144" s="12"/>
+      <c r="A144" s="11"/>
+      <c r="C144" s="11"/>
     </row>
     <row r="145" customHeight="1" spans="1:3">
-      <c r="A145" s="12"/>
-      <c r="C145" s="12"/>
+      <c r="A145" s="11"/>
+      <c r="C145" s="11"/>
     </row>
     <row r="146" customHeight="1" spans="1:3">
-      <c r="A146" s="12"/>
-      <c r="C146" s="12"/>
+      <c r="A146" s="11"/>
+      <c r="C146" s="11"/>
     </row>
     <row r="147" customHeight="1" spans="1:3">
-      <c r="A147" s="12"/>
-      <c r="C147" s="12"/>
+      <c r="A147" s="11"/>
+      <c r="C147" s="11"/>
     </row>
     <row r="148" customHeight="1" spans="1:3">
-      <c r="A148" s="12"/>
-      <c r="C148" s="12"/>
+      <c r="A148" s="11"/>
+      <c r="C148" s="11"/>
     </row>
     <row r="149" customHeight="1" spans="1:3">
-      <c r="A149" s="12"/>
-      <c r="C149" s="12"/>
+      <c r="A149" s="11"/>
+      <c r="C149" s="11"/>
     </row>
     <row r="150" customHeight="1" spans="1:3">
-      <c r="A150" s="12"/>
-      <c r="C150" s="12"/>
+      <c r="A150" s="11"/>
+      <c r="C150" s="11"/>
     </row>
     <row r="151" customHeight="1" spans="1:3">
-      <c r="A151" s="12"/>
-      <c r="C151" s="12"/>
+      <c r="A151" s="11"/>
+      <c r="C151" s="11"/>
     </row>
     <row r="152" customHeight="1" spans="1:3">
-      <c r="A152" s="12"/>
-      <c r="C152" s="12"/>
+      <c r="A152" s="11"/>
+      <c r="C152" s="11"/>
     </row>
     <row r="153" customHeight="1" spans="1:3">
-      <c r="A153" s="12"/>
-      <c r="C153" s="12"/>
+      <c r="A153" s="11"/>
+      <c r="C153" s="11"/>
     </row>
     <row r="154" customHeight="1" spans="1:3">
-      <c r="A154" s="12"/>
-      <c r="C154" s="12"/>
+      <c r="A154" s="11"/>
+      <c r="C154" s="11"/>
     </row>
     <row r="155" customHeight="1" spans="1:3">
-      <c r="A155" s="12"/>
-      <c r="C155" s="12"/>
+      <c r="A155" s="11"/>
+      <c r="C155" s="11"/>
     </row>
     <row r="156" customHeight="1" spans="1:3">
-      <c r="A156" s="12"/>
-      <c r="C156" s="12"/>
+      <c r="A156" s="11"/>
+      <c r="C156" s="11"/>
     </row>
     <row r="157" customHeight="1" spans="1:3">
-      <c r="A157" s="12"/>
-      <c r="C157" s="12"/>
+      <c r="A157" s="11"/>
+      <c r="C157" s="11"/>
     </row>
     <row r="158" customHeight="1" spans="1:3">
-      <c r="A158" s="12"/>
-      <c r="C158" s="12"/>
+      <c r="A158" s="11"/>
+      <c r="C158" s="11"/>
     </row>
     <row r="159" customHeight="1" spans="1:3">
-      <c r="A159" s="12"/>
-      <c r="C159" s="12"/>
+      <c r="A159" s="11"/>
+      <c r="C159" s="11"/>
     </row>
     <row r="160" customHeight="1" spans="1:3">
-      <c r="A160" s="12"/>
-      <c r="C160" s="12"/>
+      <c r="A160" s="11"/>
+      <c r="C160" s="11"/>
     </row>
     <row r="161" customHeight="1" spans="1:3">
-      <c r="A161" s="12"/>
-      <c r="C161" s="12"/>
+      <c r="A161" s="11"/>
+      <c r="C161" s="11"/>
     </row>
     <row r="162" customHeight="1" spans="1:3">
-      <c r="A162" s="12"/>
-      <c r="C162" s="12"/>
+      <c r="A162" s="11"/>
+      <c r="C162" s="11"/>
     </row>
     <row r="163" customHeight="1" spans="1:3">
-      <c r="A163" s="12"/>
-      <c r="C163" s="12"/>
+      <c r="A163" s="11"/>
+      <c r="C163" s="11"/>
     </row>
     <row r="164" customHeight="1" spans="1:3">
-      <c r="A164" s="12"/>
-      <c r="C164" s="12"/>
+      <c r="A164" s="11"/>
+      <c r="C164" s="11"/>
     </row>
     <row r="165" customHeight="1" spans="1:3">
-      <c r="A165" s="12"/>
-      <c r="C165" s="12"/>
+      <c r="A165" s="11"/>
+      <c r="C165" s="11"/>
     </row>
     <row r="166" customHeight="1" spans="1:3">
-      <c r="A166" s="12"/>
-      <c r="C166" s="12"/>
+      <c r="A166" s="11"/>
+      <c r="C166" s="11"/>
     </row>
     <row r="167" customHeight="1" spans="1:3">
-      <c r="A167" s="12"/>
-      <c r="C167" s="12"/>
+      <c r="A167" s="11"/>
+      <c r="C167" s="11"/>
     </row>
     <row r="168" customHeight="1" spans="1:3">
-      <c r="A168" s="12"/>
-      <c r="C168" s="12"/>
+      <c r="A168" s="11"/>
+      <c r="C168" s="11"/>
     </row>
     <row r="169" customHeight="1" spans="1:3">
-      <c r="A169" s="12"/>
-      <c r="C169" s="12"/>
+      <c r="A169" s="11"/>
+      <c r="C169" s="11"/>
     </row>
     <row r="170" customHeight="1" spans="1:3">
-      <c r="A170" s="12"/>
-      <c r="C170" s="12"/>
+      <c r="A170" s="11"/>
+      <c r="C170" s="11"/>
     </row>
     <row r="171" customHeight="1" spans="1:3">
-      <c r="A171" s="12"/>
-      <c r="C171" s="12"/>
+      <c r="A171" s="11"/>
+      <c r="C171" s="11"/>
     </row>
     <row r="172" customHeight="1" spans="1:3">
-      <c r="A172" s="12"/>
-      <c r="C172" s="12"/>
+      <c r="A172" s="11"/>
+      <c r="C172" s="11"/>
     </row>
     <row r="173" customHeight="1" spans="1:3">
-      <c r="A173" s="12"/>
-      <c r="C173" s="12"/>
+      <c r="A173" s="11"/>
+      <c r="C173" s="11"/>
     </row>
     <row r="174" customHeight="1" spans="1:3">
-      <c r="A174" s="12"/>
-      <c r="C174" s="12"/>
+      <c r="A174" s="11"/>
+      <c r="C174" s="11"/>
     </row>
     <row r="175" customHeight="1" spans="1:3">
-      <c r="A175" s="12"/>
-      <c r="C175" s="12"/>
+      <c r="A175" s="11"/>
+      <c r="C175" s="11"/>
     </row>
     <row r="176" customHeight="1" spans="1:3">
-      <c r="A176" s="12"/>
-      <c r="C176" s="12"/>
+      <c r="A176" s="11"/>
+      <c r="C176" s="11"/>
     </row>
     <row r="177" customHeight="1" spans="1:3">
-      <c r="A177" s="12"/>
-      <c r="C177" s="12"/>
+      <c r="A177" s="11"/>
+      <c r="C177" s="11"/>
     </row>
     <row r="178" customHeight="1" spans="1:3">
-      <c r="A178" s="12"/>
-      <c r="C178" s="12"/>
+      <c r="A178" s="11"/>
+      <c r="C178" s="11"/>
     </row>
     <row r="179" customHeight="1" spans="1:3">
-      <c r="A179" s="12"/>
-      <c r="C179" s="12"/>
+      <c r="A179" s="11"/>
+      <c r="C179" s="11"/>
     </row>
     <row r="180" customHeight="1" spans="1:3">
-      <c r="A180" s="12"/>
-      <c r="C180" s="12"/>
+      <c r="A180" s="11"/>
+      <c r="C180" s="11"/>
     </row>
     <row r="181" customHeight="1" spans="1:3">
-      <c r="A181" s="12"/>
-      <c r="C181" s="12"/>
+      <c r="A181" s="11"/>
+      <c r="C181" s="11"/>
     </row>
     <row r="182" customHeight="1" spans="1:3">
-      <c r="A182" s="12"/>
-      <c r="C182" s="12"/>
+      <c r="A182" s="11"/>
+      <c r="C182" s="11"/>
     </row>
     <row r="183" customHeight="1" spans="1:3">
-      <c r="A183" s="12"/>
-      <c r="C183" s="12"/>
+      <c r="A183" s="11"/>
+      <c r="C183" s="11"/>
     </row>
     <row r="184" customHeight="1" spans="1:3">
-      <c r="A184" s="12"/>
-      <c r="C184" s="12"/>
+      <c r="A184" s="11"/>
+      <c r="C184" s="11"/>
     </row>
     <row r="185" customHeight="1" spans="1:3">
-      <c r="A185" s="12"/>
-      <c r="C185" s="12"/>
+      <c r="A185" s="11"/>
+      <c r="C185" s="11"/>
     </row>
     <row r="186" customHeight="1" spans="1:3">
-      <c r="A186" s="12"/>
-      <c r="C186" s="12"/>
+      <c r="A186" s="11"/>
+      <c r="C186" s="11"/>
     </row>
     <row r="187" customHeight="1" spans="1:3">
-      <c r="A187" s="12"/>
-      <c r="C187" s="12"/>
+      <c r="A187" s="11"/>
+      <c r="C187" s="11"/>
     </row>
     <row r="188" customHeight="1" spans="1:3">
-      <c r="A188" s="12"/>
-      <c r="C188" s="12"/>
+      <c r="A188" s="11"/>
+      <c r="C188" s="11"/>
     </row>
     <row r="189" customHeight="1" spans="1:3">
-      <c r="A189" s="12"/>
-      <c r="C189" s="12"/>
+      <c r="A189" s="11"/>
+      <c r="C189" s="11"/>
     </row>
     <row r="190" customHeight="1" spans="1:3">
-      <c r="A190" s="12"/>
-      <c r="C190" s="12"/>
+      <c r="A190" s="11"/>
+      <c r="C190" s="11"/>
     </row>
     <row r="191" customHeight="1" spans="1:3">
-      <c r="A191" s="12"/>
-      <c r="C191" s="12"/>
+      <c r="A191" s="11"/>
+      <c r="C191" s="11"/>
     </row>
     <row r="192" customHeight="1" spans="1:3">
-      <c r="A192" s="12"/>
-      <c r="C192" s="12"/>
+      <c r="A192" s="11"/>
+      <c r="C192" s="11"/>
     </row>
     <row r="193" customHeight="1" spans="1:3">
-      <c r="A193" s="12"/>
-      <c r="C193" s="12"/>
+      <c r="A193" s="11"/>
+      <c r="C193" s="11"/>
     </row>
     <row r="194" customHeight="1" spans="1:3">
-      <c r="A194" s="12"/>
-      <c r="C194" s="12"/>
+      <c r="A194" s="11"/>
+      <c r="C194" s="11"/>
     </row>
     <row r="195" customHeight="1" spans="1:3">
-      <c r="A195" s="12"/>
-      <c r="C195" s="12"/>
+      <c r="A195" s="11"/>
+      <c r="C195" s="11"/>
     </row>
     <row r="196" customHeight="1" spans="1:3">
-      <c r="A196" s="12"/>
-      <c r="C196" s="12"/>
+      <c r="A196" s="11"/>
+      <c r="C196" s="11"/>
     </row>
     <row r="197" customHeight="1" spans="1:3">
-      <c r="A197" s="12"/>
-      <c r="C197" s="12"/>
+      <c r="A197" s="11"/>
+      <c r="C197" s="11"/>
     </row>
     <row r="198" customHeight="1" spans="1:3">
-      <c r="A198" s="12"/>
-      <c r="C198" s="12"/>
+      <c r="A198" s="11"/>
+      <c r="C198" s="11"/>
     </row>
     <row r="199" customHeight="1" spans="1:3">
-      <c r="A199" s="12"/>
-      <c r="C199" s="12"/>
+      <c r="A199" s="11"/>
+      <c r="C199" s="11"/>
     </row>
     <row r="200" customHeight="1" spans="1:3">
-      <c r="A200" s="12"/>
-      <c r="C200" s="12"/>
+      <c r="A200" s="11"/>
+      <c r="C200" s="11"/>
     </row>
     <row r="201" customHeight="1" spans="1:3">
-      <c r="A201" s="12"/>
-      <c r="C201" s="12"/>
+      <c r="A201" s="11"/>
+      <c r="C201" s="11"/>
     </row>
     <row r="202" customHeight="1" spans="1:3">
-      <c r="A202" s="12"/>
-      <c r="C202" s="12"/>
+      <c r="A202" s="11"/>
+      <c r="C202" s="11"/>
     </row>
     <row r="203" customHeight="1" spans="1:3">
-      <c r="A203" s="12"/>
-      <c r="C203" s="12"/>
+      <c r="A203" s="11"/>
+      <c r="C203" s="11"/>
     </row>
     <row r="204" customHeight="1" spans="1:3">
-      <c r="A204" s="12"/>
-      <c r="C204" s="12"/>
+      <c r="A204" s="11"/>
+      <c r="C204" s="11"/>
     </row>
     <row r="205" customHeight="1" spans="1:3">
-      <c r="A205" s="12"/>
-      <c r="C205" s="12"/>
+      <c r="A205" s="11"/>
+      <c r="C205" s="11"/>
     </row>
     <row r="206" customHeight="1" spans="1:3">
-      <c r="A206" s="12"/>
-      <c r="C206" s="12"/>
+      <c r="A206" s="11"/>
+      <c r="C206" s="11"/>
     </row>
     <row r="207" customHeight="1" spans="1:3">
-      <c r="A207" s="12"/>
-      <c r="C207" s="12"/>
+      <c r="A207" s="11"/>
+      <c r="C207" s="11"/>
     </row>
     <row r="208" customHeight="1" spans="1:3">
-      <c r="A208" s="12"/>
-      <c r="C208" s="12"/>
+      <c r="A208" s="11"/>
+      <c r="C208" s="11"/>
     </row>
     <row r="209" customHeight="1" spans="1:3">
-      <c r="A209" s="12"/>
-      <c r="C209" s="12"/>
+      <c r="A209" s="11"/>
+      <c r="C209" s="11"/>
     </row>
     <row r="210" customHeight="1" spans="1:3">
-      <c r="A210" s="12"/>
-      <c r="C210" s="12"/>
+      <c r="A210" s="11"/>
+      <c r="C210" s="11"/>
     </row>
     <row r="211" customHeight="1" spans="1:3">
-      <c r="A211" s="12"/>
-      <c r="C211" s="12"/>
+      <c r="A211" s="11"/>
+      <c r="C211" s="11"/>
     </row>
     <row r="212" customHeight="1" spans="1:3">
-      <c r="A212" s="12"/>
-      <c r="C212" s="12"/>
+      <c r="A212" s="11"/>
+      <c r="C212" s="11"/>
     </row>
     <row r="213" customHeight="1" spans="1:3">
-      <c r="A213" s="12"/>
-      <c r="C213" s="12"/>
+      <c r="A213" s="11"/>
+      <c r="C213" s="11"/>
     </row>
     <row r="214" customHeight="1" spans="1:3">
-      <c r="A214" s="12"/>
-      <c r="C214" s="12"/>
+      <c r="A214" s="11"/>
+      <c r="C214" s="11"/>
     </row>
     <row r="215" customHeight="1" spans="1:3">
-      <c r="A215" s="12"/>
-      <c r="C215" s="12"/>
+      <c r="A215" s="11"/>
+      <c r="C215" s="11"/>
     </row>
     <row r="216" customHeight="1" spans="1:3">
-      <c r="A216" s="12"/>
-      <c r="C216" s="12"/>
+      <c r="A216" s="11"/>
+      <c r="C216" s="11"/>
     </row>
     <row r="217" customHeight="1" spans="1:3">
-      <c r="A217" s="12"/>
-      <c r="C217" s="12"/>
+      <c r="A217" s="11"/>
+      <c r="C217" s="11"/>
     </row>
     <row r="218" customHeight="1" spans="1:3">
-      <c r="A218" s="12"/>
-      <c r="C218" s="12"/>
+      <c r="A218" s="11"/>
+      <c r="C218" s="11"/>
     </row>
     <row r="219" customHeight="1" spans="1:3">
-      <c r="A219" s="12"/>
-      <c r="C219" s="12"/>
+      <c r="A219" s="11"/>
+      <c r="C219" s="11"/>
     </row>
     <row r="220" customHeight="1" spans="1:3">
-      <c r="A220" s="12"/>
-      <c r="C220" s="12"/>
+      <c r="A220" s="11"/>
+      <c r="C220" s="11"/>
     </row>
     <row r="221" customHeight="1" spans="1:3">
-      <c r="A221" s="12"/>
-      <c r="C221" s="12"/>
+      <c r="A221" s="11"/>
+      <c r="C221" s="11"/>
     </row>
     <row r="222" customHeight="1" spans="1:3">
-      <c r="A222" s="12"/>
-      <c r="C222" s="12"/>
+      <c r="A222" s="11"/>
+      <c r="C222" s="11"/>
     </row>
     <row r="223" customHeight="1" spans="1:3">
-      <c r="A223" s="12"/>
-      <c r="C223" s="12"/>
+      <c r="A223" s="11"/>
+      <c r="C223" s="11"/>
     </row>
     <row r="224" customHeight="1" spans="1:3">
-      <c r="A224" s="12"/>
-      <c r="C224" s="12"/>
+      <c r="A224" s="11"/>
+      <c r="C224" s="11"/>
     </row>
     <row r="225" customHeight="1" spans="1:3">
-      <c r="A225" s="12"/>
-      <c r="C225" s="12"/>
+      <c r="A225" s="11"/>
+      <c r="C225" s="11"/>
     </row>
     <row r="226" customHeight="1" spans="1:3">
-      <c r="A226" s="12"/>
-      <c r="C226" s="12"/>
+      <c r="A226" s="11"/>
+      <c r="C226" s="11"/>
     </row>
     <row r="227" customHeight="1" spans="1:3">
-      <c r="A227" s="12"/>
-      <c r="C227" s="12"/>
+      <c r="A227" s="11"/>
+      <c r="C227" s="11"/>
     </row>
     <row r="228" customHeight="1" spans="1:3">
-      <c r="A228" s="12"/>
-      <c r="C228" s="12"/>
+      <c r="A228" s="11"/>
+      <c r="C228" s="11"/>
     </row>
     <row r="229" customHeight="1" spans="1:3">
-      <c r="A229" s="12"/>
-      <c r="C229" s="12"/>
+      <c r="A229" s="11"/>
+      <c r="C229" s="11"/>
     </row>
     <row r="230" customHeight="1" spans="1:3">
-      <c r="A230" s="12"/>
-      <c r="C230" s="12"/>
+      <c r="A230" s="11"/>
+      <c r="C230" s="11"/>
     </row>
     <row r="231" customHeight="1" spans="1:3">
-      <c r="A231" s="12"/>
-      <c r="C231" s="12"/>
+      <c r="A231" s="11"/>
+      <c r="C231" s="11"/>
     </row>
     <row r="232" customHeight="1" spans="1:3">
-      <c r="A232" s="12"/>
-      <c r="C232" s="12"/>
+      <c r="A232" s="11"/>
+      <c r="C232" s="11"/>
     </row>
     <row r="233" customHeight="1" spans="1:3">
-      <c r="A233" s="12"/>
-      <c r="C233" s="12"/>
+      <c r="A233" s="11"/>
+      <c r="C233" s="11"/>
     </row>
     <row r="234" customHeight="1" spans="1:3">
-      <c r="A234" s="12"/>
-      <c r="C234" s="12"/>
+      <c r="A234" s="11"/>
+      <c r="C234" s="11"/>
     </row>
     <row r="235" customHeight="1" spans="1:3">
-      <c r="A235" s="12"/>
-      <c r="C235" s="12"/>
+      <c r="A235" s="11"/>
+      <c r="C235" s="11"/>
     </row>
     <row r="236" customHeight="1" spans="1:3">
-      <c r="A236" s="12"/>
-      <c r="C236" s="12"/>
+      <c r="A236" s="11"/>
+      <c r="C236" s="11"/>
     </row>
     <row r="237" customHeight="1" spans="1:3">
-      <c r="A237" s="12"/>
-      <c r="C237" s="12"/>
+      <c r="A237" s="11"/>
+      <c r="C237" s="11"/>
     </row>
     <row r="238" customHeight="1" spans="1:3">
-      <c r="A238" s="12"/>
-      <c r="C238" s="12"/>
+      <c r="A238" s="11"/>
+      <c r="C238" s="11"/>
     </row>
     <row r="239" customHeight="1" spans="1:3">
-      <c r="A239" s="12"/>
-      <c r="C239" s="12"/>
+      <c r="A239" s="11"/>
+      <c r="C239" s="11"/>
     </row>
     <row r="240" customHeight="1" spans="1:3">
-      <c r="A240" s="12"/>
-      <c r="C240" s="12"/>
+      <c r="A240" s="11"/>
+      <c r="C240" s="11"/>
     </row>
     <row r="241" customHeight="1" spans="1:3">
-      <c r="A241" s="12"/>
-      <c r="C241" s="12"/>
+      <c r="A241" s="11"/>
+      <c r="C241" s="11"/>
     </row>
     <row r="242" customHeight="1" spans="1:3">
-      <c r="A242" s="12"/>
-      <c r="C242" s="12"/>
+      <c r="A242" s="11"/>
+      <c r="C242" s="11"/>
     </row>
     <row r="243" customHeight="1" spans="1:3">
-      <c r="A243" s="12"/>
-      <c r="C243" s="12"/>
+      <c r="A243" s="11"/>
+      <c r="C243" s="11"/>
     </row>
     <row r="244" customHeight="1" spans="1:3">
-      <c r="A244" s="12"/>
-      <c r="C244" s="12"/>
+      <c r="A244" s="11"/>
+      <c r="C244" s="11"/>
     </row>
     <row r="245" customHeight="1" spans="1:3">
-      <c r="A245" s="12"/>
-      <c r="C245" s="12"/>
+      <c r="A245" s="11"/>
+      <c r="C245" s="11"/>
     </row>
     <row r="246" customHeight="1" spans="1:3">
-      <c r="A246" s="12"/>
-      <c r="C246" s="12"/>
+      <c r="A246" s="11"/>
+      <c r="C246" s="11"/>
     </row>
     <row r="247" customHeight="1" spans="1:3">
-      <c r="A247" s="12"/>
-      <c r="C247" s="12"/>
+      <c r="A247" s="11"/>
+      <c r="C247" s="11"/>
     </row>
     <row r="248" customHeight="1" spans="1:3">
-      <c r="A248" s="12"/>
-      <c r="C248" s="12"/>
+      <c r="A248" s="11"/>
+      <c r="C248" s="11"/>
     </row>
     <row r="249" customHeight="1" spans="1:3">
-      <c r="A249" s="12"/>
-      <c r="C249" s="12"/>
+      <c r="A249" s="11"/>
+      <c r="C249" s="11"/>
     </row>
     <row r="250" customHeight="1" spans="1:3">
-      <c r="A250" s="12"/>
-      <c r="C250" s="12"/>
+      <c r="A250" s="11"/>
+      <c r="C250" s="11"/>
     </row>
     <row r="251" customHeight="1" spans="1:3">
-      <c r="A251" s="12"/>
-      <c r="C251" s="12"/>
+      <c r="A251" s="11"/>
+      <c r="C251" s="11"/>
     </row>
     <row r="252" customHeight="1" spans="1:3">
-      <c r="A252" s="12"/>
-      <c r="C252" s="12"/>
+      <c r="A252" s="11"/>
+      <c r="C252" s="11"/>
     </row>
     <row r="253" customHeight="1" spans="1:3">
-      <c r="A253" s="12"/>
-      <c r="C253" s="12"/>
+      <c r="A253" s="11"/>
+      <c r="C253" s="11"/>
     </row>
     <row r="254" customHeight="1" spans="1:3">
-      <c r="A254" s="12"/>
-      <c r="C254" s="12"/>
+      <c r="A254" s="11"/>
+      <c r="C254" s="11"/>
     </row>
     <row r="255" customHeight="1" spans="1:3">
-      <c r="A255" s="12"/>
-      <c r="C255" s="12"/>
+      <c r="A255" s="11"/>
+      <c r="C255" s="11"/>
     </row>
     <row r="256" customHeight="1" spans="1:3">
-      <c r="A256" s="12"/>
-      <c r="C256" s="12"/>
+      <c r="A256" s="11"/>
+      <c r="C256" s="11"/>
     </row>
     <row r="257" customHeight="1" spans="1:3">
-      <c r="A257" s="12"/>
-      <c r="C257" s="12"/>
+      <c r="A257" s="11"/>
+      <c r="C257" s="11"/>
     </row>
     <row r="258" customHeight="1" spans="1:3">
-      <c r="A258" s="12"/>
-      <c r="C258" s="12"/>
+      <c r="A258" s="11"/>
+      <c r="C258" s="11"/>
     </row>
     <row r="259" customHeight="1" spans="1:3">
-      <c r="A259" s="12"/>
-      <c r="C259" s="12"/>
+      <c r="A259" s="11"/>
+      <c r="C259" s="11"/>
     </row>
     <row r="260" customHeight="1" spans="1:3">
-      <c r="A260" s="12"/>
-      <c r="C260" s="12"/>
+      <c r="A260" s="11"/>
+      <c r="C260" s="11"/>
     </row>
     <row r="261" customHeight="1" spans="1:3">
-      <c r="A261" s="12"/>
-      <c r="C261" s="12"/>
+      <c r="A261" s="11"/>
+      <c r="C261" s="11"/>
     </row>
     <row r="262" customHeight="1" spans="1:3">
-      <c r="A262" s="12"/>
-      <c r="C262" s="12"/>
+      <c r="A262" s="11"/>
+      <c r="C262" s="11"/>
     </row>
     <row r="263" customHeight="1" spans="1:3">
-      <c r="A263" s="12"/>
-      <c r="C263" s="12"/>
+      <c r="A263" s="11"/>
+      <c r="C263" s="11"/>
     </row>
     <row r="264" customHeight="1" spans="1:3">
-      <c r="A264" s="12"/>
-      <c r="C264" s="12"/>
+      <c r="A264" s="11"/>
+      <c r="C264" s="11"/>
     </row>
     <row r="265" customHeight="1" spans="1:3">
-      <c r="A265" s="12"/>
-      <c r="C265" s="12"/>
+      <c r="A265" s="11"/>
+      <c r="C265" s="11"/>
     </row>
     <row r="266" customHeight="1" spans="1:3">
-      <c r="A266" s="12"/>
-      <c r="C266" s="12"/>
+      <c r="A266" s="11"/>
+      <c r="C266" s="11"/>
     </row>
     <row r="267" customHeight="1" spans="1:3">
-      <c r="A267" s="12"/>
-      <c r="C267" s="12"/>
+      <c r="A267" s="11"/>
+      <c r="C267" s="11"/>
     </row>
     <row r="268" customHeight="1" spans="1:3">
-      <c r="A268" s="12"/>
-      <c r="C268" s="12"/>
+      <c r="A268" s="11"/>
+      <c r="C268" s="11"/>
     </row>
     <row r="269" customHeight="1" spans="1:3">
-      <c r="A269" s="12"/>
-      <c r="C269" s="12"/>
+      <c r="A269" s="11"/>
+      <c r="C269" s="11"/>
     </row>
     <row r="270" customHeight="1" spans="1:3">
-      <c r="A270" s="12"/>
-      <c r="C270" s="12"/>
+      <c r="A270" s="11"/>
+      <c r="C270" s="11"/>
     </row>
     <row r="271" customHeight="1" spans="1:3">
-      <c r="A271" s="12"/>
-      <c r="C271" s="12"/>
+      <c r="A271" s="11"/>
+      <c r="C271" s="11"/>
     </row>
     <row r="272" customHeight="1" spans="1:3">
-      <c r="A272" s="12"/>
-      <c r="C272" s="12"/>
+      <c r="A272" s="11"/>
+      <c r="C272" s="11"/>
     </row>
     <row r="273" customHeight="1" spans="1:3">
-      <c r="A273" s="12"/>
-      <c r="C273" s="12"/>
+      <c r="A273" s="11"/>
+      <c r="C273" s="11"/>
     </row>
     <row r="274" customHeight="1" spans="1:3">
-      <c r="A274" s="12"/>
-      <c r="C274" s="12"/>
+      <c r="A274" s="11"/>
+      <c r="C274" s="11"/>
     </row>
     <row r="275" customHeight="1" spans="1:3">
-      <c r="A275" s="12"/>
-      <c r="C275" s="12"/>
+      <c r="A275" s="11"/>
+      <c r="C275" s="11"/>
     </row>
     <row r="276" customHeight="1" spans="1:3">
-      <c r="A276" s="12"/>
-      <c r="C276" s="12"/>
+      <c r="A276" s="11"/>
+      <c r="C276" s="11"/>
     </row>
     <row r="277" customHeight="1" spans="1:3">
-      <c r="A277" s="12"/>
-      <c r="C277" s="12"/>
+      <c r="A277" s="11"/>
+      <c r="C277" s="11"/>
     </row>
     <row r="278" customHeight="1" spans="1:3">
-      <c r="A278" s="12"/>
-      <c r="C278" s="12"/>
+      <c r="A278" s="11"/>
+      <c r="C278" s="11"/>
     </row>
     <row r="279" customHeight="1" spans="1:3">
-      <c r="A279" s="12"/>
-      <c r="C279" s="12"/>
+      <c r="A279" s="11"/>
+      <c r="C279" s="11"/>
     </row>
     <row r="280" customHeight="1" spans="1:3">
-      <c r="A280" s="12"/>
-      <c r="C280" s="12"/>
+      <c r="A280" s="11"/>
+      <c r="C280" s="11"/>
     </row>
     <row r="281" customHeight="1" spans="1:3">
-      <c r="A281" s="12"/>
-      <c r="C281" s="12"/>
+      <c r="A281" s="11"/>
+      <c r="C281" s="11"/>
     </row>
     <row r="282" customHeight="1" spans="1:3">
-      <c r="A282" s="12"/>
-      <c r="C282" s="12"/>
+      <c r="A282" s="11"/>
+      <c r="C282" s="11"/>
     </row>
     <row r="283" customHeight="1" spans="1:3">
-      <c r="A283" s="12"/>
-      <c r="C283" s="12"/>
+      <c r="A283" s="11"/>
+      <c r="C283" s="11"/>
     </row>
     <row r="284" customHeight="1" spans="1:3">
-      <c r="A284" s="12"/>
-      <c r="C284" s="12"/>
+      <c r="A284" s="11"/>
+      <c r="C284" s="11"/>
     </row>
     <row r="285" customHeight="1" spans="1:3">
-      <c r="A285" s="12"/>
-      <c r="C285" s="12"/>
+      <c r="A285" s="11"/>
+      <c r="C285" s="11"/>
     </row>
     <row r="286" customHeight="1" spans="1:3">
-      <c r="A286" s="12"/>
-      <c r="C286" s="12"/>
+      <c r="A286" s="11"/>
+      <c r="C286" s="11"/>
     </row>
     <row r="287" customHeight="1" spans="1:3">
-      <c r="A287" s="12"/>
-      <c r="C287" s="12"/>
+      <c r="A287" s="11"/>
+      <c r="C287" s="11"/>
     </row>
     <row r="288" customHeight="1" spans="1:3">
-      <c r="A288" s="12"/>
-      <c r="C288" s="12"/>
+      <c r="A288" s="11"/>
+      <c r="C288" s="11"/>
     </row>
     <row r="289" customHeight="1" spans="1:3">
-      <c r="A289" s="12"/>
-      <c r="C289" s="12"/>
+      <c r="A289" s="11"/>
+      <c r="C289" s="11"/>
     </row>
     <row r="290" customHeight="1" spans="1:3">
-      <c r="A290" s="12"/>
-      <c r="C290" s="12"/>
+      <c r="A290" s="11"/>
+      <c r="C290" s="11"/>
     </row>
     <row r="291" customHeight="1" spans="1:3">
-      <c r="A291" s="12"/>
-      <c r="C291" s="12"/>
+      <c r="A291" s="11"/>
+      <c r="C291" s="11"/>
     </row>
     <row r="292" customHeight="1" spans="1:3">
-      <c r="A292" s="12"/>
-      <c r="C292" s="12"/>
+      <c r="A292" s="11"/>
+      <c r="C292" s="11"/>
     </row>
     <row r="293" customHeight="1" spans="1:3">
-      <c r="A293" s="12"/>
-      <c r="C293" s="12"/>
+      <c r="A293" s="11"/>
+      <c r="C293" s="11"/>
     </row>
     <row r="294" customHeight="1" spans="1:3">
-      <c r="A294" s="12"/>
-      <c r="C294" s="12"/>
+      <c r="A294" s="11"/>
+      <c r="C294" s="11"/>
     </row>
     <row r="295" customHeight="1" spans="1:3">
-      <c r="A295" s="12"/>
-      <c r="C295" s="12"/>
+      <c r="A295" s="11"/>
+      <c r="C295" s="11"/>
     </row>
     <row r="296" customHeight="1" spans="1:3">
-      <c r="A296" s="12"/>
-      <c r="C296" s="12"/>
+      <c r="A296" s="11"/>
+      <c r="C296" s="11"/>
     </row>
     <row r="297" customHeight="1" spans="1:3">
-      <c r="A297" s="12"/>
-      <c r="C297" s="12"/>
+      <c r="A297" s="11"/>
+      <c r="C297" s="11"/>
     </row>
     <row r="298" customHeight="1" spans="1:3">
-      <c r="A298" s="12"/>
-      <c r="C298" s="12"/>
+      <c r="A298" s="11"/>
+      <c r="C298" s="11"/>
     </row>
     <row r="299" customHeight="1" spans="1:3">
-      <c r="A299" s="12"/>
-      <c r="C299" s="12"/>
+      <c r="A299" s="11"/>
+      <c r="C299" s="11"/>
     </row>
     <row r="300" customHeight="1" spans="1:3">
-      <c r="A300" s="12"/>
-      <c r="C300" s="12"/>
+      <c r="A300" s="11"/>
+      <c r="C300" s="11"/>
     </row>
     <row r="301" customHeight="1" spans="1:3">
-      <c r="A301" s="12"/>
-      <c r="C301" s="12"/>
+      <c r="A301" s="11"/>
+      <c r="C301" s="11"/>
     </row>
     <row r="302" customHeight="1" spans="1:3">
-      <c r="A302" s="12"/>
-      <c r="C302" s="12"/>
+      <c r="A302" s="11"/>
+      <c r="C302" s="11"/>
     </row>
     <row r="303" customHeight="1" spans="1:3">
-      <c r="A303" s="12"/>
-      <c r="C303" s="12"/>
+      <c r="A303" s="11"/>
+      <c r="C303" s="11"/>
     </row>
     <row r="304" customHeight="1" spans="1:3">
-      <c r="A304" s="12"/>
-      <c r="C304" s="12"/>
+      <c r="A304" s="11"/>
+      <c r="C304" s="11"/>
     </row>
     <row r="305" customHeight="1" spans="1:3">
-      <c r="A305" s="12"/>
-      <c r="C305" s="12"/>
+      <c r="A305" s="11"/>
+      <c r="C305" s="11"/>
     </row>
     <row r="306" customHeight="1" spans="1:3">
-      <c r="A306" s="12"/>
-      <c r="C306" s="12"/>
+      <c r="A306" s="11"/>
+      <c r="C306" s="11"/>
     </row>
     <row r="307" customHeight="1" spans="1:3">
-      <c r="A307" s="12"/>
-      <c r="C307" s="12"/>
+      <c r="A307" s="11"/>
+      <c r="C307" s="11"/>
     </row>
     <row r="308" customHeight="1" spans="1:3">
-      <c r="A308" s="12"/>
-      <c r="C308" s="12"/>
+      <c r="A308" s="11"/>
+      <c r="C308" s="11"/>
     </row>
     <row r="309" customHeight="1" spans="1:3">
-      <c r="A309" s="12"/>
-      <c r="C309" s="12"/>
+      <c r="A309" s="11"/>
+      <c r="C309" s="11"/>
     </row>
     <row r="310" customHeight="1" spans="1:3">
-      <c r="A310" s="12"/>
-      <c r="C310" s="12"/>
+      <c r="A310" s="11"/>
+      <c r="C310" s="11"/>
     </row>
     <row r="311" customHeight="1" spans="1:3">
-      <c r="A311" s="12"/>
-      <c r="C311" s="12"/>
+      <c r="A311" s="11"/>
+      <c r="C311" s="11"/>
     </row>
     <row r="312" customHeight="1" spans="1:3">
-      <c r="A312" s="12"/>
-      <c r="C312" s="12"/>
+      <c r="A312" s="11"/>
+      <c r="C312" s="11"/>
     </row>
     <row r="313" customHeight="1" spans="1:3">
-      <c r="A313" s="12"/>
-      <c r="C313" s="12"/>
+      <c r="A313" s="11"/>
+      <c r="C313" s="11"/>
     </row>
     <row r="314" customHeight="1" spans="1:3">
-      <c r="A314" s="12"/>
-      <c r="C314" s="12"/>
+      <c r="A314" s="11"/>
+      <c r="C314" s="11"/>
     </row>
     <row r="315" customHeight="1" spans="1:3">
-      <c r="A315" s="12"/>
-      <c r="C315" s="12"/>
+      <c r="A315" s="11"/>
+      <c r="C315" s="11"/>
     </row>
     <row r="316" customHeight="1" spans="1:3">
-      <c r="A316" s="12"/>
-      <c r="C316" s="12"/>
+      <c r="A316" s="11"/>
+      <c r="C316" s="11"/>
     </row>
     <row r="317" customHeight="1" spans="1:3">
-      <c r="A317" s="12"/>
-      <c r="C317" s="12"/>
+      <c r="A317" s="11"/>
+      <c r="C317" s="11"/>
     </row>
     <row r="318" customHeight="1" spans="1:3">
-      <c r="A318" s="12"/>
-      <c r="C318" s="12"/>
+      <c r="A318" s="11"/>
+      <c r="C318" s="11"/>
     </row>
     <row r="319" customHeight="1" spans="1:3">
-      <c r="A319" s="12"/>
-      <c r="C319" s="12"/>
+      <c r="A319" s="11"/>
+      <c r="C319" s="11"/>
     </row>
     <row r="320" customHeight="1" spans="1:3">
-      <c r="A320" s="12"/>
-      <c r="C320" s="12"/>
+      <c r="A320" s="11"/>
+      <c r="C320" s="11"/>
     </row>
     <row r="321" customHeight="1" spans="1:3">
-      <c r="A321" s="12"/>
-      <c r="C321" s="12"/>
+      <c r="A321" s="11"/>
+      <c r="C321" s="11"/>
     </row>
     <row r="322" customHeight="1" spans="1:3">
-      <c r="A322" s="12"/>
-      <c r="C322" s="12"/>
+      <c r="A322" s="11"/>
+      <c r="C322" s="11"/>
     </row>
     <row r="323" customHeight="1" spans="1:3">
-      <c r="A323" s="12"/>
-      <c r="C323" s="12"/>
+      <c r="A323" s="11"/>
+      <c r="C323" s="11"/>
     </row>
     <row r="324" customHeight="1" spans="1:3">
-      <c r="A324" s="12"/>
-      <c r="C324" s="12"/>
+      <c r="A324" s="11"/>
+      <c r="C324" s="11"/>
     </row>
     <row r="325" customHeight="1" spans="1:3">
-      <c r="A325" s="12"/>
-      <c r="C325" s="12"/>
+      <c r="A325" s="11"/>
+      <c r="C325" s="11"/>
     </row>
     <row r="326" customHeight="1" spans="1:3">
-      <c r="A326" s="12"/>
-      <c r="C326" s="12"/>
+      <c r="A326" s="11"/>
+      <c r="C326" s="11"/>
     </row>
     <row r="327" customHeight="1" spans="1:3">
-      <c r="A327" s="12"/>
-      <c r="C327" s="12"/>
+      <c r="A327" s="11"/>
+      <c r="C327" s="11"/>
     </row>
     <row r="328" customHeight="1" spans="1:3">
-      <c r="A328" s="12"/>
-      <c r="C328" s="12"/>
+      <c r="A328" s="11"/>
+      <c r="C328" s="11"/>
     </row>
     <row r="329" customHeight="1" spans="1:3">
-      <c r="A329" s="12"/>
-      <c r="C329" s="12"/>
+      <c r="A329" s="11"/>
+      <c r="C329" s="11"/>
     </row>
     <row r="330" customHeight="1" spans="1:3">
-      <c r="A330" s="12"/>
-      <c r="C330" s="12"/>
+      <c r="A330" s="11"/>
+      <c r="C330" s="11"/>
     </row>
     <row r="331" customHeight="1" spans="1:3">
-      <c r="A331" s="12"/>
-      <c r="C331" s="12"/>
+      <c r="A331" s="11"/>
+      <c r="C331" s="11"/>
     </row>
     <row r="332" customHeight="1" spans="1:3">
-      <c r="A332" s="12"/>
-      <c r="C332" s="12"/>
+      <c r="A332" s="11"/>
+      <c r="C332" s="11"/>
     </row>
     <row r="333" customHeight="1" spans="1:3">
-      <c r="A333" s="12"/>
-      <c r="C333" s="12"/>
+      <c r="A333" s="11"/>
+      <c r="C333" s="11"/>
     </row>
     <row r="334" customHeight="1" spans="1:3">
-      <c r="A334" s="12"/>
-      <c r="C334" s="12"/>
+      <c r="A334" s="11"/>
+      <c r="C334" s="11"/>
     </row>
     <row r="335" customHeight="1" spans="1:3">
-      <c r="A335" s="12"/>
-      <c r="C335" s="12"/>
+      <c r="A335" s="11"/>
+      <c r="C335" s="11"/>
     </row>
     <row r="336" customHeight="1" spans="1:3">
-      <c r="A336" s="12"/>
-      <c r="C336" s="12"/>
+      <c r="A336" s="11"/>
+      <c r="C336" s="11"/>
     </row>
     <row r="337" customHeight="1" spans="1:3">
-      <c r="A337" s="12"/>
-      <c r="C337" s="12"/>
+      <c r="A337" s="11"/>
+      <c r="C337" s="11"/>
     </row>
     <row r="338" customHeight="1" spans="1:3">
-      <c r="A338" s="12"/>
-      <c r="C338" s="12"/>
+      <c r="A338" s="11"/>
+      <c r="C338" s="11"/>
     </row>
     <row r="339" customHeight="1" spans="1:3">
-      <c r="A339" s="12"/>
-      <c r="C339" s="12"/>
+      <c r="A339" s="11"/>
+      <c r="C339" s="11"/>
     </row>
     <row r="340" customHeight="1" spans="1:3">
-      <c r="A340" s="12"/>
-      <c r="C340" s="12"/>
+      <c r="A340" s="11"/>
+      <c r="C340" s="11"/>
     </row>
     <row r="341" customHeight="1" spans="1:3">
-      <c r="A341" s="12"/>
-      <c r="C341" s="12"/>
+      <c r="A341" s="11"/>
+      <c r="C341" s="11"/>
     </row>
     <row r="342" customHeight="1" spans="1:3">
-      <c r="A342" s="12"/>
-      <c r="C342" s="12"/>
+      <c r="A342" s="11"/>
+      <c r="C342" s="11"/>
     </row>
     <row r="343" customHeight="1" spans="1:3">
-      <c r="A343" s="12"/>
-      <c r="C343" s="12"/>
+      <c r="A343" s="11"/>
+      <c r="C343" s="11"/>
     </row>
     <row r="344" customHeight="1" spans="1:3">
-      <c r="A344" s="12"/>
-      <c r="C344" s="12"/>
+      <c r="A344" s="11"/>
+      <c r="C344" s="11"/>
     </row>
     <row r="345" customHeight="1" spans="1:3">
-      <c r="A345" s="12"/>
-      <c r="C345" s="12"/>
+      <c r="A345" s="11"/>
+      <c r="C345" s="11"/>
     </row>
     <row r="346" customHeight="1" spans="1:3">
-      <c r="A346" s="12"/>
-      <c r="C346" s="12"/>
+      <c r="A346" s="11"/>
+      <c r="C346" s="11"/>
     </row>
     <row r="347" customHeight="1" spans="1:3">
-      <c r="A347" s="12"/>
-      <c r="C347" s="12"/>
+      <c r="A347" s="11"/>
+      <c r="C347" s="11"/>
     </row>
     <row r="348" customHeight="1" spans="1:3">
-      <c r="A348" s="12"/>
-      <c r="C348" s="12"/>
+      <c r="A348" s="11"/>
+      <c r="C348" s="11"/>
     </row>
     <row r="349" customHeight="1" spans="1:3">
-      <c r="A349" s="12"/>
-      <c r="C349" s="12"/>
+      <c r="A349" s="11"/>
+      <c r="C349" s="11"/>
     </row>
     <row r="350" customHeight="1" spans="1:3">
-      <c r="A350" s="12"/>
-      <c r="C350" s="12"/>
+      <c r="A350" s="11"/>
+      <c r="C350" s="11"/>
     </row>
     <row r="351" customHeight="1" spans="1:3">
-      <c r="A351" s="12"/>
-      <c r="C351" s="12"/>
+      <c r="A351" s="11"/>
+      <c r="C351" s="11"/>
     </row>
     <row r="352" customHeight="1" spans="1:3">
-      <c r="A352" s="12"/>
-      <c r="C352" s="12"/>
+      <c r="A352" s="11"/>
+      <c r="C352" s="11"/>
     </row>
     <row r="353" customHeight="1" spans="1:3">
-      <c r="A353" s="12"/>
-      <c r="C353" s="12"/>
+      <c r="A353" s="11"/>
+      <c r="C353" s="11"/>
     </row>
     <row r="354" customHeight="1" spans="1:3">
-      <c r="A354" s="12"/>
-      <c r="C354" s="12"/>
+      <c r="A354" s="11"/>
+      <c r="C354" s="11"/>
     </row>
     <row r="355" customHeight="1" spans="1:3">
-      <c r="A355" s="12"/>
-      <c r="C355" s="12"/>
+      <c r="A355" s="11"/>
+      <c r="C355" s="11"/>
     </row>
     <row r="356" customHeight="1" spans="1:3">
-      <c r="A356" s="12"/>
-      <c r="C356" s="12"/>
+      <c r="A356" s="11"/>
+      <c r="C356" s="11"/>
     </row>
     <row r="357" customHeight="1" spans="1:3">
-      <c r="A357" s="12"/>
-      <c r="C357" s="12"/>
+      <c r="A357" s="11"/>
+      <c r="C357" s="11"/>
     </row>
     <row r="358" customHeight="1" spans="1:3">
-      <c r="A358" s="12"/>
-      <c r="C358" s="12"/>
+      <c r="A358" s="11"/>
+      <c r="C358" s="11"/>
     </row>
     <row r="359" customHeight="1" spans="1:3">
-      <c r="A359" s="12"/>
-      <c r="C359" s="12"/>
+      <c r="A359" s="11"/>
+      <c r="C359" s="11"/>
     </row>
     <row r="360" customHeight="1" spans="1:3">
-      <c r="A360" s="12"/>
-      <c r="C360" s="12"/>
+      <c r="A360" s="11"/>
+      <c r="C360" s="11"/>
     </row>
     <row r="361" customHeight="1" spans="1:3">
-      <c r="A361" s="12"/>
-      <c r="C361" s="12"/>
+      <c r="A361" s="11"/>
+      <c r="C361" s="11"/>
     </row>
     <row r="362" customHeight="1" spans="1:3">
-      <c r="A362" s="12"/>
-      <c r="C362" s="12"/>
+      <c r="A362" s="11"/>
+      <c r="C362" s="11"/>
     </row>
     <row r="363" customHeight="1" spans="1:3">
-      <c r="A363" s="12"/>
-      <c r="C363" s="12"/>
+      <c r="A363" s="11"/>
+      <c r="C363" s="11"/>
     </row>
     <row r="364" customHeight="1" spans="1:3">
-      <c r="A364" s="12"/>
-      <c r="C364" s="12"/>
+      <c r="A364" s="11"/>
+      <c r="C364" s="11"/>
     </row>
     <row r="365" customHeight="1" spans="1:3">
-      <c r="A365" s="12"/>
-      <c r="C365" s="12"/>
+      <c r="A365" s="11"/>
+      <c r="C365" s="11"/>
     </row>
     <row r="366" customHeight="1" spans="1:3">
-      <c r="A366" s="12"/>
-      <c r="C366" s="12"/>
+      <c r="A366" s="11"/>
+      <c r="C366" s="11"/>
     </row>
     <row r="367" customHeight="1" spans="1:3">
-      <c r="A367" s="12"/>
-      <c r="C367" s="12"/>
+      <c r="A367" s="11"/>
+      <c r="C367" s="11"/>
     </row>
     <row r="368" customHeight="1" spans="1:3">
-      <c r="A368" s="12"/>
-      <c r="C368" s="12"/>
+      <c r="A368" s="11"/>
+      <c r="C368" s="11"/>
     </row>
     <row r="369" customHeight="1" spans="1:3">
-      <c r="A369" s="12"/>
-      <c r="C369" s="12"/>
+      <c r="A369" s="11"/>
+      <c r="C369" s="11"/>
     </row>
     <row r="370" customHeight="1" spans="1:3">
-      <c r="A370" s="12"/>
-      <c r="C370" s="12"/>
+      <c r="A370" s="11"/>
+      <c r="C370" s="11"/>
     </row>
     <row r="371" customHeight="1" spans="1:3">
-      <c r="A371" s="12"/>
-      <c r="C371" s="12"/>
+      <c r="A371" s="11"/>
+      <c r="C371" s="11"/>
     </row>
     <row r="372" customHeight="1" spans="1:3">
-      <c r="A372" s="12"/>
-      <c r="C372" s="12"/>
+      <c r="A372" s="11"/>
+      <c r="C372" s="11"/>
     </row>
     <row r="373" customHeight="1" spans="1:3">
-      <c r="A373" s="12"/>
-      <c r="C373" s="12"/>
+      <c r="A373" s="11"/>
+      <c r="C373" s="11"/>
     </row>
     <row r="374" customHeight="1" spans="1:3">
-      <c r="A374" s="12"/>
-      <c r="C374" s="12"/>
+      <c r="A374" s="11"/>
+      <c r="C374" s="11"/>
     </row>
     <row r="375" customHeight="1" spans="1:3">
-      <c r="A375" s="12"/>
-      <c r="C375" s="12"/>
+      <c r="A375" s="11"/>
+      <c r="C375" s="11"/>
     </row>
     <row r="376" customHeight="1" spans="1:3">
-      <c r="A376" s="12"/>
-      <c r="C376" s="12"/>
+      <c r="A376" s="11"/>
+      <c r="C376" s="11"/>
     </row>
     <row r="377" customHeight="1" spans="1:3">
-      <c r="A377" s="12"/>
-      <c r="C377" s="12"/>
+      <c r="A377" s="11"/>
+      <c r="C377" s="11"/>
     </row>
     <row r="378" customHeight="1" spans="1:3">
-      <c r="A378" s="12"/>
-      <c r="C378" s="12"/>
+      <c r="A378" s="11"/>
+      <c r="C378" s="11"/>
     </row>
     <row r="379" customHeight="1" spans="1:3">
-      <c r="A379" s="12"/>
-      <c r="C379" s="12"/>
+      <c r="A379" s="11"/>
+      <c r="C379" s="11"/>
     </row>
     <row r="380" customHeight="1" spans="1:3">
-      <c r="A380" s="12"/>
-      <c r="C380" s="12"/>
+      <c r="A380" s="11"/>
+      <c r="C380" s="11"/>
     </row>
     <row r="381" customHeight="1" spans="1:3">
-      <c r="A381" s="12"/>
-      <c r="C381" s="12"/>
+      <c r="A381" s="11"/>
+      <c r="C381" s="11"/>
     </row>
     <row r="382" customHeight="1" spans="1:3">
-      <c r="A382" s="12"/>
-      <c r="C382" s="12"/>
+      <c r="A382" s="11"/>
+      <c r="C382" s="11"/>
     </row>
     <row r="383" customHeight="1" spans="1:3">
-      <c r="A383" s="12"/>
-      <c r="C383" s="12"/>
+      <c r="A383" s="11"/>
+      <c r="C383" s="11"/>
     </row>
     <row r="384" customHeight="1" spans="1:3">
-      <c r="A384" s="12"/>
-      <c r="C384" s="12"/>
+      <c r="A384" s="11"/>
+      <c r="C384" s="11"/>
     </row>
     <row r="385" customHeight="1" spans="1:3">
-      <c r="A385" s="12"/>
-      <c r="C385" s="12"/>
+      <c r="A385" s="11"/>
+      <c r="C385" s="11"/>
     </row>
     <row r="386" customHeight="1" spans="1:3">
-      <c r="A386" s="12"/>
-      <c r="C386" s="12"/>
+      <c r="A386" s="11"/>
+      <c r="C386" s="11"/>
     </row>
     <row r="387" customHeight="1" spans="1:3">
-      <c r="A387" s="12"/>
-      <c r="C387" s="12"/>
+      <c r="A387" s="11"/>
+      <c r="C387" s="11"/>
     </row>
     <row r="388" customHeight="1" spans="1:3">
-      <c r="A388" s="12"/>
-      <c r="C388" s="12"/>
+      <c r="A388" s="11"/>
+      <c r="C388" s="11"/>
     </row>
     <row r="389" customHeight="1" spans="1:3">
-      <c r="A389" s="12"/>
-      <c r="C389" s="12"/>
+      <c r="A389" s="11"/>
+      <c r="C389" s="11"/>
     </row>
     <row r="390" customHeight="1" spans="1:3">
-      <c r="A390" s="12"/>
-      <c r="C390" s="12"/>
+      <c r="A390" s="11"/>
+      <c r="C390" s="11"/>
     </row>
     <row r="391" customHeight="1" spans="1:3">
-      <c r="A391" s="12"/>
-      <c r="C391" s="12"/>
+      <c r="A391" s="11"/>
+      <c r="C391" s="11"/>
     </row>
     <row r="392" customHeight="1" spans="1:3">
-      <c r="A392" s="12"/>
-      <c r="C392" s="12"/>
+      <c r="A392" s="11"/>
+      <c r="C392" s="11"/>
     </row>
     <row r="393" customHeight="1" spans="1:3">
-      <c r="A393" s="12"/>
-      <c r="C393" s="12"/>
+      <c r="A393" s="11"/>
+      <c r="C393" s="11"/>
     </row>
     <row r="394" customHeight="1" spans="1:3">
-      <c r="A394" s="12"/>
-      <c r="C394" s="12"/>
+      <c r="A394" s="11"/>
+      <c r="C394" s="11"/>
     </row>
     <row r="395" customHeight="1" spans="1:3">
-      <c r="A395" s="12"/>
-      <c r="C395" s="12"/>
+      <c r="A395" s="11"/>
+      <c r="C395" s="11"/>
     </row>
     <row r="396" customHeight="1" spans="1:3">
-      <c r="A396" s="12"/>
-      <c r="C396" s="12"/>
+      <c r="A396" s="11"/>
+      <c r="C396" s="11"/>
     </row>
     <row r="397" customHeight="1" spans="1:3">
-      <c r="A397" s="12"/>
-      <c r="C397" s="12"/>
+      <c r="A397" s="11"/>
+      <c r="C397" s="11"/>
     </row>
     <row r="398" customHeight="1" spans="1:3">
-      <c r="A398" s="12"/>
-      <c r="C398" s="12"/>
+      <c r="A398" s="11"/>
+      <c r="C398" s="11"/>
     </row>
     <row r="399" customHeight="1" spans="1:3">
-      <c r="A399" s="12"/>
-      <c r="C399" s="12"/>
+      <c r="A399" s="11"/>
+      <c r="C399" s="11"/>
     </row>
     <row r="400" customHeight="1" spans="1:3">
-      <c r="A400" s="12"/>
-      <c r="C400" s="12"/>
+      <c r="A400" s="11"/>
+      <c r="C400" s="11"/>
     </row>
     <row r="401" customHeight="1" spans="1:3">
-      <c r="A401" s="12"/>
-      <c r="C401" s="12"/>
+      <c r="A401" s="11"/>
+      <c r="C401" s="11"/>
     </row>
     <row r="402" customHeight="1" spans="1:3">
-      <c r="A402" s="12"/>
-      <c r="C402" s="12"/>
+      <c r="A402" s="11"/>
+      <c r="C402" s="11"/>
     </row>
     <row r="403" customHeight="1" spans="1:3">
-      <c r="A403" s="12"/>
-      <c r="C403" s="12"/>
+      <c r="A403" s="11"/>
+      <c r="C403" s="11"/>
     </row>
     <row r="404" customHeight="1" spans="1:3">
-      <c r="A404" s="12"/>
-      <c r="C404" s="12"/>
+      <c r="A404" s="11"/>
+      <c r="C404" s="11"/>
     </row>
     <row r="405" customHeight="1" spans="1:3">
-      <c r="A405" s="12"/>
-      <c r="C405" s="12"/>
+      <c r="A405" s="11"/>
+      <c r="C405" s="11"/>
     </row>
     <row r="406" customHeight="1" spans="1:3">
-      <c r="A406" s="12"/>
-      <c r="C406" s="12"/>
+      <c r="A406" s="11"/>
+      <c r="C406" s="11"/>
     </row>
     <row r="407" customHeight="1" spans="1:3">
-      <c r="A407" s="12"/>
-      <c r="C407" s="12"/>
+      <c r="A407" s="11"/>
+      <c r="C407" s="11"/>
     </row>
     <row r="408" customHeight="1" spans="1:3">
-      <c r="A408" s="12"/>
-      <c r="C408" s="12"/>
+      <c r="A408" s="11"/>
+      <c r="C408" s="11"/>
     </row>
     <row r="409" customHeight="1" spans="1:3">
-      <c r="A409" s="12"/>
-      <c r="C409" s="12"/>
+      <c r="A409" s="11"/>
+      <c r="C409" s="11"/>
     </row>
     <row r="410" customHeight="1" spans="1:3">
-      <c r="A410" s="12"/>
-      <c r="C410" s="12"/>
+      <c r="A410" s="11"/>
+      <c r="C410" s="11"/>
     </row>
     <row r="411" customHeight="1" spans="1:3">
-      <c r="A411" s="12"/>
-      <c r="C411" s="12"/>
+      <c r="A411" s="11"/>
+      <c r="C411" s="11"/>
     </row>
     <row r="412" customHeight="1" spans="1:3">
-      <c r="A412" s="12"/>
-      <c r="C412" s="12"/>
+      <c r="A412" s="11"/>
+      <c r="C412" s="11"/>
     </row>
     <row r="413" customHeight="1" spans="1:3">
-      <c r="A413" s="12"/>
-      <c r="C413" s="12"/>
+      <c r="A413" s="11"/>
+      <c r="C413" s="11"/>
     </row>
     <row r="414" customHeight="1" spans="1:3">
-      <c r="A414" s="12"/>
-      <c r="C414" s="12"/>
+      <c r="A414" s="11"/>
+      <c r="C414" s="11"/>
     </row>
     <row r="415" customHeight="1" spans="1:3">
-      <c r="A415" s="12"/>
-      <c r="C415" s="12"/>
+      <c r="A415" s="11"/>
+      <c r="C415" s="11"/>
     </row>
     <row r="416" customHeight="1" spans="1:3">
-      <c r="A416" s="12"/>
-      <c r="C416" s="12"/>
+      <c r="A416" s="11"/>
+      <c r="C416" s="11"/>
     </row>
     <row r="417" customHeight="1" spans="1:3">
-      <c r="A417" s="12"/>
-      <c r="C417" s="12"/>
+      <c r="A417" s="11"/>
+      <c r="C417" s="11"/>
     </row>
     <row r="418" customHeight="1" spans="1:3">
-      <c r="A418" s="12"/>
-      <c r="C418" s="12"/>
+      <c r="A418" s="11"/>
+      <c r="C418" s="11"/>
     </row>
     <row r="419" customHeight="1" spans="1:3">
-      <c r="A419" s="12"/>
-      <c r="C419" s="12"/>
+      <c r="A419" s="11"/>
+      <c r="C419" s="11"/>
     </row>
     <row r="420" customHeight="1" spans="1:3">
-      <c r="A420" s="12"/>
-      <c r="C420" s="12"/>
+      <c r="A420" s="11"/>
+      <c r="C420" s="11"/>
     </row>
     <row r="421" customHeight="1" spans="1:3">
-      <c r="A421" s="12"/>
-      <c r="C421" s="12"/>
+      <c r="A421" s="11"/>
+      <c r="C421" s="11"/>
     </row>
     <row r="422" customHeight="1" spans="1:3">
-      <c r="A422" s="12"/>
-      <c r="C422" s="12"/>
+      <c r="A422" s="11"/>
+      <c r="C422" s="11"/>
     </row>
     <row r="423" customHeight="1" spans="1:3">
-      <c r="A423" s="12"/>
-      <c r="C423" s="12"/>
+      <c r="A423" s="11"/>
+      <c r="C423" s="11"/>
     </row>
     <row r="424" customHeight="1" spans="1:3">
-      <c r="A424" s="12"/>
-      <c r="C424" s="12"/>
+      <c r="A424" s="11"/>
+      <c r="C424" s="11"/>
     </row>
     <row r="425" customHeight="1" spans="1:3">
-      <c r="A425" s="12"/>
-      <c r="C425" s="12"/>
+      <c r="A425" s="11"/>
+      <c r="C425" s="11"/>
     </row>
     <row r="426" customHeight="1" spans="1:3">
-      <c r="A426" s="12"/>
-      <c r="C426" s="12"/>
+      <c r="A426" s="11"/>
+      <c r="C426" s="11"/>
     </row>
     <row r="427" customHeight="1" spans="1:3">
-      <c r="A427" s="12"/>
-      <c r="C427" s="12"/>
+      <c r="A427" s="11"/>
+      <c r="C427" s="11"/>
     </row>
     <row r="428" customHeight="1" spans="1:3">
-      <c r="A428" s="12"/>
-      <c r="C428" s="12"/>
+      <c r="A428" s="11"/>
+      <c r="C428" s="11"/>
     </row>
     <row r="429" customHeight="1" spans="1:3">
-      <c r="A429" s="12"/>
-      <c r="C429" s="12"/>
+      <c r="A429" s="11"/>
+      <c r="C429" s="11"/>
     </row>
     <row r="430" customHeight="1" spans="1:3">
-      <c r="A430" s="12"/>
-      <c r="C430" s="12"/>
+      <c r="A430" s="11"/>
+      <c r="C430" s="11"/>
     </row>
     <row r="431" customHeight="1" spans="1:3">
-      <c r="A431" s="12"/>
-      <c r="C431" s="12"/>
+      <c r="A431" s="11"/>
+      <c r="C431" s="11"/>
     </row>
     <row r="432" customHeight="1" spans="1:3">
-      <c r="A432" s="12"/>
-      <c r="C432" s="12"/>
+      <c r="A432" s="11"/>
+      <c r="C432" s="11"/>
     </row>
     <row r="433" customHeight="1" spans="1:3">
-      <c r="A433" s="12"/>
-      <c r="C433" s="12"/>
+      <c r="A433" s="11"/>
+      <c r="C433" s="11"/>
     </row>
     <row r="434" customHeight="1" spans="1:3">
-      <c r="A434" s="12"/>
-      <c r="C434" s="12"/>
+      <c r="A434" s="11"/>
+      <c r="C434" s="11"/>
     </row>
     <row r="435" customHeight="1" spans="1:3">
-      <c r="A435" s="12"/>
-      <c r="C435" s="12"/>
+      <c r="A435" s="11"/>
+      <c r="C435" s="11"/>
     </row>
     <row r="436" customHeight="1" spans="1:3">
-      <c r="A436" s="12"/>
-      <c r="C436" s="12"/>
+      <c r="A436" s="11"/>
+      <c r="C436" s="11"/>
     </row>
     <row r="437" customHeight="1" spans="1:3">
-      <c r="A437" s="12"/>
-      <c r="C437" s="12"/>
+      <c r="A437" s="11"/>
+      <c r="C437" s="11"/>
     </row>
     <row r="438" customHeight="1" spans="1:3">
-      <c r="A438" s="12"/>
-      <c r="C438" s="12"/>
+      <c r="A438" s="11"/>
+      <c r="C438" s="11"/>
     </row>
     <row r="439" customHeight="1" spans="1:3">
-      <c r="A439" s="12"/>
-      <c r="C439" s="12"/>
+      <c r="A439" s="11"/>
+      <c r="C439" s="11"/>
     </row>
     <row r="440" customHeight="1" spans="1:3">
-      <c r="A440" s="12"/>
-      <c r="C440" s="12"/>
+      <c r="A440" s="11"/>
+      <c r="C440" s="11"/>
     </row>
     <row r="441" customHeight="1" spans="1:3">
-      <c r="A441" s="12"/>
-      <c r="C441" s="12"/>
+      <c r="A441" s="11"/>
+      <c r="C441" s="11"/>
     </row>
     <row r="442" customHeight="1" spans="1:3">
-      <c r="A442" s="12"/>
-      <c r="C442" s="12"/>
+      <c r="A442" s="11"/>
+      <c r="C442" s="11"/>
     </row>
     <row r="443" customHeight="1" spans="1:3">
-      <c r="A443" s="12"/>
-      <c r="C443" s="12"/>
+      <c r="A443" s="11"/>
+      <c r="C443" s="11"/>
     </row>
     <row r="444" customHeight="1" spans="1:3">
-      <c r="A444" s="12"/>
-      <c r="C444" s="12"/>
+      <c r="A444" s="11"/>
+      <c r="C444" s="11"/>
     </row>
     <row r="445" customHeight="1" spans="1:3">
-      <c r="A445" s="12"/>
-      <c r="C445" s="12"/>
+      <c r="A445" s="11"/>
+      <c r="C445" s="11"/>
     </row>
     <row r="446" customHeight="1" spans="1:3">
-      <c r="A446" s="12"/>
-      <c r="C446" s="12"/>
+      <c r="A446" s="11"/>
+      <c r="C446" s="11"/>
     </row>
     <row r="447" customHeight="1" spans="1:3">
-      <c r="A447" s="12"/>
-      <c r="C447" s="12"/>
+      <c r="A447" s="11"/>
+      <c r="C447" s="11"/>
     </row>
     <row r="448" customHeight="1" spans="1:3">
-      <c r="A448" s="12"/>
-      <c r="C448" s="12"/>
+      <c r="A448" s="11"/>
+      <c r="C448" s="11"/>
     </row>
     <row r="449" customHeight="1" spans="1:3">
-      <c r="A449" s="12"/>
-      <c r="C449" s="12"/>
+      <c r="A449" s="11"/>
+      <c r="C449" s="11"/>
     </row>
     <row r="450" customHeight="1" spans="1:3">
-      <c r="A450" s="12"/>
-      <c r="C450" s="12"/>
+      <c r="A450" s="11"/>
+      <c r="C450" s="11"/>
     </row>
     <row r="451" customHeight="1" spans="1:3">
-      <c r="A451" s="12"/>
-      <c r="C451" s="12"/>
+      <c r="A451" s="11"/>
+      <c r="C451" s="11"/>
     </row>
     <row r="452" customHeight="1" spans="1:3">
-      <c r="A452" s="12"/>
-      <c r="C452" s="12"/>
+      <c r="A452" s="11"/>
+      <c r="C452" s="11"/>
     </row>
     <row r="453" customHeight="1" spans="1:3">
-      <c r="A453" s="12"/>
-      <c r="C453" s="12"/>
+      <c r="A453" s="11"/>
+      <c r="C453" s="11"/>
     </row>
     <row r="454" customHeight="1" spans="1:3">
-      <c r="A454" s="12"/>
-      <c r="C454" s="12"/>
+      <c r="A454" s="11"/>
+      <c r="C454" s="11"/>
     </row>
     <row r="455" customHeight="1" spans="1:3">
-      <c r="A455" s="12"/>
-      <c r="C455" s="12"/>
+      <c r="A455" s="11"/>
+      <c r="C455" s="11"/>
     </row>
     <row r="456" customHeight="1" spans="1:3">
-      <c r="A456" s="12"/>
-      <c r="C456" s="12"/>
+      <c r="A456" s="11"/>
+      <c r="C456" s="11"/>
     </row>
     <row r="457" customHeight="1" spans="1:3">
-      <c r="A457" s="12"/>
-      <c r="C457" s="12"/>
+      <c r="A457" s="11"/>
+      <c r="C457" s="11"/>
     </row>
     <row r="458" customHeight="1" spans="1:3">
-      <c r="A458" s="12"/>
-      <c r="C458" s="12"/>
+      <c r="A458" s="11"/>
+      <c r="C458" s="11"/>
     </row>
     <row r="459" customHeight="1" spans="1:3">
-      <c r="A459" s="12"/>
-      <c r="C459" s="12"/>
+      <c r="A459" s="11"/>
+      <c r="C459" s="11"/>
     </row>
     <row r="460" customHeight="1" spans="1:3">
-      <c r="A460" s="12"/>
-      <c r="C460" s="12"/>
+      <c r="A460" s="11"/>
+      <c r="C460" s="11"/>
     </row>
     <row r="461" customHeight="1" spans="1:3">
-      <c r="A461" s="12"/>
-      <c r="C461" s="12"/>
+      <c r="A461" s="11"/>
+      <c r="C461" s="11"/>
     </row>
     <row r="462" customHeight="1" spans="1:3">
-      <c r="A462" s="12"/>
-      <c r="C462" s="12"/>
+      <c r="A462" s="11"/>
+      <c r="C462" s="11"/>
     </row>
     <row r="463" customHeight="1" spans="1:3">
-      <c r="A463" s="12"/>
-      <c r="C463" s="12"/>
+      <c r="A463" s="11"/>
+      <c r="C463" s="11"/>
     </row>
     <row r="464" customHeight="1" spans="1:3">
-      <c r="A464" s="12"/>
-      <c r="C464" s="12"/>
+      <c r="A464" s="11"/>
+      <c r="C464" s="11"/>
     </row>
     <row r="465" customHeight="1" spans="1:3">
-      <c r="A465" s="12"/>
-      <c r="C465" s="12"/>
+      <c r="A465" s="11"/>
+      <c r="C465" s="11"/>
     </row>
     <row r="466" customHeight="1" spans="1:3">
-      <c r="A466" s="12"/>
-      <c r="C466" s="12"/>
+      <c r="A466" s="11"/>
+      <c r="C466" s="11"/>
     </row>
     <row r="467" customHeight="1" spans="1:3">
-      <c r="A467" s="12"/>
-      <c r="C467" s="12"/>
+      <c r="A467" s="11"/>
+      <c r="C467" s="11"/>
     </row>
     <row r="468" customHeight="1" spans="1:3">
-      <c r="A468" s="12"/>
-      <c r="C468" s="12"/>
+      <c r="A468" s="11"/>
+      <c r="C468" s="11"/>
     </row>
     <row r="469" customHeight="1" spans="1:3">
-      <c r="A469" s="12"/>
-      <c r="C469" s="12"/>
+      <c r="A469" s="11"/>
+      <c r="C469" s="11"/>
     </row>
     <row r="470" customHeight="1" spans="1:3">
-      <c r="A470" s="12"/>
-      <c r="C470" s="12"/>
+      <c r="A470" s="11"/>
+      <c r="C470" s="11"/>
     </row>
     <row r="471" customHeight="1" spans="1:3">
-      <c r="A471" s="12"/>
-      <c r="C471" s="12"/>
+      <c r="A471" s="11"/>
+      <c r="C471" s="11"/>
     </row>
     <row r="472" customHeight="1" spans="1:3">
-      <c r="A472" s="12"/>
-      <c r="C472" s="12"/>
+      <c r="A472" s="11"/>
+      <c r="C472" s="11"/>
     </row>
     <row r="473" customHeight="1" spans="1:3">
-      <c r="A473" s="12"/>
-      <c r="C473" s="12"/>
+      <c r="A473" s="11"/>
+      <c r="C473" s="11"/>
     </row>
     <row r="474" customHeight="1" spans="1:3">
-      <c r="A474" s="12"/>
-      <c r="C474" s="12"/>
+      <c r="A474" s="11"/>
+      <c r="C474" s="11"/>
     </row>
     <row r="475" customHeight="1" spans="1:3">
-      <c r="A475" s="12"/>
-      <c r="C475" s="12"/>
+      <c r="A475" s="11"/>
+      <c r="C475" s="11"/>
     </row>
     <row r="476" customHeight="1" spans="1:3">
-      <c r="A476" s="12"/>
-      <c r="C476" s="12"/>
+      <c r="A476" s="11"/>
+      <c r="C476" s="11"/>
     </row>
     <row r="477" customHeight="1" spans="1:3">
-      <c r="A477" s="12"/>
-      <c r="C477" s="12"/>
+      <c r="A477" s="11"/>
+      <c r="C477" s="11"/>
     </row>
     <row r="478" customHeight="1" spans="1:3">
-      <c r="A478" s="12"/>
-      <c r="C478" s="12"/>
+      <c r="A478" s="11"/>
+      <c r="C478" s="11"/>
     </row>
     <row r="479" customHeight="1" spans="1:3">
-      <c r="A479" s="12"/>
-      <c r="C479" s="12"/>
+      <c r="A479" s="11"/>
+      <c r="C479" s="11"/>
     </row>
     <row r="480" customHeight="1" spans="1:3">
-      <c r="A480" s="12"/>
-      <c r="C480" s="12"/>
+      <c r="A480" s="11"/>
+      <c r="C480" s="11"/>
     </row>
     <row r="481" customHeight="1" spans="1:3">
-      <c r="A481" s="12"/>
-      <c r="C481" s="12"/>
+      <c r="A481" s="11"/>
+      <c r="C481" s="11"/>
     </row>
     <row r="482" customHeight="1" spans="1:3">
-      <c r="A482" s="12"/>
-      <c r="C482" s="12"/>
+      <c r="A482" s="11"/>
+      <c r="C482" s="11"/>
     </row>
     <row r="483" customHeight="1" spans="1:3">
-      <c r="A483" s="12"/>
-      <c r="C483" s="12"/>
+      <c r="A483" s="11"/>
+      <c r="C483" s="11"/>
     </row>
     <row r="484" customHeight="1" spans="1:3">
-      <c r="A484" s="12"/>
-      <c r="C484" s="12"/>
+      <c r="A484" s="11"/>
+      <c r="C484" s="11"/>
     </row>
     <row r="485" customHeight="1" spans="1:3">
-      <c r="A485" s="12"/>
-      <c r="C485" s="12"/>
+      <c r="A485" s="11"/>
+      <c r="C485" s="11"/>
     </row>
     <row r="486" customHeight="1" spans="1:3">
-      <c r="A486" s="12"/>
-      <c r="C486" s="12"/>
+      <c r="A486" s="11"/>
+      <c r="C486" s="11"/>
     </row>
     <row r="487" customHeight="1" spans="1:3">
-      <c r="A487" s="12"/>
-      <c r="C487" s="12"/>
+      <c r="A487" s="11"/>
+      <c r="C487" s="11"/>
     </row>
     <row r="488" customHeight="1" spans="1:3">
-      <c r="A488" s="12"/>
-      <c r="C488" s="12"/>
+      <c r="A488" s="11"/>
+      <c r="C488" s="11"/>
     </row>
     <row r="489" customHeight="1" spans="1:3">
-      <c r="A489" s="12"/>
-      <c r="C489" s="12"/>
+      <c r="A489" s="11"/>
+      <c r="C489" s="11"/>
     </row>
     <row r="490" customHeight="1" spans="1:3">
-      <c r="A490" s="12"/>
-      <c r="C490" s="12"/>
+      <c r="A490" s="11"/>
+      <c r="C490" s="11"/>
     </row>
     <row r="491" customHeight="1" spans="1:3">
-      <c r="A491" s="12"/>
-      <c r="C491" s="12"/>
+      <c r="A491" s="11"/>
+      <c r="C491" s="11"/>
     </row>
     <row r="492" customHeight="1" spans="1:3">
-      <c r="A492" s="12"/>
-      <c r="C492" s="12"/>
+      <c r="A492" s="11"/>
+      <c r="C492" s="11"/>
     </row>
     <row r="493" customHeight="1" spans="1:3">
-      <c r="A493" s="12"/>
-      <c r="C493" s="12"/>
+      <c r="A493" s="11"/>
+      <c r="C493" s="11"/>
     </row>
     <row r="494" customHeight="1" spans="1:3">
-      <c r="A494" s="12"/>
-      <c r="C494" s="12"/>
+      <c r="A494" s="11"/>
+      <c r="C494" s="11"/>
     </row>
     <row r="495" customHeight="1" spans="1:3">
-      <c r="A495" s="12"/>
-      <c r="C495" s="12"/>
+      <c r="A495" s="11"/>
+      <c r="C495" s="11"/>
     </row>
     <row r="496" customHeight="1" spans="1:3">
-      <c r="A496" s="12"/>
-      <c r="C496" s="12"/>
+      <c r="A496" s="11"/>
+      <c r="C496" s="11"/>
     </row>
     <row r="497" customHeight="1" spans="1:3">
-      <c r="A497" s="12"/>
-      <c r="C497" s="12"/>
+      <c r="A497" s="11"/>
+      <c r="C497" s="11"/>
     </row>
     <row r="498" customHeight="1" spans="1:3">
-      <c r="A498" s="12"/>
-      <c r="C498" s="12"/>
+      <c r="A498" s="11"/>
+      <c r="C498" s="11"/>
     </row>
     <row r="499" customHeight="1" spans="1:3">
-      <c r="A499" s="12"/>
-      <c r="C499" s="12"/>
+      <c r="A499" s="11"/>
+      <c r="C499" s="11"/>
     </row>
     <row r="500" customHeight="1" spans="1:3">
-      <c r="A500" s="12"/>
-      <c r="C500" s="12"/>
+      <c r="A500" s="11"/>
+      <c r="C500" s="11"/>
     </row>
     <row r="501" customHeight="1" spans="1:3">
-      <c r="A501" s="12"/>
-      <c r="C501" s="12"/>
+      <c r="A501" s="11"/>
+      <c r="C501" s="11"/>
     </row>
     <row r="502" customHeight="1" spans="1:3">
-      <c r="A502" s="12"/>
-      <c r="C502" s="12"/>
+      <c r="A502" s="11"/>
+      <c r="C502" s="11"/>
     </row>
     <row r="503" customHeight="1" spans="1:3">
-      <c r="A503" s="12"/>
-      <c r="C503" s="12"/>
+      <c r="A503" s="11"/>
+      <c r="C503" s="11"/>
     </row>
     <row r="504" customHeight="1" spans="1:3">
-      <c r="A504" s="12"/>
-      <c r="C504" s="12"/>
+      <c r="A504" s="11"/>
+      <c r="C504" s="11"/>
     </row>
     <row r="505" customHeight="1" spans="1:3">
-      <c r="A505" s="12"/>
-      <c r="C505" s="12"/>
+      <c r="A505" s="11"/>
+      <c r="C505" s="11"/>
     </row>
     <row r="506" customHeight="1" spans="1:3">
-      <c r="A506" s="12"/>
-      <c r="C506" s="12"/>
+      <c r="A506" s="11"/>
+      <c r="C506" s="11"/>
     </row>
     <row r="507" customHeight="1" spans="1:3">
-      <c r="A507" s="12"/>
-      <c r="C507" s="12"/>
+      <c r="A507" s="11"/>
+      <c r="C507" s="11"/>
     </row>
     <row r="508" customHeight="1" spans="1:3">
-      <c r="A508" s="12"/>
-      <c r="C508" s="12"/>
+      <c r="A508" s="11"/>
+      <c r="C508" s="11"/>
     </row>
     <row r="509" customHeight="1" spans="1:3">
-      <c r="A509" s="12"/>
-      <c r="C509" s="12"/>
+      <c r="A509" s="11"/>
+      <c r="C509" s="11"/>
     </row>
     <row r="510" customHeight="1" spans="1:3">
-      <c r="A510" s="12"/>
-      <c r="C510" s="12"/>
+      <c r="A510" s="11"/>
+      <c r="C510" s="11"/>
     </row>
     <row r="511" customHeight="1" spans="1:3">
-      <c r="A511" s="12"/>
-      <c r="C511" s="12"/>
+      <c r="A511" s="11"/>
+      <c r="C511" s="11"/>
     </row>
     <row r="512" customHeight="1" spans="1:3">
-      <c r="A512" s="12"/>
-      <c r="C512" s="12"/>
+      <c r="A512" s="11"/>
+      <c r="C512" s="11"/>
     </row>
     <row r="513" customHeight="1" spans="1:3">
-      <c r="A513" s="12"/>
-      <c r="C513" s="12"/>
+      <c r="A513" s="11"/>
+      <c r="C513" s="11"/>
     </row>
     <row r="514" customHeight="1" spans="1:3">
-      <c r="A514" s="12"/>
-      <c r="C514" s="12"/>
+      <c r="A514" s="11"/>
+      <c r="C514" s="11"/>
     </row>
     <row r="515" customHeight="1" spans="1:3">
-      <c r="A515" s="12"/>
-      <c r="C515" s="12"/>
+      <c r="A515" s="11"/>
+      <c r="C515" s="11"/>
     </row>
     <row r="516" customHeight="1" spans="1:3">
-      <c r="A516" s="12"/>
-      <c r="C516" s="12"/>
+      <c r="A516" s="11"/>
+      <c r="C516" s="11"/>
     </row>
     <row r="517" customHeight="1" spans="1:3">
-      <c r="A517" s="12"/>
-      <c r="C517" s="12"/>
+      <c r="A517" s="11"/>
+      <c r="C517" s="11"/>
     </row>
     <row r="518" customHeight="1" spans="1:3">
-      <c r="A518" s="12"/>
-      <c r="C518" s="12"/>
+      <c r="A518" s="11"/>
+      <c r="C518" s="11"/>
     </row>
     <row r="519" customHeight="1" spans="1:3">
-      <c r="A519" s="12"/>
-      <c r="C519" s="12"/>
+      <c r="A519" s="11"/>
+      <c r="C519" s="11"/>
     </row>
     <row r="520" customHeight="1" spans="1:3">
-      <c r="A520" s="12"/>
-      <c r="C520" s="12"/>
+      <c r="A520" s="11"/>
+      <c r="C520" s="11"/>
     </row>
     <row r="521" customHeight="1" spans="1:3">
-      <c r="A521" s="12"/>
-      <c r="C521" s="12"/>
+      <c r="A521" s="11"/>
+      <c r="C521" s="11"/>
     </row>
     <row r="522" customHeight="1" spans="1:3">
-      <c r="A522" s="12"/>
-      <c r="C522" s="12"/>
+      <c r="A522" s="11"/>
+      <c r="C522" s="11"/>
     </row>
     <row r="523" customHeight="1" spans="1:3">
-      <c r="A523" s="12"/>
-      <c r="C523" s="12"/>
+      <c r="A523" s="11"/>
+      <c r="C523" s="11"/>
     </row>
     <row r="524" customHeight="1" spans="1:3">
-      <c r="A524" s="12"/>
-      <c r="C524" s="12"/>
+      <c r="A524" s="11"/>
+      <c r="C524" s="11"/>
     </row>
     <row r="525" customHeight="1" spans="1:3">
-      <c r="A525" s="12"/>
-      <c r="C525" s="12"/>
+      <c r="A525" s="11"/>
+      <c r="C525" s="11"/>
     </row>
     <row r="526" customHeight="1" spans="1:3">
-      <c r="A526" s="12"/>
-      <c r="C526" s="12"/>
+      <c r="A526" s="11"/>
+      <c r="C526" s="11"/>
     </row>
     <row r="527" customHeight="1" spans="1:3">
-      <c r="A527" s="12"/>
-      <c r="C527" s="12"/>
+      <c r="A527" s="11"/>
+      <c r="C527" s="11"/>
     </row>
     <row r="528" customHeight="1" spans="1:3">
-      <c r="A528" s="12"/>
-      <c r="C528" s="12"/>
+      <c r="A528" s="11"/>
+      <c r="C528" s="11"/>
     </row>
     <row r="529" customHeight="1" spans="1:3">
-      <c r="A529" s="12"/>
-      <c r="C529" s="12"/>
+      <c r="A529" s="11"/>
+      <c r="C529" s="11"/>
     </row>
     <row r="530" customHeight="1" spans="1:3">
-      <c r="A530" s="12"/>
-      <c r="C530" s="12"/>
+      <c r="A530" s="11"/>
+      <c r="C530" s="11"/>
     </row>
     <row r="531" customHeight="1" spans="1:3">
-      <c r="A531" s="12"/>
-      <c r="C531" s="12"/>
+      <c r="A531" s="11"/>
+      <c r="C531" s="11"/>
     </row>
     <row r="532" customHeight="1" spans="1:3">
-      <c r="A532" s="12"/>
-      <c r="C532" s="12"/>
+      <c r="A532" s="11"/>
+      <c r="C532" s="11"/>
     </row>
     <row r="533" customHeight="1" spans="1:3">
-      <c r="A533" s="12"/>
-      <c r="C533" s="12"/>
+      <c r="A533" s="11"/>
+      <c r="C533" s="11"/>
     </row>
     <row r="534" customHeight="1" spans="1:3">
-      <c r="A534" s="12"/>
-      <c r="C534" s="12"/>
+      <c r="A534" s="11"/>
+      <c r="C534" s="11"/>
     </row>
     <row r="535" customHeight="1" spans="1:3">
-      <c r="A535" s="12"/>
-      <c r="C535" s="12"/>
+      <c r="A535" s="11"/>
+      <c r="C535" s="11"/>
     </row>
     <row r="536" customHeight="1" spans="1:3">
-      <c r="A536" s="12"/>
-      <c r="C536" s="12"/>
+      <c r="A536" s="11"/>
+      <c r="C536" s="11"/>
     </row>
     <row r="537" customHeight="1" spans="1:3">
-      <c r="A537" s="12"/>
-      <c r="C537" s="12"/>
+      <c r="A537" s="11"/>
+      <c r="C537" s="11"/>
     </row>
     <row r="538" customHeight="1" spans="1:3">
-      <c r="A538" s="12"/>
-      <c r="C538" s="12"/>
+      <c r="A538" s="11"/>
+      <c r="C538" s="11"/>
     </row>
     <row r="539" customHeight="1" spans="1:3">
-      <c r="A539" s="12"/>
-      <c r="C539" s="12"/>
+      <c r="A539" s="11"/>
+      <c r="C539" s="11"/>
     </row>
     <row r="540" customHeight="1" spans="1:3">
-      <c r="A540" s="12"/>
-      <c r="C540" s="12"/>
+      <c r="A540" s="11"/>
+      <c r="C540" s="11"/>
     </row>
     <row r="541" customHeight="1" spans="1:3">
-      <c r="A541" s="12"/>
-      <c r="C541" s="12"/>
+      <c r="A541" s="11"/>
+      <c r="C541" s="11"/>
     </row>
     <row r="542" customHeight="1" spans="1:3">
-      <c r="A542" s="12"/>
-      <c r="C542" s="12"/>
+      <c r="A542" s="11"/>
+      <c r="C542" s="11"/>
     </row>
     <row r="543" customHeight="1" spans="1:3">
-      <c r="A543" s="12"/>
-      <c r="C543" s="12"/>
+      <c r="A543" s="11"/>
+      <c r="C543" s="11"/>
     </row>
     <row r="544" customHeight="1" spans="1:3">
-      <c r="A544" s="12"/>
-      <c r="C544" s="12"/>
+      <c r="A544" s="11"/>
+      <c r="C544" s="11"/>
     </row>
     <row r="545" customHeight="1" spans="1:3">
-      <c r="A545" s="12"/>
-      <c r="C545" s="12"/>
+      <c r="A545" s="11"/>
+      <c r="C545" s="11"/>
     </row>
     <row r="546" customHeight="1" spans="1:3">
-      <c r="A546" s="12"/>
-      <c r="C546" s="12"/>
+      <c r="A546" s="11"/>
+      <c r="C546" s="11"/>
     </row>
     <row r="547" customHeight="1" spans="1:3">
-      <c r="A547" s="12"/>
-      <c r="C547" s="12"/>
+      <c r="A547" s="11"/>
+      <c r="C547" s="11"/>
     </row>
     <row r="548" customHeight="1" spans="1:3">
-      <c r="A548" s="12"/>
-      <c r="C548" s="12"/>
+      <c r="A548" s="11"/>
+      <c r="C548" s="11"/>
     </row>
     <row r="549" customHeight="1" spans="1:3">
-      <c r="A549" s="12"/>
-      <c r="C549" s="12"/>
+      <c r="A549" s="11"/>
+      <c r="C549" s="11"/>
     </row>
     <row r="550" customHeight="1" spans="1:3">
-      <c r="A550" s="12"/>
-      <c r="C550" s="12"/>
+      <c r="A550" s="11"/>
+      <c r="C550" s="11"/>
     </row>
     <row r="551" customHeight="1" spans="1:3">
-      <c r="A551" s="12"/>
-      <c r="C551" s="12"/>
+      <c r="A551" s="11"/>
+      <c r="C551" s="11"/>
     </row>
     <row r="552" customHeight="1" spans="1:3">
-      <c r="A552" s="12"/>
-      <c r="C552" s="12"/>
+      <c r="A552" s="11"/>
+      <c r="C552" s="11"/>
     </row>
     <row r="553" customHeight="1" spans="1:3">
-      <c r="A553" s="12"/>
-      <c r="C553" s="12"/>
+      <c r="A553" s="11"/>
+      <c r="C553" s="11"/>
     </row>
     <row r="554" customHeight="1" spans="1:3">
-      <c r="A554" s="12"/>
-      <c r="C554" s="12"/>
+      <c r="A554" s="11"/>
+      <c r="C554" s="11"/>
     </row>
     <row r="555" customHeight="1" spans="1:3">
-      <c r="A555" s="12"/>
-      <c r="C555" s="12"/>
+      <c r="A555" s="11"/>
+      <c r="C555" s="11"/>
     </row>
     <row r="556" customHeight="1" spans="1:3">
-      <c r="A556" s="12"/>
-      <c r="C556" s="12"/>
+      <c r="A556" s="11"/>
+      <c r="C556" s="11"/>
     </row>
     <row r="557" customHeight="1" spans="1:3">
-      <c r="A557" s="12"/>
-      <c r="C557" s="12"/>
+      <c r="A557" s="11"/>
+      <c r="C557" s="11"/>
     </row>
     <row r="558" customHeight="1" spans="1:3">
-      <c r="A558" s="12"/>
-      <c r="C558" s="12"/>
+      <c r="A558" s="11"/>
+      <c r="C558" s="11"/>
     </row>
     <row r="559" customHeight="1" spans="1:3">
-      <c r="A559" s="12"/>
-      <c r="C559" s="12"/>
+      <c r="A559" s="11"/>
+      <c r="C559" s="11"/>
     </row>
     <row r="560" customHeight="1" spans="1:3">
-      <c r="A560" s="12"/>
-      <c r="C560" s="12"/>
+      <c r="A560" s="11"/>
+      <c r="C560" s="11"/>
     </row>
     <row r="561" customHeight="1" spans="1:3">
-      <c r="A561" s="12"/>
-      <c r="C561" s="12"/>
+      <c r="A561" s="11"/>
+      <c r="C561" s="11"/>
     </row>
     <row r="562" customHeight="1" spans="1:3">
-      <c r="A562" s="12"/>
-      <c r="C562" s="12"/>
+      <c r="A562" s="11"/>
+      <c r="C562" s="11"/>
     </row>
     <row r="563" customHeight="1" spans="1:3">
-      <c r="A563" s="12"/>
-      <c r="C563" s="12"/>
+      <c r="A563" s="11"/>
+      <c r="C563" s="11"/>
     </row>
     <row r="564" customHeight="1" spans="1:3">
-      <c r="A564" s="12"/>
-      <c r="C564" s="12"/>
+      <c r="A564" s="11"/>
+      <c r="C564" s="11"/>
     </row>
     <row r="565" customHeight="1" spans="1:3">
-      <c r="A565" s="12"/>
-      <c r="C565" s="12"/>
+      <c r="A565" s="11"/>
+      <c r="C565" s="11"/>
     </row>
     <row r="566" customHeight="1" spans="1:3">
-      <c r="A566" s="12"/>
-      <c r="C566" s="12"/>
+      <c r="A566" s="11"/>
+      <c r="C566" s="11"/>
     </row>
     <row r="567" customHeight="1" spans="1:3">
-      <c r="A567" s="12"/>
-      <c r="C567" s="12"/>
+      <c r="A567" s="11"/>
+      <c r="C567" s="11"/>
     </row>
     <row r="568" customHeight="1" spans="1:3">
-      <c r="A568" s="12"/>
-      <c r="C568" s="12"/>
+      <c r="A568" s="11"/>
+      <c r="C568" s="11"/>
     </row>
     <row r="569" customHeight="1" spans="1:3">
-      <c r="A569" s="12"/>
-      <c r="C569" s="12"/>
+      <c r="A569" s="11"/>
+      <c r="C569" s="11"/>
     </row>
     <row r="570" customHeight="1" spans="1:3">
-      <c r="A570" s="12"/>
-      <c r="C570" s="12"/>
+      <c r="A570" s="11"/>
+      <c r="C570" s="11"/>
     </row>
     <row r="571" customHeight="1" spans="1:3">
-      <c r="A571" s="12"/>
-      <c r="C571" s="12"/>
+      <c r="A571" s="11"/>
+      <c r="C571" s="11"/>
     </row>
     <row r="572" customHeight="1" spans="1:3">
-      <c r="A572" s="12"/>
-      <c r="C572" s="12"/>
+      <c r="A572" s="11"/>
+      <c r="C572" s="11"/>
     </row>
     <row r="573" customHeight="1" spans="1:3">
-      <c r="A573" s="12"/>
-      <c r="C573" s="12"/>
+      <c r="A573" s="11"/>
+      <c r="C573" s="11"/>
     </row>
     <row r="574" customHeight="1" spans="1:3">
-      <c r="A574" s="12"/>
-      <c r="C574" s="12"/>
+      <c r="A574" s="11"/>
+      <c r="C574" s="11"/>
     </row>
     <row r="575" customHeight="1" spans="1:3">
-      <c r="A575" s="12"/>
-      <c r="C575" s="12"/>
+      <c r="A575" s="11"/>
+      <c r="C575" s="11"/>
     </row>
     <row r="576" customHeight="1" spans="1:3">
-      <c r="A576" s="12"/>
-      <c r="C576" s="12"/>
+      <c r="A576" s="11"/>
+      <c r="C576" s="11"/>
     </row>
     <row r="577" customHeight="1" spans="1:3">
-      <c r="A577" s="12"/>
-      <c r="C577" s="12"/>
+      <c r="A577" s="11"/>
+      <c r="C577" s="11"/>
     </row>
     <row r="578" customHeight="1" spans="1:3">
-      <c r="A578" s="12"/>
-      <c r="C578" s="12"/>
+      <c r="A578" s="11"/>
+      <c r="C578" s="11"/>
     </row>
     <row r="579" customHeight="1" spans="1:3">
-      <c r="A579" s="12"/>
-      <c r="C579" s="12"/>
+      <c r="A579" s="11"/>
+      <c r="C579" s="11"/>
     </row>
     <row r="580" customHeight="1" spans="1:3">
-      <c r="A580" s="12"/>
-      <c r="C580" s="12"/>
+      <c r="A580" s="11"/>
+      <c r="C580" s="11"/>
     </row>
     <row r="581" customHeight="1" spans="1:3">
-      <c r="A581" s="12"/>
-      <c r="C581" s="12"/>
+      <c r="A581" s="11"/>
+      <c r="C581" s="11"/>
     </row>
     <row r="582" customHeight="1" spans="1:3">
-      <c r="A582" s="12"/>
-      <c r="C582" s="12"/>
+      <c r="A582" s="11"/>
+      <c r="C582" s="11"/>
     </row>
     <row r="583" customHeight="1" spans="1:3">
-      <c r="A583" s="12"/>
-      <c r="C583" s="12"/>
+      <c r="A583" s="11"/>
+      <c r="C583" s="11"/>
     </row>
     <row r="584" customHeight="1" spans="1:3">
-      <c r="A584" s="12"/>
-      <c r="C584" s="12"/>
+      <c r="A584" s="11"/>
+      <c r="C584" s="11"/>
     </row>
     <row r="585" customHeight="1" spans="1:3">
-      <c r="A585" s="12"/>
-      <c r="C585" s="12"/>
+      <c r="A585" s="11"/>
+      <c r="C585" s="11"/>
     </row>
     <row r="586" customHeight="1" spans="1:3">
-      <c r="A586" s="12"/>
-      <c r="C586" s="12"/>
+      <c r="A586" s="11"/>
+      <c r="C586" s="11"/>
     </row>
     <row r="587" customHeight="1" spans="1:3">
-      <c r="A587" s="12"/>
-      <c r="C587" s="12"/>
+      <c r="A587" s="11"/>
+      <c r="C587" s="11"/>
     </row>
     <row r="588" customHeight="1" spans="1:3">
-      <c r="A588" s="12"/>
-      <c r="C588" s="12"/>
+      <c r="A588" s="11"/>
+      <c r="C588" s="11"/>
     </row>
     <row r="589" customHeight="1" spans="1:3">
-      <c r="A589" s="12"/>
-      <c r="C589" s="12"/>
+      <c r="A589" s="11"/>
+      <c r="C589" s="11"/>
     </row>
     <row r="590" customHeight="1" spans="1:3">
-      <c r="A590" s="12"/>
-      <c r="C590" s="12"/>
+      <c r="A590" s="11"/>
+      <c r="C590" s="11"/>
     </row>
     <row r="591" customHeight="1" spans="1:3">
-      <c r="A591" s="12"/>
-      <c r="C591" s="12"/>
+      <c r="A591" s="11"/>
+      <c r="C591" s="11"/>
     </row>
     <row r="592" customHeight="1" spans="1:3">
-      <c r="A592" s="12"/>
-      <c r="C592" s="12"/>
+      <c r="A592" s="11"/>
+      <c r="C592" s="11"/>
     </row>
     <row r="593" customHeight="1" spans="1:3">
-      <c r="A593" s="12"/>
-      <c r="C593" s="12"/>
+      <c r="A593" s="11"/>
+      <c r="C593" s="11"/>
     </row>
     <row r="594" customHeight="1" spans="1:3">
-      <c r="A594" s="12"/>
-      <c r="C594" s="12"/>
+      <c r="A594" s="11"/>
+      <c r="C594" s="11"/>
     </row>
     <row r="595" customHeight="1" spans="1:3">
-      <c r="A595" s="12"/>
-      <c r="C595" s="12"/>
+      <c r="A595" s="11"/>
+      <c r="C595" s="11"/>
     </row>
     <row r="596" customHeight="1" spans="1:3">
-      <c r="A596" s="12"/>
-      <c r="C596" s="12"/>
+      <c r="A596" s="11"/>
+      <c r="C596" s="11"/>
     </row>
     <row r="597" customHeight="1" spans="1:3">
-      <c r="A597" s="12"/>
-      <c r="C597" s="12"/>
+      <c r="A597" s="11"/>
+      <c r="C597" s="11"/>
     </row>
     <row r="598" customHeight="1" spans="1:3">
-      <c r="A598" s="12"/>
-      <c r="C598" s="12"/>
+      <c r="A598" s="11"/>
+      <c r="C598" s="11"/>
     </row>
     <row r="599" customHeight="1" spans="1:3">
-      <c r="A599" s="12"/>
-      <c r="C599" s="12"/>
+      <c r="A599" s="11"/>
+      <c r="C599" s="11"/>
     </row>
     <row r="600" customHeight="1" spans="1:3">
-      <c r="A600" s="12"/>
-      <c r="C600" s="12"/>
+      <c r="A600" s="11"/>
+      <c r="C600" s="11"/>
     </row>
     <row r="601" customHeight="1" spans="1:3">
-      <c r="A601" s="12"/>
-      <c r="C601" s="12"/>
+      <c r="A601" s="11"/>
+      <c r="C601" s="11"/>
     </row>
     <row r="602" customHeight="1" spans="1:3">
-      <c r="A602" s="12"/>
-      <c r="C602" s="12"/>
+      <c r="A602" s="11"/>
+      <c r="C602" s="11"/>
     </row>
     <row r="603" customHeight="1" spans="1:3">
-      <c r="A603" s="12"/>
-      <c r="C603" s="12"/>
+      <c r="A603" s="11"/>
+      <c r="C603" s="11"/>
     </row>
     <row r="604" customHeight="1" spans="1:3">
-      <c r="A604" s="12"/>
-      <c r="C604" s="12"/>
+      <c r="A604" s="11"/>
+      <c r="C604" s="11"/>
     </row>
     <row r="605" customHeight="1" spans="1:3">
-      <c r="A605" s="12"/>
-      <c r="C605" s="12"/>
+      <c r="A605" s="11"/>
+      <c r="C605" s="11"/>
     </row>
     <row r="606" customHeight="1" spans="1:3">
-      <c r="A606" s="12"/>
-      <c r="C606" s="12"/>
+      <c r="A606" s="11"/>
+      <c r="C606" s="11"/>
     </row>
     <row r="607" customHeight="1" spans="1:3">
-      <c r="A607" s="12"/>
-      <c r="C607" s="12"/>
+      <c r="A607" s="11"/>
+      <c r="C607" s="11"/>
     </row>
     <row r="608" customHeight="1" spans="1:3">
-      <c r="A608" s="12"/>
-      <c r="C608" s="12"/>
+      <c r="A608" s="11"/>
+      <c r="C608" s="11"/>
     </row>
     <row r="609" customHeight="1" spans="1:3">
-      <c r="A609" s="12"/>
-      <c r="C609" s="12"/>
+      <c r="A609" s="11"/>
+      <c r="C609" s="11"/>
     </row>
     <row r="610" customHeight="1" spans="1:3">
-      <c r="A610" s="12"/>
-      <c r="C610" s="12"/>
+      <c r="A610" s="11"/>
+      <c r="C610" s="11"/>
     </row>
     <row r="611" customHeight="1" spans="1:3">
-      <c r="A611" s="12"/>
-      <c r="C611" s="12"/>
+      <c r="A611" s="11"/>
+      <c r="C611" s="11"/>
     </row>
     <row r="612" customHeight="1" spans="1:3">
-      <c r="A612" s="12"/>
-      <c r="C612" s="12"/>
+      <c r="A612" s="11"/>
+      <c r="C612" s="11"/>
     </row>
     <row r="613" customHeight="1" spans="1:3">
-      <c r="A613" s="12"/>
-      <c r="C613" s="12"/>
+      <c r="A613" s="11"/>
+      <c r="C613" s="11"/>
     </row>
     <row r="614" customHeight="1" spans="1:3">
-      <c r="A614" s="12"/>
-      <c r="C614" s="12"/>
+      <c r="A614" s="11"/>
+      <c r="C614" s="11"/>
     </row>
     <row r="615" customHeight="1" spans="1:3">
-      <c r="A615" s="12"/>
-      <c r="C615" s="12"/>
+      <c r="A615" s="11"/>
+      <c r="C615" s="11"/>
     </row>
     <row r="616" customHeight="1" spans="1:3">
-      <c r="A616" s="12"/>
-      <c r="C616" s="12"/>
+      <c r="A616" s="11"/>
+      <c r="C616" s="11"/>
     </row>
     <row r="617" customHeight="1" spans="1:3">
-      <c r="A617" s="12"/>
-      <c r="C617" s="12"/>
+      <c r="A617" s="11"/>
+      <c r="C617" s="11"/>
     </row>
     <row r="618" customHeight="1" spans="1:3">
-      <c r="A618" s="12"/>
-      <c r="C618" s="12"/>
+      <c r="A618" s="11"/>
+      <c r="C618" s="11"/>
     </row>
     <row r="619" customHeight="1" spans="1:3">
-      <c r="A619" s="12"/>
-      <c r="C619" s="12"/>
+      <c r="A619" s="11"/>
+      <c r="C619" s="11"/>
     </row>
     <row r="620" customHeight="1" spans="1:3">
-      <c r="A620" s="12"/>
-      <c r="C620" s="12"/>
+      <c r="A620" s="11"/>
+      <c r="C620" s="11"/>
     </row>
     <row r="621" customHeight="1" spans="1:3">
-      <c r="A621" s="12"/>
-      <c r="C621" s="12"/>
+      <c r="A621" s="11"/>
+      <c r="C621" s="11"/>
     </row>
     <row r="622" customHeight="1" spans="1:3">
-      <c r="A622" s="12"/>
-      <c r="C622" s="12"/>
+      <c r="A622" s="11"/>
+      <c r="C622" s="11"/>
     </row>
     <row r="623" customHeight="1" spans="1:3">
-      <c r="A623" s="12"/>
-      <c r="C623" s="12"/>
+      <c r="A623" s="11"/>
+      <c r="C623" s="11"/>
     </row>
     <row r="624" customHeight="1" spans="1:3">
-      <c r="A624" s="12"/>
-      <c r="C624" s="12"/>
+      <c r="A624" s="11"/>
+      <c r="C624" s="11"/>
     </row>
     <row r="625" customHeight="1" spans="1:3">
-      <c r="A625" s="12"/>
-      <c r="C625" s="12"/>
+      <c r="A625" s="11"/>
+      <c r="C625" s="11"/>
     </row>
     <row r="626" customHeight="1" spans="1:3">
-      <c r="A626" s="12"/>
-      <c r="C626" s="12"/>
+      <c r="A626" s="11"/>
+      <c r="C626" s="11"/>
     </row>
     <row r="627" customHeight="1" spans="1:3">
-      <c r="A627" s="12"/>
-      <c r="C627" s="12"/>
+      <c r="A627" s="11"/>
+      <c r="C627" s="11"/>
     </row>
     <row r="628" customHeight="1" spans="1:3">
-      <c r="A628" s="12"/>
-      <c r="C628" s="12"/>
+      <c r="A628" s="11"/>
+      <c r="C628" s="11"/>
     </row>
     <row r="629" customHeight="1" spans="1:3">
-      <c r="A629" s="12"/>
-      <c r="C629" s="12"/>
+      <c r="A629" s="11"/>
+      <c r="C629" s="11"/>
     </row>
     <row r="630" customHeight="1" spans="1:3">
-      <c r="A630" s="12"/>
-      <c r="C630" s="12"/>
+      <c r="A630" s="11"/>
+      <c r="C630" s="11"/>
     </row>
     <row r="631" customHeight="1" spans="1:3">
-      <c r="A631" s="12"/>
-      <c r="C631" s="12"/>
+      <c r="A631" s="11"/>
+      <c r="C631" s="11"/>
     </row>
     <row r="632" customHeight="1" spans="1:3">
-      <c r="A632" s="12"/>
-      <c r="C632" s="12"/>
+      <c r="A632" s="11"/>
+      <c r="C632" s="11"/>
     </row>
     <row r="633" customHeight="1" spans="1:3">
-      <c r="A633" s="12"/>
-      <c r="C633" s="12"/>
+      <c r="A633" s="11"/>
+      <c r="C633" s="11"/>
     </row>
     <row r="634" customHeight="1" spans="1:3">
-      <c r="A634" s="12"/>
-      <c r="C634" s="12"/>
+      <c r="A634" s="11"/>
+      <c r="C634" s="11"/>
     </row>
     <row r="635" customHeight="1" spans="1:3">
-      <c r="A635" s="12"/>
-      <c r="C635" s="12"/>
+      <c r="A635" s="11"/>
+      <c r="C635" s="11"/>
     </row>
     <row r="636" customHeight="1" spans="1:3">
-      <c r="A636" s="12"/>
-      <c r="C636" s="12"/>
+      <c r="A636" s="11"/>
+      <c r="C636" s="11"/>
     </row>
     <row r="637" customHeight="1" spans="1:3">
-      <c r="A637" s="12"/>
-      <c r="C637" s="12"/>
+      <c r="A637" s="11"/>
+      <c r="C637" s="11"/>
     </row>
     <row r="638" customHeight="1" spans="1:3">
-      <c r="A638" s="12"/>
-      <c r="C638" s="12"/>
+      <c r="A638" s="11"/>
+      <c r="C638" s="11"/>
     </row>
     <row r="639" customHeight="1" spans="1:3">
-      <c r="A639" s="12"/>
-      <c r="C639" s="12"/>
+      <c r="A639" s="11"/>
+      <c r="C639" s="11"/>
     </row>
     <row r="640" customHeight="1" spans="1:3">
-      <c r="A640" s="12"/>
-      <c r="C640" s="12"/>
+      <c r="A640" s="11"/>
+      <c r="C640" s="11"/>
     </row>
     <row r="641" customHeight="1" spans="1:3">
-      <c r="A641" s="12"/>
-      <c r="C641" s="12"/>
+      <c r="A641" s="11"/>
+      <c r="C641" s="11"/>
     </row>
     <row r="642" customHeight="1" spans="1:3">
-      <c r="A642" s="12"/>
-      <c r="C642" s="12"/>
+      <c r="A642" s="11"/>
+      <c r="C642" s="11"/>
     </row>
     <row r="643" customHeight="1" spans="1:3">
-      <c r="A643" s="12"/>
-      <c r="C643" s="12"/>
+      <c r="A643" s="11"/>
+      <c r="C643" s="11"/>
     </row>
     <row r="644" customHeight="1" spans="1:3">
-      <c r="A644" s="12"/>
-      <c r="C644" s="12"/>
+      <c r="A644" s="11"/>
+      <c r="C644" s="11"/>
     </row>
     <row r="645" customHeight="1" spans="1:3">
-      <c r="A645" s="12"/>
-      <c r="C645" s="12"/>
+      <c r="A645" s="11"/>
+      <c r="C645" s="11"/>
     </row>
     <row r="646" customHeight="1" spans="1:3">
-      <c r="A646" s="12"/>
-      <c r="C646" s="12"/>
+      <c r="A646" s="11"/>
+      <c r="C646" s="11"/>
     </row>
     <row r="647" customHeight="1" spans="1:3">
-      <c r="A647" s="12"/>
-      <c r="C647" s="12"/>
+      <c r="A647" s="11"/>
+      <c r="C647" s="11"/>
     </row>
     <row r="648" customHeight="1" spans="1:3">
-      <c r="A648" s="12"/>
-      <c r="C648" s="12"/>
+      <c r="A648" s="11"/>
+      <c r="C648" s="11"/>
     </row>
     <row r="649" customHeight="1" spans="1:3">
-      <c r="A649" s="12"/>
-      <c r="C649" s="12"/>
+      <c r="A649" s="11"/>
+      <c r="C649" s="11"/>
     </row>
     <row r="650" customHeight="1" spans="1:3">
-      <c r="A650" s="12"/>
-      <c r="C650" s="12"/>
+      <c r="A650" s="11"/>
+      <c r="C650" s="11"/>
     </row>
     <row r="651" customHeight="1" spans="1:3">
-      <c r="A651" s="12"/>
-      <c r="C651" s="12"/>
+      <c r="A651" s="11"/>
+      <c r="C651" s="11"/>
     </row>
     <row r="652" customHeight="1" spans="1:3">
-      <c r="A652" s="12"/>
-      <c r="C652" s="12"/>
+      <c r="A652" s="11"/>
+      <c r="C652" s="11"/>
     </row>
     <row r="653" customHeight="1" spans="1:3">
-      <c r="A653" s="12"/>
-      <c r="C653" s="12"/>
+      <c r="A653" s="11"/>
+      <c r="C653" s="11"/>
     </row>
     <row r="654" customHeight="1" spans="1:3">
-      <c r="A654" s="12"/>
-      <c r="C654" s="12"/>
+      <c r="A654" s="11"/>
+      <c r="C654" s="11"/>
     </row>
     <row r="655" customHeight="1" spans="1:3">
-      <c r="A655" s="12"/>
-      <c r="C655" s="12"/>
+      <c r="A655" s="11"/>
+      <c r="C655" s="11"/>
     </row>
     <row r="656" customHeight="1" spans="1:3">
-      <c r="A656" s="12"/>
-      <c r="C656" s="12"/>
+      <c r="A656" s="11"/>
+      <c r="C656" s="11"/>
     </row>
     <row r="657" customHeight="1" spans="1:3">
-      <c r="A657" s="12"/>
-      <c r="C657" s="12"/>
+      <c r="A657" s="11"/>
+      <c r="C657" s="11"/>
     </row>
     <row r="658" customHeight="1" spans="1:3">
-      <c r="A658" s="12"/>
-      <c r="C658" s="12"/>
+      <c r="A658" s="11"/>
+      <c r="C658" s="11"/>
     </row>
     <row r="659" customHeight="1" spans="1:3">
-      <c r="A659" s="12"/>
-      <c r="C659" s="12"/>
+      <c r="A659" s="11"/>
+      <c r="C659" s="11"/>
     </row>
     <row r="660" customHeight="1" spans="1:3">
-      <c r="A660" s="12"/>
-      <c r="C660" s="12"/>
+      <c r="A660" s="11"/>
+      <c r="C660" s="11"/>
     </row>
     <row r="661" customHeight="1" spans="1:3">
-      <c r="A661" s="12"/>
-      <c r="C661" s="12"/>
+      <c r="A661" s="11"/>
+      <c r="C661" s="11"/>
     </row>
     <row r="662" customHeight="1" spans="1:3">
-      <c r="A662" s="12"/>
-      <c r="C662" s="12"/>
+      <c r="A662" s="11"/>
+      <c r="C662" s="11"/>
     </row>
     <row r="663" customHeight="1" spans="1:3">
-      <c r="A663" s="12"/>
-      <c r="C663" s="12"/>
+      <c r="A663" s="11"/>
+      <c r="C663" s="11"/>
     </row>
     <row r="664" customHeight="1" spans="1:3">
-      <c r="A664" s="12"/>
-      <c r="C664" s="12"/>
+      <c r="A664" s="11"/>
+      <c r="C664" s="11"/>
     </row>
     <row r="665" customHeight="1" spans="1:3">
-      <c r="A665" s="12"/>
-      <c r="C665" s="12"/>
+      <c r="A665" s="11"/>
+      <c r="C665" s="11"/>
     </row>
     <row r="666" customHeight="1" spans="1:3">
-      <c r="A666" s="12"/>
-      <c r="C666" s="12"/>
+      <c r="A666" s="11"/>
+      <c r="C666" s="11"/>
     </row>
     <row r="667" customHeight="1" spans="1:3">
-      <c r="A667" s="12"/>
-      <c r="C667" s="12"/>
+      <c r="A667" s="11"/>
+      <c r="C667" s="11"/>
     </row>
     <row r="668" customHeight="1" spans="1:3">
-      <c r="A668" s="12"/>
-      <c r="C668" s="12"/>
+      <c r="A668" s="11"/>
+      <c r="C668" s="11"/>
     </row>
     <row r="669" customHeight="1" spans="1:3">
-      <c r="A669" s="12"/>
-      <c r="C669" s="12"/>
+      <c r="A669" s="11"/>
+      <c r="C669" s="11"/>
     </row>
     <row r="670" customHeight="1" spans="1:3">
-      <c r="A670" s="12"/>
-      <c r="C670" s="12"/>
+      <c r="A670" s="11"/>
+      <c r="C670" s="11"/>
     </row>
     <row r="671" customHeight="1" spans="1:3">
-      <c r="A671" s="12"/>
-      <c r="C671" s="12"/>
+      <c r="A671" s="11"/>
+      <c r="C671" s="11"/>
     </row>
     <row r="672" customHeight="1" spans="1:3">
-      <c r="A672" s="12"/>
-      <c r="C672" s="12"/>
+      <c r="A672" s="11"/>
+      <c r="C672" s="11"/>
     </row>
     <row r="673" customHeight="1" spans="1:3">
-      <c r="A673" s="12"/>
-      <c r="C673" s="12"/>
+      <c r="A673" s="11"/>
+      <c r="C673" s="11"/>
     </row>
     <row r="674" customHeight="1" spans="1:3">
-      <c r="A674" s="12"/>
-      <c r="C674" s="12"/>
+      <c r="A674" s="11"/>
+      <c r="C674" s="11"/>
     </row>
     <row r="675" customHeight="1" spans="1:3">
-      <c r="A675" s="12"/>
-      <c r="C675" s="12"/>
+      <c r="A675" s="11"/>
+      <c r="C675" s="11"/>
     </row>
     <row r="676" customHeight="1" spans="1:3">
-      <c r="A676" s="12"/>
-      <c r="C676" s="12"/>
+      <c r="A676" s="11"/>
+      <c r="C676" s="11"/>
     </row>
     <row r="677" customHeight="1" spans="1:3">
-      <c r="A677" s="12"/>
-      <c r="C677" s="12"/>
+      <c r="A677" s="11"/>
+      <c r="C677" s="11"/>
     </row>
     <row r="678" customHeight="1" spans="1:3">
-      <c r="A678" s="12"/>
-      <c r="C678" s="12"/>
+      <c r="A678" s="11"/>
+      <c r="C678" s="11"/>
     </row>
     <row r="679" customHeight="1" spans="1:3">
-      <c r="A679" s="12"/>
-      <c r="C679" s="12"/>
+      <c r="A679" s="11"/>
+      <c r="C679" s="11"/>
     </row>
     <row r="680" customHeight="1" spans="1:3">
-      <c r="A680" s="12"/>
-      <c r="C680" s="12"/>
+      <c r="A680" s="11"/>
+      <c r="C680" s="11"/>
     </row>
     <row r="681" customHeight="1" spans="1:3">
-      <c r="A681" s="12"/>
-      <c r="C681" s="12"/>
+      <c r="A681" s="11"/>
+      <c r="C681" s="11"/>
     </row>
     <row r="682" customHeight="1" spans="1:3">
-      <c r="A682" s="12"/>
-      <c r="C682" s="12"/>
+      <c r="A682" s="11"/>
+      <c r="C682" s="11"/>
     </row>
     <row r="683" customHeight="1" spans="1:3">
-      <c r="A683" s="12"/>
-      <c r="C683" s="12"/>
+      <c r="A683" s="11"/>
+      <c r="C683" s="11"/>
     </row>
     <row r="684" customHeight="1" spans="1:3">
-      <c r="A684" s="12"/>
-      <c r="C684" s="12"/>
+      <c r="A684" s="11"/>
+      <c r="C684" s="11"/>
     </row>
     <row r="685" customHeight="1" spans="1:3">
-      <c r="A685" s="12"/>
-      <c r="C685" s="12"/>
+      <c r="A685" s="11"/>
+      <c r="C685" s="11"/>
     </row>
     <row r="686" customHeight="1" spans="1:3">
-      <c r="A686" s="12"/>
-      <c r="C686" s="12"/>
+      <c r="A686" s="11"/>
+      <c r="C686" s="11"/>
     </row>
     <row r="687" customHeight="1" spans="1:3">
-      <c r="A687" s="12"/>
-      <c r="C687" s="12"/>
+      <c r="A687" s="11"/>
+      <c r="C687" s="11"/>
     </row>
     <row r="688" customHeight="1" spans="1:3">
-      <c r="A688" s="12"/>
-      <c r="C688" s="12"/>
+      <c r="A688" s="11"/>
+      <c r="C688" s="11"/>
     </row>
     <row r="689" customHeight="1" spans="1:3">
-      <c r="A689" s="12"/>
-      <c r="C689" s="12"/>
+      <c r="A689" s="11"/>
+      <c r="C689" s="11"/>
     </row>
     <row r="690" customHeight="1" spans="1:3">
-      <c r="A690" s="12"/>
-      <c r="C690" s="12"/>
+      <c r="A690" s="11"/>
+      <c r="C690" s="11"/>
     </row>
     <row r="691" customHeight="1" spans="1:3">
-      <c r="A691" s="12"/>
-      <c r="C691" s="12"/>
+      <c r="A691" s="11"/>
+      <c r="C691" s="11"/>
     </row>
     <row r="692" customHeight="1" spans="1:3">
-      <c r="A692" s="12"/>
-      <c r="C692" s="12"/>
+      <c r="A692" s="11"/>
+      <c r="C692" s="11"/>
     </row>
     <row r="693" customHeight="1" spans="1:3">
-      <c r="A693" s="12"/>
-      <c r="C693" s="12"/>
+      <c r="A693" s="11"/>
+      <c r="C693" s="11"/>
     </row>
     <row r="694" customHeight="1" spans="1:3">
-      <c r="A694" s="12"/>
-      <c r="C694" s="12"/>
+      <c r="A694" s="11"/>
+      <c r="C694" s="11"/>
     </row>
     <row r="695" customHeight="1" spans="1:3">
-      <c r="A695" s="12"/>
-      <c r="C695" s="12"/>
+      <c r="A695" s="11"/>
+      <c r="C695" s="11"/>
     </row>
     <row r="696" customHeight="1" spans="1:3">
-      <c r="A696" s="12"/>
-      <c r="C696" s="12"/>
+      <c r="A696" s="11"/>
+      <c r="C696" s="11"/>
     </row>
     <row r="697" customHeight="1" spans="1:3">
-      <c r="A697" s="12"/>
-      <c r="C697" s="12"/>
+      <c r="A697" s="11"/>
+      <c r="C697" s="11"/>
     </row>
     <row r="698" customHeight="1" spans="1:3">
-      <c r="A698" s="12"/>
-      <c r="C698" s="12"/>
+      <c r="A698" s="11"/>
+      <c r="C698" s="11"/>
     </row>
     <row r="699" customHeight="1" spans="1:3">
-      <c r="A699" s="12"/>
-      <c r="C699" s="12"/>
+      <c r="A699" s="11"/>
+      <c r="C699" s="11"/>
     </row>
     <row r="700" customHeight="1" spans="1:3">
-      <c r="A700" s="12"/>
-      <c r="C700" s="12"/>
+      <c r="A700" s="11"/>
+      <c r="C700" s="11"/>
     </row>
     <row r="701" customHeight="1" spans="1:3">
-      <c r="A701" s="12"/>
-      <c r="C701" s="12"/>
+      <c r="A701" s="11"/>
+      <c r="C701" s="11"/>
     </row>
     <row r="702" customHeight="1" spans="1:3">
-      <c r="A702" s="12"/>
-      <c r="C702" s="12"/>
+      <c r="A702" s="11"/>
+      <c r="C702" s="11"/>
     </row>
     <row r="703" customHeight="1" spans="1:3">
-      <c r="A703" s="12"/>
-      <c r="C703" s="12"/>
+      <c r="A703" s="11"/>
+      <c r="C703" s="11"/>
     </row>
     <row r="704" customHeight="1" spans="1:3">
-      <c r="A704" s="12"/>
-      <c r="C704" s="12"/>
+      <c r="A704" s="11"/>
+      <c r="C704" s="11"/>
     </row>
     <row r="705" customHeight="1" spans="1:3">
-      <c r="A705" s="12"/>
-      <c r="C705" s="12"/>
+      <c r="A705" s="11"/>
+      <c r="C705" s="11"/>
     </row>
     <row r="706" customHeight="1" spans="1:3">
-      <c r="A706" s="12"/>
-      <c r="C706" s="12"/>
+      <c r="A706" s="11"/>
+      <c r="C706" s="11"/>
     </row>
     <row r="707" customHeight="1" spans="1:3">
-      <c r="A707" s="12"/>
-      <c r="C707" s="12"/>
+      <c r="A707" s="11"/>
+      <c r="C707" s="11"/>
     </row>
     <row r="708" customHeight="1" spans="1:3">
-      <c r="A708" s="12"/>
-      <c r="C708" s="12"/>
+      <c r="A708" s="11"/>
+      <c r="C708" s="11"/>
     </row>
     <row r="709" customHeight="1" spans="1:3">
-      <c r="A709" s="12"/>
-      <c r="C709" s="12"/>
+      <c r="A709" s="11"/>
+      <c r="C709" s="11"/>
     </row>
     <row r="710" customHeight="1" spans="1:3">
-      <c r="A710" s="12"/>
-      <c r="C710" s="12"/>
+      <c r="A710" s="11"/>
+      <c r="C710" s="11"/>
     </row>
     <row r="711" customHeight="1" spans="1:3">
-      <c r="A711" s="12"/>
-      <c r="C711" s="12"/>
+      <c r="A711" s="11"/>
+      <c r="C711" s="11"/>
     </row>
     <row r="712" customHeight="1" spans="1:3">
-      <c r="A712" s="12"/>
-      <c r="C712" s="12"/>
+      <c r="A712" s="11"/>
+      <c r="C712" s="11"/>
     </row>
     <row r="713" customHeight="1" spans="1:3">
-      <c r="A713" s="12"/>
-      <c r="C713" s="12"/>
+      <c r="A713" s="11"/>
+      <c r="C713" s="11"/>
     </row>
     <row r="714" customHeight="1" spans="1:3">
-      <c r="A714" s="12"/>
-      <c r="C714" s="12"/>
+      <c r="A714" s="11"/>
+      <c r="C714" s="11"/>
     </row>
     <row r="715" customHeight="1" spans="1:3">
-      <c r="A715" s="12"/>
-      <c r="C715" s="12"/>
+      <c r="A715" s="11"/>
+      <c r="C715" s="11"/>
     </row>
     <row r="716" customHeight="1" spans="1:3">
-      <c r="A716" s="12"/>
-      <c r="C716" s="12"/>
+      <c r="A716" s="11"/>
+      <c r="C716" s="11"/>
     </row>
     <row r="717" customHeight="1" spans="1:3">
-      <c r="A717" s="12"/>
-      <c r="C717" s="12"/>
+      <c r="A717" s="11"/>
+      <c r="C717" s="11"/>
     </row>
     <row r="718" customHeight="1" spans="1:3">
-      <c r="A718" s="12"/>
-      <c r="C718" s="12"/>
+      <c r="A718" s="11"/>
+      <c r="C718" s="11"/>
     </row>
     <row r="719" customHeight="1" spans="1:3">
-      <c r="A719" s="12"/>
-      <c r="C719" s="12"/>
+      <c r="A719" s="11"/>
+      <c r="C719" s="11"/>
     </row>
     <row r="720" customHeight="1" spans="1:3">
-      <c r="A720" s="12"/>
-      <c r="C720" s="12"/>
+      <c r="A720" s="11"/>
+      <c r="C720" s="11"/>
     </row>
     <row r="721" customHeight="1" spans="1:3">
-      <c r="A721" s="12"/>
-      <c r="C721" s="12"/>
+      <c r="A721" s="11"/>
+      <c r="C721" s="11"/>
     </row>
     <row r="722" customHeight="1" spans="1:3">
-      <c r="A722" s="12"/>
-      <c r="C722" s="12"/>
+      <c r="A722" s="11"/>
+      <c r="C722" s="11"/>
     </row>
     <row r="723" customHeight="1" spans="1:3">
-      <c r="A723" s="12"/>
-      <c r="C723" s="12"/>
+      <c r="A723" s="11"/>
+      <c r="C723" s="11"/>
     </row>
     <row r="724" customHeight="1" spans="1:3">
-      <c r="A724" s="12"/>
-      <c r="C724" s="12"/>
+      <c r="A724" s="11"/>
+      <c r="C724" s="11"/>
     </row>
     <row r="725" customHeight="1" spans="1:3">
-      <c r="A725" s="12"/>
-      <c r="C725" s="12"/>
+      <c r="A725" s="11"/>
+      <c r="C725" s="11"/>
     </row>
     <row r="726" customHeight="1" spans="1:3">
-      <c r="A726" s="12"/>
-      <c r="C726" s="12"/>
+      <c r="A726" s="11"/>
+      <c r="C726" s="11"/>
     </row>
     <row r="727" customHeight="1" spans="1:3">
-      <c r="A727" s="12"/>
-      <c r="C727" s="12"/>
+      <c r="A727" s="11"/>
+      <c r="C727" s="11"/>
     </row>
     <row r="728" customHeight="1" spans="1:3">
-      <c r="A728" s="12"/>
-      <c r="C728" s="12"/>
+      <c r="A728" s="11"/>
+      <c r="C728" s="11"/>
     </row>
     <row r="729" customHeight="1" spans="1:3">
-      <c r="A729" s="12"/>
-      <c r="C729" s="12"/>
+      <c r="A729" s="11"/>
+      <c r="C729" s="11"/>
     </row>
     <row r="730" customHeight="1" spans="1:3">
-      <c r="A730" s="12"/>
-      <c r="C730" s="12"/>
+      <c r="A730" s="11"/>
+      <c r="C730" s="11"/>
     </row>
     <row r="731" customHeight="1" spans="1:3">
-      <c r="A731" s="12"/>
-      <c r="C731" s="12"/>
+      <c r="A731" s="11"/>
+      <c r="C731" s="11"/>
     </row>
     <row r="732" customHeight="1" spans="1:3">
-      <c r="A732" s="12"/>
-      <c r="C732" s="12"/>
+      <c r="A732" s="11"/>
+      <c r="C732" s="11"/>
     </row>
     <row r="733" customHeight="1" spans="1:3">
-      <c r="A733" s="12"/>
-      <c r="C733" s="12"/>
+      <c r="A733" s="11"/>
+      <c r="C733" s="11"/>
     </row>
     <row r="734" customHeight="1" spans="1:3">
-      <c r="A734" s="12"/>
-      <c r="C734" s="12"/>
+      <c r="A734" s="11"/>
+      <c r="C734" s="11"/>
     </row>
     <row r="735" customHeight="1" spans="1:3">
-      <c r="A735" s="12"/>
-      <c r="C735" s="12"/>
+      <c r="A735" s="11"/>
+      <c r="C735" s="11"/>
     </row>
     <row r="736" customHeight="1" spans="1:3">
-      <c r="A736" s="12"/>
-      <c r="C736" s="12"/>
+      <c r="A736" s="11"/>
+      <c r="C736" s="11"/>
     </row>
     <row r="737" customHeight="1" spans="1:3">
-      <c r="A737" s="12"/>
-      <c r="C737" s="12"/>
+      <c r="A737" s="11"/>
+      <c r="C737" s="11"/>
     </row>
     <row r="738" customHeight="1" spans="1:3">
-      <c r="A738" s="12"/>
-      <c r="C738" s="12"/>
+      <c r="A738" s="11"/>
+      <c r="C738" s="11"/>
     </row>
     <row r="739" customHeight="1" spans="1:3">
-      <c r="A739" s="12"/>
-      <c r="C739" s="12"/>
+      <c r="A739" s="11"/>
+      <c r="C739" s="11"/>
     </row>
     <row r="740" customHeight="1" spans="1:3">
-      <c r="A740" s="12"/>
-      <c r="C740" s="12"/>
+      <c r="A740" s="11"/>
+      <c r="C740" s="11"/>
     </row>
     <row r="741" customHeight="1" spans="1:3">
-      <c r="A741" s="12"/>
-      <c r="C741" s="12"/>
+      <c r="A741" s="11"/>
+      <c r="C741" s="11"/>
     </row>
     <row r="742" customHeight="1" spans="1:3">
-      <c r="A742" s="12"/>
-      <c r="C742" s="12"/>
+      <c r="A742" s="11"/>
+      <c r="C742" s="11"/>
     </row>
     <row r="743" customHeight="1" spans="1:3">
-      <c r="A743" s="12"/>
-      <c r="C743" s="12"/>
+      <c r="A743" s="11"/>
+      <c r="C743" s="11"/>
     </row>
     <row r="744" customHeight="1" spans="1:3">
-      <c r="A744" s="12"/>
-      <c r="C744" s="12"/>
+      <c r="A744" s="11"/>
+      <c r="C744" s="11"/>
     </row>
     <row r="745" customHeight="1" spans="1:3">
-      <c r="A745" s="12"/>
-      <c r="C745" s="12"/>
+      <c r="A745" s="11"/>
+      <c r="C745" s="11"/>
     </row>
     <row r="746" customHeight="1" spans="1:3">
-      <c r="A746" s="12"/>
-      <c r="C746" s="12"/>
+      <c r="A746" s="11"/>
+      <c r="C746" s="11"/>
     </row>
     <row r="747" customHeight="1" spans="1:3">
-      <c r="A747" s="12"/>
-      <c r="C747" s="12"/>
+      <c r="A747" s="11"/>
+      <c r="C747" s="11"/>
     </row>
     <row r="748" customHeight="1" spans="1:3">
-      <c r="A748" s="12"/>
-      <c r="C748" s="12"/>
+      <c r="A748" s="11"/>
+      <c r="C748" s="11"/>
     </row>
     <row r="749" customHeight="1" spans="1:3">
-      <c r="A749" s="12"/>
-      <c r="C749" s="12"/>
+      <c r="A749" s="11"/>
+      <c r="C749" s="11"/>
     </row>
     <row r="750" customHeight="1" spans="1:3">
-      <c r="A750" s="12"/>
-      <c r="C750" s="12"/>
+      <c r="A750" s="11"/>
+      <c r="C750" s="11"/>
     </row>
     <row r="751" customHeight="1" spans="1:3">
-      <c r="A751" s="12"/>
-      <c r="C751" s="12"/>
+      <c r="A751" s="11"/>
+      <c r="C751" s="11"/>
     </row>
     <row r="752" customHeight="1" spans="1:3">
-      <c r="A752" s="12"/>
-      <c r="C752" s="12"/>
+      <c r="A752" s="11"/>
+      <c r="C752" s="11"/>
     </row>
     <row r="753" customHeight="1" spans="1:3">
-      <c r="A753" s="12"/>
-      <c r="C753" s="12"/>
+      <c r="A753" s="11"/>
+      <c r="C753" s="11"/>
     </row>
     <row r="754" customHeight="1" spans="1:3">
-      <c r="A754" s="12"/>
-      <c r="C754" s="12"/>
+      <c r="A754" s="11"/>
+      <c r="C754" s="11"/>
     </row>
     <row r="755" customHeight="1" spans="1:3">
-      <c r="A755" s="12"/>
-      <c r="C755" s="12"/>
+      <c r="A755" s="11"/>
+      <c r="C755" s="11"/>
     </row>
     <row r="756" customHeight="1" spans="1:3">
-      <c r="A756" s="12"/>
-      <c r="C756" s="12"/>
+      <c r="A756" s="11"/>
+      <c r="C756" s="11"/>
     </row>
     <row r="757" customHeight="1" spans="1:3">
-      <c r="A757" s="12"/>
-      <c r="C757" s="12"/>
+      <c r="A757" s="11"/>
+      <c r="C757" s="11"/>
     </row>
     <row r="758" customHeight="1" spans="1:3">
-      <c r="A758" s="12"/>
-      <c r="C758" s="12"/>
+      <c r="A758" s="11"/>
+      <c r="C758" s="11"/>
     </row>
     <row r="759" customHeight="1" spans="1:3">
-      <c r="A759" s="12"/>
-      <c r="C759" s="12"/>
+      <c r="A759" s="11"/>
+      <c r="C759" s="11"/>
     </row>
     <row r="760" customHeight="1" spans="1:3">
-      <c r="A760" s="12"/>
-      <c r="C760" s="12"/>
+      <c r="A760" s="11"/>
+      <c r="C760" s="11"/>
     </row>
     <row r="761" customHeight="1" spans="1:3">
-      <c r="A761" s="12"/>
-      <c r="C761" s="12"/>
+      <c r="A761" s="11"/>
+      <c r="C761" s="11"/>
     </row>
     <row r="762" customHeight="1" spans="1:3">
-      <c r="A762" s="12"/>
-      <c r="C762" s="12"/>
+      <c r="A762" s="11"/>
+      <c r="C762" s="11"/>
     </row>
     <row r="763" customHeight="1" spans="1:3">
-      <c r="A763" s="12"/>
-      <c r="C763" s="12"/>
+      <c r="A763" s="11"/>
+      <c r="C763" s="11"/>
     </row>
     <row r="764" customHeight="1" spans="1:3">
-      <c r="A764" s="12"/>
-      <c r="C764" s="12"/>
+      <c r="A764" s="11"/>
+      <c r="C764" s="11"/>
     </row>
     <row r="765" customHeight="1" spans="1:3">
-      <c r="A765" s="12"/>
-      <c r="C765" s="12"/>
+      <c r="A765" s="11"/>
+      <c r="C765" s="11"/>
     </row>
     <row r="766" customHeight="1" spans="1:3">
-      <c r="A766" s="12"/>
-      <c r="C766" s="12"/>
+      <c r="A766" s="11"/>
+      <c r="C766" s="11"/>
     </row>
     <row r="767" customHeight="1" spans="1:3">
-      <c r="A767" s="12"/>
-      <c r="C767" s="12"/>
+      <c r="A767" s="11"/>
+      <c r="C767" s="11"/>
     </row>
     <row r="768" customHeight="1" spans="1:3">
-      <c r="A768" s="12"/>
-      <c r="C768" s="12"/>
+      <c r="A768" s="11"/>
+      <c r="C768" s="11"/>
     </row>
     <row r="769" customHeight="1" spans="1:3">
-      <c r="A769" s="12"/>
-      <c r="C769" s="12"/>
+      <c r="A769" s="11"/>
+      <c r="C769" s="11"/>
     </row>
     <row r="770" customHeight="1" spans="1:3">
-      <c r="A770" s="12"/>
-      <c r="C770" s="12"/>
+      <c r="A770" s="11"/>
+      <c r="C770" s="11"/>
     </row>
     <row r="771" customHeight="1" spans="1:3">
-      <c r="A771" s="12"/>
-      <c r="C771" s="12"/>
+      <c r="A771" s="11"/>
+      <c r="C771" s="11"/>
     </row>
     <row r="772" customHeight="1" spans="1:3">
-      <c r="A772" s="12"/>
-      <c r="C772" s="12"/>
+      <c r="A772" s="11"/>
+      <c r="C772" s="11"/>
     </row>
     <row r="773" customHeight="1" spans="1:3">
-      <c r="A773" s="12"/>
-      <c r="C773" s="12"/>
+      <c r="A773" s="11"/>
+      <c r="C773" s="11"/>
     </row>
     <row r="774" customHeight="1" spans="1:3">
-      <c r="A774" s="12"/>
-      <c r="C774" s="12"/>
+      <c r="A774" s="11"/>
+      <c r="C774" s="11"/>
     </row>
     <row r="775" customHeight="1" spans="1:3">
-      <c r="A775" s="12"/>
-      <c r="C775" s="12"/>
+      <c r="A775" s="11"/>
+      <c r="C775" s="11"/>
     </row>
     <row r="776" customHeight="1" spans="1:3">
-      <c r="A776" s="12"/>
-      <c r="C776" s="12"/>
+      <c r="A776" s="11"/>
+      <c r="C776" s="11"/>
     </row>
     <row r="777" customHeight="1" spans="1:3">
-      <c r="A777" s="12"/>
-      <c r="C777" s="12"/>
+      <c r="A777" s="11"/>
+      <c r="C777" s="11"/>
     </row>
     <row r="778" customHeight="1" spans="1:3">
-      <c r="A778" s="12"/>
-      <c r="C778" s="12"/>
+      <c r="A778" s="11"/>
+      <c r="C778" s="11"/>
     </row>
     <row r="779" customHeight="1" spans="1:3">
-      <c r="A779" s="12"/>
-      <c r="C779" s="12"/>
+      <c r="A779" s="11"/>
+      <c r="C779" s="11"/>
     </row>
     <row r="780" customHeight="1" spans="1:3">
-      <c r="A780" s="12"/>
-      <c r="C780" s="12"/>
+      <c r="A780" s="11"/>
+      <c r="C780" s="11"/>
     </row>
     <row r="781" customHeight="1" spans="1:3">
-      <c r="A781" s="12"/>
-      <c r="C781" s="12"/>
+      <c r="A781" s="11"/>
+      <c r="C781" s="11"/>
     </row>
     <row r="782" customHeight="1" spans="1:3">
-      <c r="A782" s="12"/>
-      <c r="C782" s="12"/>
+      <c r="A782" s="11"/>
+      <c r="C782" s="11"/>
     </row>
     <row r="783" customHeight="1" spans="1:3">
-      <c r="A783" s="12"/>
-      <c r="C783" s="12"/>
+      <c r="A783" s="11"/>
+      <c r="C783" s="11"/>
     </row>
     <row r="784" customHeight="1" spans="1:3">
-      <c r="A784" s="12"/>
-      <c r="C784" s="12"/>
+      <c r="A784" s="11"/>
+      <c r="C784" s="11"/>
     </row>
     <row r="785" customHeight="1" spans="1:3">
-      <c r="A785" s="12"/>
-      <c r="C785" s="12"/>
+      <c r="A785" s="11"/>
+      <c r="C785" s="11"/>
     </row>
     <row r="786" customHeight="1" spans="1:3">
-      <c r="A786" s="12"/>
-      <c r="C786" s="12"/>
+      <c r="A786" s="11"/>
+      <c r="C786" s="11"/>
     </row>
     <row r="787" customHeight="1" spans="1:3">
-      <c r="A787" s="12"/>
-      <c r="C787" s="12"/>
+      <c r="A787" s="11"/>
+      <c r="C787" s="11"/>
     </row>
     <row r="788" customHeight="1" spans="1:3">
-      <c r="A788" s="12"/>
-      <c r="C788" s="12"/>
+      <c r="A788" s="11"/>
+      <c r="C788" s="11"/>
     </row>
     <row r="789" customHeight="1" spans="1:3">
-      <c r="A789" s="12"/>
-      <c r="C789" s="12"/>
+      <c r="A789" s="11"/>
+      <c r="C789" s="11"/>
     </row>
     <row r="790" customHeight="1" spans="1:3">
-      <c r="A790" s="12"/>
-      <c r="C790" s="12"/>
+      <c r="A790" s="11"/>
+      <c r="C790" s="11"/>
     </row>
     <row r="791" customHeight="1" spans="1:3">
-      <c r="A791" s="12"/>
-      <c r="C791" s="12"/>
+      <c r="A791" s="11"/>
+      <c r="C791" s="11"/>
     </row>
     <row r="792" customHeight="1" spans="1:3">
-      <c r="A792" s="12"/>
-      <c r="C792" s="12"/>
+      <c r="A792" s="11"/>
+      <c r="C792" s="11"/>
     </row>
     <row r="793" customHeight="1" spans="1:3">
-      <c r="A793" s="12"/>
-      <c r="C793" s="12"/>
+      <c r="A793" s="11"/>
+      <c r="C793" s="11"/>
     </row>
     <row r="794" customHeight="1" spans="1:3">
-      <c r="A794" s="12"/>
-      <c r="C794" s="12"/>
+      <c r="A794" s="11"/>
+      <c r="C794" s="11"/>
     </row>
     <row r="795" customHeight="1" spans="1:3">
-      <c r="A795" s="12"/>
-      <c r="C795" s="12"/>
+      <c r="A795" s="11"/>
+      <c r="C795" s="11"/>
     </row>
     <row r="796" customHeight="1" spans="1:3">
-      <c r="A796" s="12"/>
-      <c r="C796" s="12"/>
+      <c r="A796" s="11"/>
+      <c r="C796" s="11"/>
     </row>
     <row r="797" customHeight="1" spans="1:3">
-      <c r="A797" s="12"/>
-      <c r="C797" s="12"/>
+      <c r="A797" s="11"/>
+      <c r="C797" s="11"/>
     </row>
     <row r="798" customHeight="1" spans="1:3">
-      <c r="A798" s="12"/>
-      <c r="C798" s="12"/>
+      <c r="A798" s="11"/>
+      <c r="C798" s="11"/>
     </row>
     <row r="799" customHeight="1" spans="1:3">
-      <c r="A799" s="12"/>
-      <c r="C799" s="12"/>
+      <c r="A799" s="11"/>
+      <c r="C799" s="11"/>
     </row>
     <row r="800" customHeight="1" spans="1:3">
-      <c r="A800" s="12"/>
-      <c r="C800" s="12"/>
+      <c r="A800" s="11"/>
+      <c r="C800" s="11"/>
     </row>
     <row r="801" customHeight="1" spans="1:3">
-      <c r="A801" s="12"/>
-      <c r="C801" s="12"/>
+      <c r="A801" s="11"/>
+      <c r="C801" s="11"/>
     </row>
     <row r="802" customHeight="1" spans="1:3">
-      <c r="A802" s="12"/>
-      <c r="C802" s="12"/>
+      <c r="A802" s="11"/>
+      <c r="C802" s="11"/>
     </row>
     <row r="803" customHeight="1" spans="1:3">
-      <c r="A803" s="12"/>
-      <c r="C803" s="12"/>
+      <c r="A803" s="11"/>
+      <c r="C803" s="11"/>
     </row>
     <row r="804" customHeight="1" spans="1:3">
-      <c r="A804" s="12"/>
-      <c r="C804" s="12"/>
+      <c r="A804" s="11"/>
+      <c r="C804" s="11"/>
     </row>
     <row r="805" customHeight="1" spans="1:3">
-      <c r="A805" s="12"/>
-      <c r="C805" s="12"/>
+      <c r="A805" s="11"/>
+      <c r="C805" s="11"/>
     </row>
     <row r="806" customHeight="1" spans="1:3">
-      <c r="A806" s="12"/>
-      <c r="C806" s="12"/>
+      <c r="A806" s="11"/>
+      <c r="C806" s="11"/>
     </row>
     <row r="807" customHeight="1" spans="1:3">
-      <c r="A807" s="12"/>
-      <c r="C807" s="12"/>
+      <c r="A807" s="11"/>
+      <c r="C807" s="11"/>
     </row>
     <row r="808" customHeight="1" spans="1:3">
-      <c r="A808" s="12"/>
-      <c r="C808" s="12"/>
+      <c r="A808" s="11"/>
+      <c r="C808" s="11"/>
     </row>
     <row r="809" customHeight="1" spans="1:3">
-      <c r="A809" s="12"/>
-      <c r="C809" s="12"/>
+      <c r="A809" s="11"/>
+      <c r="C809" s="11"/>
     </row>
     <row r="810" customHeight="1" spans="1:3">
-      <c r="A810" s="12"/>
-      <c r="C810" s="12"/>
+      <c r="A810" s="11"/>
+      <c r="C810" s="11"/>
     </row>
     <row r="811" customHeight="1" spans="1:3">
-      <c r="A811" s="12"/>
-      <c r="C811" s="12"/>
+      <c r="A811" s="11"/>
+      <c r="C811" s="11"/>
     </row>
     <row r="812" customHeight="1" spans="1:3">
-      <c r="A812" s="12"/>
-      <c r="C812" s="12"/>
+      <c r="A812" s="11"/>
+      <c r="C812" s="11"/>
     </row>
     <row r="813" customHeight="1" spans="1:3">
-      <c r="A813" s="12"/>
-      <c r="C813" s="12"/>
+      <c r="A813" s="11"/>
+      <c r="C813" s="11"/>
     </row>
     <row r="814" customHeight="1" spans="1:3">
-      <c r="A814" s="12"/>
-      <c r="C814" s="12"/>
+      <c r="A814" s="11"/>
+      <c r="C814" s="11"/>
     </row>
     <row r="815" customHeight="1" spans="1:3">
-      <c r="A815" s="12"/>
-      <c r="C815" s="12"/>
+      <c r="A815" s="11"/>
+      <c r="C815" s="11"/>
     </row>
     <row r="816" customHeight="1" spans="1:3">
-      <c r="A816" s="12"/>
-      <c r="C816" s="12"/>
+      <c r="A816" s="11"/>
+      <c r="C816" s="11"/>
     </row>
     <row r="817" customHeight="1" spans="1:3">
-      <c r="A817" s="12"/>
-      <c r="C817" s="12"/>
+      <c r="A817" s="11"/>
+      <c r="C817" s="11"/>
     </row>
     <row r="818" customHeight="1" spans="1:3">
-      <c r="A818" s="12"/>
-      <c r="C818" s="12"/>
+      <c r="A818" s="11"/>
+      <c r="C818" s="11"/>
     </row>
     <row r="819" customHeight="1" spans="1:3">
-      <c r="A819" s="12"/>
-      <c r="C819" s="12"/>
+      <c r="A819" s="11"/>
+      <c r="C819" s="11"/>
     </row>
     <row r="820" customHeight="1" spans="1:3">
-      <c r="A820" s="12"/>
-      <c r="C820" s="12"/>
+      <c r="A820" s="11"/>
+      <c r="C820" s="11"/>
     </row>
     <row r="821" customHeight="1" spans="1:3">
-      <c r="A821" s="12"/>
-      <c r="C821" s="12"/>
+      <c r="A821" s="11"/>
+      <c r="C821" s="11"/>
     </row>
     <row r="822" customHeight="1" spans="1:3">
-      <c r="A822" s="12"/>
-      <c r="C822" s="12"/>
+      <c r="A822" s="11"/>
+      <c r="C822" s="11"/>
     </row>
     <row r="823" customHeight="1" spans="1:3">
-      <c r="A823" s="12"/>
-      <c r="C823" s="12"/>
+      <c r="A823" s="11"/>
+      <c r="C823" s="11"/>
     </row>
     <row r="824" customHeight="1" spans="1:3">
-      <c r="A824" s="12"/>
-      <c r="C824" s="12"/>
+      <c r="A824" s="11"/>
+      <c r="C824" s="11"/>
     </row>
     <row r="825" customHeight="1" spans="1:3">
-      <c r="A825" s="12"/>
-      <c r="C825" s="12"/>
+      <c r="A825" s="11"/>
+      <c r="C825" s="11"/>
     </row>
     <row r="826" customHeight="1" spans="1:3">
-      <c r="A826" s="12"/>
-      <c r="C826" s="12"/>
+      <c r="A826" s="11"/>
+      <c r="C826" s="11"/>
     </row>
     <row r="827" customHeight="1" spans="1:3">
-      <c r="A827" s="12"/>
-      <c r="C827" s="12"/>
+      <c r="A827" s="11"/>
+      <c r="C827" s="11"/>
     </row>
     <row r="828" customHeight="1" spans="1:3">
-      <c r="A828" s="12"/>
-      <c r="C828" s="12"/>
+      <c r="A828" s="11"/>
+      <c r="C828" s="11"/>
     </row>
     <row r="829" customHeight="1" spans="1:3">
-      <c r="A829" s="12"/>
-      <c r="C829" s="12"/>
+      <c r="A829" s="11"/>
+      <c r="C829" s="11"/>
     </row>
     <row r="830" customHeight="1" spans="1:3">
-      <c r="A830" s="12"/>
-      <c r="C830" s="12"/>
+      <c r="A830" s="11"/>
+      <c r="C830" s="11"/>
     </row>
     <row r="831" customHeight="1" spans="1:3">
-      <c r="A831" s="12"/>
-      <c r="C831" s="12"/>
+      <c r="A831" s="11"/>
+      <c r="C831" s="11"/>
     </row>
     <row r="832" customHeight="1" spans="1:3">
-      <c r="A832" s="12"/>
-      <c r="C832" s="12"/>
+      <c r="A832" s="11"/>
+      <c r="C832" s="11"/>
     </row>
     <row r="833" customHeight="1" spans="1:3">
-      <c r="A833" s="12"/>
-      <c r="C833" s="12"/>
+      <c r="A833" s="11"/>
+      <c r="C833" s="11"/>
     </row>
     <row r="834" customHeight="1" spans="1:3">
-      <c r="A834" s="12"/>
-      <c r="C834" s="12"/>
+      <c r="A834" s="11"/>
+      <c r="C834" s="11"/>
     </row>
     <row r="835" customHeight="1" spans="1:3">
-      <c r="A835" s="12"/>
-      <c r="C835" s="12"/>
+      <c r="A835" s="11"/>
+      <c r="C835" s="11"/>
     </row>
     <row r="836" customHeight="1" spans="1:3">
-      <c r="A836" s="12"/>
-      <c r="C836" s="12"/>
+      <c r="A836" s="11"/>
+      <c r="C836" s="11"/>
     </row>
     <row r="837" customHeight="1" spans="1:3">
-      <c r="A837" s="12"/>
-      <c r="C837" s="12"/>
+      <c r="A837" s="11"/>
+      <c r="C837" s="11"/>
     </row>
     <row r="838" customHeight="1" spans="1:3">
-      <c r="A838" s="12"/>
-      <c r="C838" s="12"/>
+      <c r="A838" s="11"/>
+      <c r="C838" s="11"/>
     </row>
     <row r="839" customHeight="1" spans="1:3">
-      <c r="A839" s="12"/>
-      <c r="C839" s="12"/>
+      <c r="A839" s="11"/>
+      <c r="C839" s="11"/>
     </row>
     <row r="840" customHeight="1" spans="1:3">
-      <c r="A840" s="12"/>
-      <c r="C840" s="12"/>
+      <c r="A840" s="11"/>
+      <c r="C840" s="11"/>
     </row>
     <row r="841" customHeight="1" spans="1:3">
-      <c r="A841" s="12"/>
-      <c r="C841" s="12"/>
+      <c r="A841" s="11"/>
+      <c r="C841" s="11"/>
     </row>
     <row r="842" customHeight="1" spans="1:3">
-      <c r="A842" s="12"/>
-      <c r="C842" s="12"/>
+      <c r="A842" s="11"/>
+      <c r="C842" s="11"/>
     </row>
     <row r="843" customHeight="1" spans="1:3">
-      <c r="A843" s="12"/>
-      <c r="C843" s="12"/>
+      <c r="A843" s="11"/>
+      <c r="C843" s="11"/>
     </row>
     <row r="844" customHeight="1" spans="1:3">
-      <c r="A844" s="12"/>
-      <c r="C844" s="12"/>
+      <c r="A844" s="11"/>
+      <c r="C844" s="11"/>
     </row>
     <row r="845" customHeight="1" spans="1:3">
-      <c r="A845" s="12"/>
-      <c r="C845" s="12"/>
+      <c r="A845" s="11"/>
+      <c r="C845" s="11"/>
     </row>
     <row r="846" customHeight="1" spans="1:3">
-      <c r="A846" s="12"/>
-      <c r="C846" s="12"/>
+      <c r="A846" s="11"/>
+      <c r="C846" s="11"/>
     </row>
     <row r="847" customHeight="1" spans="1:3">
-      <c r="A847" s="12"/>
-      <c r="C847" s="12"/>
+      <c r="A847" s="11"/>
+      <c r="C847" s="11"/>
     </row>
     <row r="848" customHeight="1" spans="1:3">
-      <c r="A848" s="12"/>
-      <c r="C848" s="12"/>
+      <c r="A848" s="11"/>
+      <c r="C848" s="11"/>
     </row>
     <row r="849" customHeight="1" spans="1:3">
-      <c r="A849" s="12"/>
-      <c r="C849" s="12"/>
+      <c r="A849" s="11"/>
+      <c r="C849" s="11"/>
     </row>
     <row r="850" customHeight="1" spans="1:3">
-      <c r="A850" s="12"/>
-      <c r="C850" s="12"/>
+      <c r="A850" s="11"/>
+      <c r="C850" s="11"/>
     </row>
     <row r="851" customHeight="1" spans="1:3">
-      <c r="A851" s="12"/>
-      <c r="C851" s="12"/>
+      <c r="A851" s="11"/>
+      <c r="C851" s="11"/>
     </row>
     <row r="852" customHeight="1" spans="1:3">
-      <c r="A852" s="12"/>
-      <c r="C852" s="12"/>
+      <c r="A852" s="11"/>
+      <c r="C852" s="11"/>
     </row>
     <row r="853" customHeight="1" spans="1:3">
-      <c r="A853" s="12"/>
-      <c r="C853" s="12"/>
+      <c r="A853" s="11"/>
+      <c r="C853" s="11"/>
     </row>
     <row r="854" customHeight="1" spans="1:3">
-      <c r="A854" s="12"/>
-      <c r="C854" s="12"/>
+      <c r="A854" s="11"/>
+      <c r="C854" s="11"/>
     </row>
     <row r="855" customHeight="1" spans="1:3">
-      <c r="A855" s="12"/>
-      <c r="C855" s="12"/>
+      <c r="A855" s="11"/>
+      <c r="C855" s="11"/>
     </row>
     <row r="856" customHeight="1" spans="1:3">
-      <c r="A856" s="12"/>
-      <c r="C856" s="12"/>
+      <c r="A856" s="11"/>
+      <c r="C856" s="11"/>
     </row>
     <row r="857" customHeight="1" spans="1:3">
-      <c r="A857" s="12"/>
-      <c r="C857" s="12"/>
+      <c r="A857" s="11"/>
+      <c r="C857" s="11"/>
     </row>
     <row r="858" customHeight="1" spans="1:3">
-      <c r="A858" s="12"/>
-      <c r="C858" s="12"/>
+      <c r="A858" s="11"/>
+      <c r="C858" s="11"/>
     </row>
     <row r="859" customHeight="1" spans="1:3">
-      <c r="A859" s="12"/>
-      <c r="C859" s="12"/>
+      <c r="A859" s="11"/>
+      <c r="C859" s="11"/>
     </row>
     <row r="860" customHeight="1" spans="1:3">
-      <c r="A860" s="12"/>
-      <c r="C860" s="12"/>
+      <c r="A860" s="11"/>
+      <c r="C860" s="11"/>
     </row>
     <row r="861" customHeight="1" spans="1:3">
-      <c r="A861" s="12"/>
-      <c r="C861" s="12"/>
+      <c r="A861" s="11"/>
+      <c r="C861" s="11"/>
     </row>
     <row r="862" customHeight="1" spans="1:3">
-      <c r="A862" s="12"/>
-      <c r="C862" s="12"/>
+      <c r="A862" s="11"/>
+      <c r="C862" s="11"/>
     </row>
     <row r="863" customHeight="1" spans="1:3">
-      <c r="A863" s="12"/>
-      <c r="C863" s="12"/>
+      <c r="A863" s="11"/>
+      <c r="C863" s="11"/>
     </row>
     <row r="864" customHeight="1" spans="1:3">
-      <c r="A864" s="12"/>
-      <c r="C864" s="12"/>
+      <c r="A864" s="11"/>
+      <c r="C864" s="11"/>
     </row>
     <row r="865" customHeight="1" spans="1:3">
-      <c r="A865" s="12"/>
-      <c r="C865" s="12"/>
+      <c r="A865" s="11"/>
+      <c r="C865" s="11"/>
     </row>
     <row r="866" customHeight="1" spans="1:3">
-      <c r="A866" s="12"/>
-      <c r="C866" s="12"/>
+      <c r="A866" s="11"/>
+      <c r="C866" s="11"/>
     </row>
     <row r="867" customHeight="1" spans="1:3">
-      <c r="A867" s="12"/>
-      <c r="C867" s="12"/>
+      <c r="A867" s="11"/>
+      <c r="C867" s="11"/>
     </row>
     <row r="868" customHeight="1" spans="1:3">
-      <c r="A868" s="12"/>
-      <c r="C868" s="12"/>
+      <c r="A868" s="11"/>
+      <c r="C868" s="11"/>
     </row>
     <row r="869" customHeight="1" spans="1:3">
-      <c r="A869" s="12"/>
-      <c r="C869" s="12"/>
+      <c r="A869" s="11"/>
+      <c r="C869" s="11"/>
     </row>
     <row r="870" customHeight="1" spans="1:3">
-      <c r="A870" s="12"/>
-      <c r="C870" s="12"/>
+      <c r="A870" s="11"/>
+      <c r="C870" s="11"/>
     </row>
     <row r="871" customHeight="1" spans="1:3">
-      <c r="A871" s="12"/>
-      <c r="C871" s="12"/>
+      <c r="A871" s="11"/>
+      <c r="C871" s="11"/>
     </row>
     <row r="872" customHeight="1" spans="1:3">
-      <c r="A872" s="12"/>
-      <c r="C872" s="12"/>
+      <c r="A872" s="11"/>
+      <c r="C872" s="11"/>
     </row>
     <row r="873" customHeight="1" spans="1:3">
-      <c r="A873" s="12"/>
-      <c r="C873" s="12"/>
+      <c r="A873" s="11"/>
+      <c r="C873" s="11"/>
     </row>
     <row r="874" customHeight="1" spans="1:3">
-      <c r="A874" s="12"/>
-      <c r="C874" s="12"/>
+      <c r="A874" s="11"/>
+      <c r="C874" s="11"/>
     </row>
     <row r="875" customHeight="1" spans="1:3">
-      <c r="A875" s="12"/>
-      <c r="C875" s="12"/>
+      <c r="A875" s="11"/>
+      <c r="C875" s="11"/>
     </row>
     <row r="876" customHeight="1" spans="1:3">
-      <c r="A876" s="12"/>
-      <c r="C876" s="12"/>
+      <c r="A876" s="11"/>
+      <c r="C876" s="11"/>
     </row>
     <row r="877" customHeight="1" spans="1:3">
-      <c r="A877" s="12"/>
-      <c r="C877" s="12"/>
+      <c r="A877" s="11"/>
+      <c r="C877" s="11"/>
     </row>
     <row r="878" customHeight="1" spans="1:3">
-      <c r="A878" s="12"/>
-      <c r="C878" s="12"/>
+      <c r="A878" s="11"/>
+      <c r="C878" s="11"/>
     </row>
     <row r="879" customHeight="1" spans="1:3">
-      <c r="A879" s="12"/>
-      <c r="C879" s="12"/>
+      <c r="A879" s="11"/>
+      <c r="C879" s="11"/>
     </row>
     <row r="880" customHeight="1" spans="1:3">
-      <c r="A880" s="12"/>
-      <c r="C880" s="12"/>
+      <c r="A880" s="11"/>
+      <c r="C880" s="11"/>
     </row>
     <row r="881" customHeight="1" spans="1:3">
-      <c r="A881" s="12"/>
-      <c r="C881" s="12"/>
+      <c r="A881" s="11"/>
+      <c r="C881" s="11"/>
     </row>
     <row r="882" customHeight="1" spans="1:3">
-      <c r="A882" s="12"/>
-      <c r="C882" s="12"/>
+      <c r="A882" s="11"/>
+      <c r="C882" s="11"/>
     </row>
     <row r="883" customHeight="1" spans="1:3">
-      <c r="A883" s="12"/>
-      <c r="C883" s="12"/>
+      <c r="A883" s="11"/>
+      <c r="C883" s="11"/>
     </row>
     <row r="884" customHeight="1" spans="1:3">
-      <c r="A884" s="12"/>
-      <c r="C884" s="12"/>
+      <c r="A884" s="11"/>
+      <c r="C884" s="11"/>
     </row>
     <row r="885" customHeight="1" spans="1:3">
-      <c r="A885" s="12"/>
-      <c r="C885" s="12"/>
+      <c r="A885" s="11"/>
+      <c r="C885" s="11"/>
     </row>
     <row r="886" customHeight="1" spans="1:3">
-      <c r="A886" s="12"/>
-      <c r="C886" s="12"/>
+      <c r="A886" s="11"/>
+      <c r="C886" s="11"/>
     </row>
     <row r="887" customHeight="1" spans="1:3">
-      <c r="A887" s="12"/>
-      <c r="C887" s="12"/>
+      <c r="A887" s="11"/>
+      <c r="C887" s="11"/>
     </row>
     <row r="888" customHeight="1" spans="1:3">
-      <c r="A888" s="12"/>
-      <c r="C888" s="12"/>
+      <c r="A888" s="11"/>
+      <c r="C888" s="11"/>
     </row>
     <row r="889" customHeight="1" spans="1:3">
-      <c r="A889" s="12"/>
-      <c r="C889" s="12"/>
+      <c r="A889" s="11"/>
+      <c r="C889" s="11"/>
     </row>
     <row r="890" customHeight="1" spans="1:3">
-      <c r="A890" s="12"/>
-      <c r="C890" s="12"/>
+      <c r="A890" s="11"/>
+      <c r="C890" s="11"/>
     </row>
     <row r="891" customHeight="1" spans="1:3">
-      <c r="A891" s="12"/>
-      <c r="C891" s="12"/>
+      <c r="A891" s="11"/>
+      <c r="C891" s="11"/>
     </row>
     <row r="892" customHeight="1" spans="1:3">
-      <c r="A892" s="12"/>
-      <c r="C892" s="12"/>
+      <c r="A892" s="11"/>
+      <c r="C892" s="11"/>
     </row>
     <row r="893" customHeight="1" spans="1:3">
-      <c r="A893" s="12"/>
-      <c r="C893" s="12"/>
+      <c r="A893" s="11"/>
+      <c r="C893" s="11"/>
     </row>
     <row r="894" customHeight="1" spans="1:3">
-      <c r="A894" s="12"/>
-      <c r="C894" s="12"/>
+      <c r="A894" s="11"/>
+      <c r="C894" s="11"/>
     </row>
     <row r="895" customHeight="1" spans="1:3">
-      <c r="A895" s="12"/>
-      <c r="C895" s="12"/>
+      <c r="A895" s="11"/>
+      <c r="C895" s="11"/>
     </row>
     <row r="896" customHeight="1" spans="1:3">
-      <c r="A896" s="12"/>
-      <c r="C896" s="12"/>
+      <c r="A896" s="11"/>
+      <c r="C896" s="11"/>
     </row>
     <row r="897" customHeight="1" spans="1:3">
-      <c r="A897" s="12"/>
-      <c r="C897" s="12"/>
+      <c r="A897" s="11"/>
+      <c r="C897" s="11"/>
     </row>
     <row r="898" customHeight="1" spans="1:3">
-      <c r="A898" s="12"/>
-      <c r="C898" s="12"/>
+      <c r="A898" s="11"/>
+      <c r="C898" s="11"/>
     </row>
     <row r="899" customHeight="1" spans="1:3">
-      <c r="A899" s="12"/>
-      <c r="C899" s="12"/>
+      <c r="A899" s="11"/>
+      <c r="C899" s="11"/>
     </row>
     <row r="900" customHeight="1" spans="1:3">
-      <c r="A900" s="12"/>
-      <c r="C900" s="12"/>
+      <c r="A900" s="11"/>
+      <c r="C900" s="11"/>
     </row>
     <row r="901" customHeight="1" spans="1:3">
-      <c r="A901" s="12"/>
-      <c r="C901" s="12"/>
+      <c r="A901" s="11"/>
+      <c r="C901" s="11"/>
     </row>
     <row r="902" customHeight="1" spans="1:3">
-      <c r="A902" s="12"/>
-      <c r="C902" s="12"/>
+      <c r="A902" s="11"/>
+      <c r="C902" s="11"/>
     </row>
     <row r="903" customHeight="1" spans="1:3">
-      <c r="A903" s="12"/>
-      <c r="C903" s="12"/>
+      <c r="A903" s="11"/>
+      <c r="C903" s="11"/>
     </row>
     <row r="904" customHeight="1" spans="1:3">
-      <c r="A904" s="12"/>
-      <c r="C904" s="12"/>
+      <c r="A904" s="11"/>
+      <c r="C904" s="11"/>
     </row>
     <row r="905" customHeight="1" spans="1:3">
-      <c r="A905" s="12"/>
-      <c r="C905" s="12"/>
+      <c r="A905" s="11"/>
+      <c r="C905" s="11"/>
     </row>
     <row r="906" customHeight="1" spans="1:3">
-      <c r="A906" s="12"/>
-      <c r="C906" s="12"/>
+      <c r="A906" s="11"/>
+      <c r="C906" s="11"/>
     </row>
     <row r="907" customHeight="1" spans="1:3">
-      <c r="A907" s="12"/>
-      <c r="C907" s="12"/>
+      <c r="A907" s="11"/>
+      <c r="C907" s="11"/>
     </row>
     <row r="908" customHeight="1" spans="1:3">
-      <c r="A908" s="12"/>
-      <c r="C908" s="12"/>
+      <c r="A908" s="11"/>
+      <c r="C908" s="11"/>
     </row>
     <row r="909" customHeight="1" spans="1:3">
-      <c r="A909" s="12"/>
-      <c r="C909" s="12"/>
+      <c r="A909" s="11"/>
+      <c r="C909" s="11"/>
     </row>
     <row r="910" customHeight="1" spans="1:3">
-      <c r="A910" s="12"/>
-      <c r="C910" s="12"/>
+      <c r="A910" s="11"/>
+      <c r="C910" s="11"/>
     </row>
     <row r="911" customHeight="1" spans="1:3">
-      <c r="A911" s="12"/>
-      <c r="C911" s="12"/>
+      <c r="A911" s="11"/>
+      <c r="C911" s="11"/>
     </row>
     <row r="912" customHeight="1" spans="1:3">
-      <c r="A912" s="12"/>
-      <c r="C912" s="12"/>
+      <c r="A912" s="11"/>
+      <c r="C912" s="11"/>
     </row>
     <row r="913" customHeight="1" spans="1:3">
-      <c r="A913" s="12"/>
-      <c r="C913" s="12"/>
+      <c r="A913" s="11"/>
+      <c r="C913" s="11"/>
     </row>
     <row r="914" customHeight="1" spans="1:3">
-      <c r="A914" s="12"/>
-      <c r="C914" s="12"/>
+      <c r="A914" s="11"/>
+      <c r="C914" s="11"/>
     </row>
     <row r="915" customHeight="1" spans="1:3">
-      <c r="A915" s="12"/>
-      <c r="C915" s="12"/>
+      <c r="A915" s="11"/>
+      <c r="C915" s="11"/>
     </row>
     <row r="916" customHeight="1" spans="1:3">
-      <c r="A916" s="12"/>
-      <c r="C916" s="12"/>
+      <c r="A916" s="11"/>
+      <c r="C916" s="11"/>
     </row>
     <row r="917" customHeight="1" spans="1:3">
-      <c r="A917" s="12"/>
-      <c r="C917" s="12"/>
+      <c r="A917" s="11"/>
+      <c r="C917" s="11"/>
     </row>
     <row r="918" customHeight="1" spans="1:3">
-      <c r="A918" s="12"/>
-      <c r="C918" s="12"/>
+      <c r="A918" s="11"/>
+      <c r="C918" s="11"/>
     </row>
     <row r="919" customHeight="1" spans="1:3">
-      <c r="A919" s="12"/>
-      <c r="C919" s="12"/>
+      <c r="A919" s="11"/>
+      <c r="C919" s="11"/>
     </row>
     <row r="920" customHeight="1" spans="1:3">
-      <c r="A920" s="12"/>
-      <c r="C920" s="12"/>
+      <c r="A920" s="11"/>
+      <c r="C920" s="11"/>
     </row>
     <row r="921" customHeight="1" spans="1:3">
-      <c r="A921" s="12"/>
-      <c r="C921" s="12"/>
+      <c r="A921" s="11"/>
+      <c r="C921" s="11"/>
     </row>
     <row r="922" customHeight="1" spans="1:3">
-      <c r="A922" s="12"/>
-      <c r="C922" s="12"/>
+      <c r="A922" s="11"/>
+      <c r="C922" s="11"/>
     </row>
     <row r="923" customHeight="1" spans="1:3">
-      <c r="A923" s="12"/>
-      <c r="C923" s="12"/>
+      <c r="A923" s="11"/>
+      <c r="C923" s="11"/>
     </row>
     <row r="924" customHeight="1" spans="1:3">
-      <c r="A924" s="12"/>
-      <c r="C924" s="12"/>
+      <c r="A924" s="11"/>
+      <c r="C924" s="11"/>
     </row>
     <row r="925" customHeight="1" spans="1:3">
-      <c r="A925" s="12"/>
-      <c r="C925" s="12"/>
+      <c r="A925" s="11"/>
+      <c r="C925" s="11"/>
     </row>
     <row r="926" customHeight="1" spans="1:3">
-      <c r="A926" s="12"/>
-      <c r="C926" s="12"/>
+      <c r="A926" s="11"/>
+      <c r="C926" s="11"/>
     </row>
     <row r="927" customHeight="1" spans="1:3">
-      <c r="A927" s="12"/>
-      <c r="C927" s="12"/>
+      <c r="A927" s="11"/>
+      <c r="C927" s="11"/>
     </row>
     <row r="928" customHeight="1" spans="1:3">
-      <c r="A928" s="12"/>
-      <c r="C928" s="12"/>
+      <c r="A928" s="11"/>
+      <c r="C928" s="11"/>
     </row>
     <row r="929" customHeight="1" spans="1:3">
-      <c r="A929" s="12"/>
-      <c r="C929" s="12"/>
+      <c r="A929" s="11"/>
+      <c r="C929" s="11"/>
     </row>
     <row r="930" customHeight="1" spans="1:3">
-      <c r="A930" s="12"/>
-      <c r="C930" s="12"/>
+      <c r="A930" s="11"/>
+      <c r="C930" s="11"/>
     </row>
     <row r="931" customHeight="1" spans="1:3">
-      <c r="A931" s="12"/>
-      <c r="C931" s="12"/>
+      <c r="A931" s="11"/>
+      <c r="C931" s="11"/>
     </row>
     <row r="932" customHeight="1" spans="1:3">
-      <c r="A932" s="12"/>
-      <c r="C932" s="12"/>
+      <c r="A932" s="11"/>
+      <c r="C932" s="11"/>
     </row>
     <row r="933" customHeight="1" spans="1:3">
-      <c r="A933" s="12"/>
-      <c r="C933" s="12"/>
+      <c r="A933" s="11"/>
+      <c r="C933" s="11"/>
     </row>
     <row r="934" customHeight="1" spans="1:3">
-      <c r="A934" s="12"/>
-      <c r="C934" s="12"/>
+      <c r="A934" s="11"/>
+      <c r="C934" s="11"/>
     </row>
     <row r="935" customHeight="1" spans="1:3">
-      <c r="A935" s="12"/>
-      <c r="C935" s="12"/>
+      <c r="A935" s="11"/>
+      <c r="C935" s="11"/>
     </row>
     <row r="936" customHeight="1" spans="1:3">
-      <c r="A936" s="12"/>
-      <c r="C936" s="12"/>
+      <c r="A936" s="11"/>
+      <c r="C936" s="11"/>
     </row>
     <row r="937" customHeight="1" spans="1:3">
-      <c r="A937" s="12"/>
-      <c r="C937" s="12"/>
+      <c r="A937" s="11"/>
+      <c r="C937" s="11"/>
     </row>
     <row r="938" customHeight="1" spans="1:3">
-      <c r="A938" s="12"/>
-      <c r="C938" s="12"/>
+      <c r="A938" s="11"/>
+      <c r="C938" s="11"/>
     </row>
     <row r="939" customHeight="1" spans="1:3">
-      <c r="A939" s="12"/>
-      <c r="C939" s="12"/>
+      <c r="A939" s="11"/>
+      <c r="C939" s="11"/>
     </row>
     <row r="940" customHeight="1" spans="1:3">
-      <c r="A940" s="12"/>
-      <c r="C940" s="12"/>
+      <c r="A940" s="11"/>
+      <c r="C940" s="11"/>
     </row>
     <row r="941" customHeight="1" spans="1:3">
-      <c r="A941" s="12"/>
-      <c r="C941" s="12"/>
+      <c r="A941" s="11"/>
+      <c r="C941" s="11"/>
     </row>
     <row r="942" customHeight="1" spans="1:3">
-      <c r="A942" s="12"/>
-      <c r="C942" s="12"/>
+      <c r="A942" s="11"/>
+      <c r="C942" s="11"/>
     </row>
     <row r="943" customHeight="1" spans="1:3">
-      <c r="A943" s="12"/>
-      <c r="C943" s="12"/>
+      <c r="A943" s="11"/>
+      <c r="C943" s="11"/>
     </row>
     <row r="944" customHeight="1" spans="1:3">
-      <c r="A944" s="12"/>
-      <c r="C944" s="12"/>
+      <c r="A944" s="11"/>
+      <c r="C944" s="11"/>
     </row>
     <row r="945" customHeight="1" spans="1:3">
-      <c r="A945" s="12"/>
-      <c r="C945" s="12"/>
+      <c r="A945" s="11"/>
+      <c r="C945" s="11"/>
     </row>
     <row r="946" customHeight="1" spans="1:3">
-      <c r="A946" s="12"/>
-      <c r="C946" s="12"/>
+      <c r="A946" s="11"/>
+      <c r="C946" s="11"/>
     </row>
     <row r="947" customHeight="1" spans="1:3">
-      <c r="A947" s="12"/>
-      <c r="C947" s="12"/>
+      <c r="A947" s="11"/>
+      <c r="C947" s="11"/>
     </row>
     <row r="948" customHeight="1" spans="1:3">
-      <c r="A948" s="12"/>
-      <c r="C948" s="12"/>
+      <c r="A948" s="11"/>
+      <c r="C948" s="11"/>
     </row>
     <row r="949" customHeight="1" spans="1:3">
-      <c r="A949" s="12"/>
-      <c r="C949" s="12"/>
+      <c r="A949" s="11"/>
+      <c r="C949" s="11"/>
     </row>
     <row r="950" customHeight="1" spans="1:3">
-      <c r="A950" s="12"/>
-      <c r="C950" s="12"/>
+      <c r="A950" s="11"/>
+      <c r="C950" s="11"/>
     </row>
     <row r="951" customHeight="1" spans="1:3">
-      <c r="A951" s="12"/>
-      <c r="C951" s="12"/>
+      <c r="A951" s="11"/>
+      <c r="C951" s="11"/>
     </row>
     <row r="952" customHeight="1" spans="1:3">
-      <c r="A952" s="12"/>
-      <c r="C952" s="12"/>
+      <c r="A952" s="11"/>
+      <c r="C952" s="11"/>
     </row>
     <row r="953" customHeight="1" spans="1:3">
-      <c r="A953" s="12"/>
-      <c r="C953" s="12"/>
+      <c r="A953" s="11"/>
+      <c r="C953" s="11"/>
     </row>
     <row r="954" customHeight="1" spans="1:3">
-      <c r="A954" s="12"/>
-      <c r="C954" s="12"/>
+      <c r="A954" s="11"/>
+      <c r="C954" s="11"/>
     </row>
     <row r="955" customHeight="1" spans="1:3">
-      <c r="A955" s="12"/>
-      <c r="C955" s="12"/>
+      <c r="A955" s="11"/>
+      <c r="C955" s="11"/>
     </row>
     <row r="956" customHeight="1" spans="1:3">
-      <c r="A956" s="12"/>
-      <c r="C956" s="12"/>
+      <c r="A956" s="11"/>
+      <c r="C956" s="11"/>
     </row>
     <row r="957" customHeight="1" spans="1:3">
-      <c r="A957" s="12"/>
-      <c r="C957" s="12"/>
+      <c r="A957" s="11"/>
+      <c r="C957" s="11"/>
     </row>
     <row r="958" customHeight="1" spans="1:3">
-      <c r="A958" s="12"/>
-      <c r="C958" s="12"/>
+      <c r="A958" s="11"/>
+      <c r="C958" s="11"/>
     </row>
     <row r="959" customHeight="1" spans="1:3">
-      <c r="A959" s="12"/>
-      <c r="C959" s="12"/>
+      <c r="A959" s="11"/>
+      <c r="C959" s="11"/>
     </row>
     <row r="960" customHeight="1" spans="1:3">
-      <c r="A960" s="12"/>
-      <c r="C960" s="12"/>
+      <c r="A960" s="11"/>
+      <c r="C960" s="11"/>
     </row>
     <row r="961" customHeight="1" spans="1:3">
-      <c r="A961" s="12"/>
-      <c r="C961" s="12"/>
+      <c r="A961" s="11"/>
+      <c r="C961" s="11"/>
     </row>
     <row r="962" customHeight="1" spans="1:3">
-      <c r="A962" s="12"/>
-      <c r="C962" s="12"/>
+      <c r="A962" s="11"/>
+      <c r="C962" s="11"/>
     </row>
     <row r="963" customHeight="1" spans="1:3">
-      <c r="A963" s="12"/>
-      <c r="C963" s="12"/>
+      <c r="A963" s="11"/>
+      <c r="C963" s="11"/>
     </row>
     <row r="964" customHeight="1" spans="1:3">
-      <c r="A964" s="12"/>
-      <c r="C964" s="12"/>
+      <c r="A964" s="11"/>
+      <c r="C964" s="11"/>
     </row>
     <row r="965" customHeight="1" spans="1:3">
-      <c r="A965" s="12"/>
-      <c r="C965" s="12"/>
+      <c r="A965" s="11"/>
+      <c r="C965" s="11"/>
     </row>
     <row r="966" customHeight="1" spans="1:3">
-      <c r="A966" s="12"/>
-      <c r="C966" s="12"/>
+      <c r="A966" s="11"/>
+      <c r="C966" s="11"/>
     </row>
     <row r="967" customHeight="1" spans="1:3">
-      <c r="A967" s="12"/>
-      <c r="C967" s="12"/>
+      <c r="A967" s="11"/>
+      <c r="C967" s="11"/>
     </row>
     <row r="968" customHeight="1" spans="1:3">
-      <c r="A968" s="12"/>
-      <c r="C968" s="12"/>
+      <c r="A968" s="11"/>
+      <c r="C968" s="11"/>
     </row>
     <row r="969" customHeight="1" spans="1:3">
-      <c r="A969" s="12"/>
-      <c r="C969" s="12"/>
+      <c r="A969" s="11"/>
+      <c r="C969" s="11"/>
     </row>
     <row r="970" customHeight="1" spans="1:3">
-      <c r="A970" s="12"/>
-      <c r="C970" s="12"/>
+      <c r="A970" s="11"/>
+      <c r="C970" s="11"/>
     </row>
     <row r="971" customHeight="1" spans="1:3">
-      <c r="A971" s="12"/>
-      <c r="C971" s="12"/>
+      <c r="A971" s="11"/>
+      <c r="C971" s="11"/>
     </row>
     <row r="972" customHeight="1" spans="1:3">
-      <c r="A972" s="12"/>
-      <c r="C972" s="12"/>
+      <c r="A972" s="11"/>
+      <c r="C972" s="11"/>
     </row>
     <row r="973" customHeight="1" spans="1:3">
-      <c r="A973" s="12"/>
-      <c r="C973" s="12"/>
+      <c r="A973" s="11"/>
+      <c r="C973" s="11"/>
     </row>
     <row r="974" customHeight="1" spans="1:3">
-      <c r="A974" s="12"/>
-      <c r="C974" s="12"/>
+      <c r="A974" s="11"/>
+      <c r="C974" s="11"/>
     </row>
     <row r="975" customHeight="1" spans="1:3">
-      <c r="A975" s="12"/>
-      <c r="C975" s="12"/>
+      <c r="A975" s="11"/>
+      <c r="C975" s="11"/>
     </row>
     <row r="976" customHeight="1" spans="1:3">
-      <c r="A976" s="12"/>
-      <c r="C976" s="12"/>
+      <c r="A976" s="11"/>
+      <c r="C976" s="11"/>
     </row>
     <row r="977" customHeight="1" spans="1:3">
-      <c r="A977" s="12"/>
-      <c r="C977" s="12"/>
+      <c r="A977" s="11"/>
+      <c r="C977" s="11"/>
     </row>
     <row r="978" customHeight="1" spans="1:3">
-      <c r="A978" s="12"/>
-      <c r="C978" s="12"/>
+      <c r="A978" s="11"/>
+      <c r="C978" s="11"/>
     </row>
     <row r="979" customHeight="1" spans="1:3">
-      <c r="A979" s="12"/>
-      <c r="C979" s="12"/>
+      <c r="A979" s="11"/>
+      <c r="C979" s="11"/>
     </row>
     <row r="980" customHeight="1" spans="1:3">
-      <c r="A980" s="12"/>
-      <c r="C980" s="12"/>
+      <c r="A980" s="11"/>
+      <c r="C980" s="11"/>
     </row>
     <row r="981" customHeight="1" spans="1:3">
-      <c r="A981" s="12"/>
-      <c r="C981" s="12"/>
+      <c r="A981" s="11"/>
+      <c r="C981" s="11"/>
     </row>
     <row r="982" customHeight="1" spans="1:3">
-      <c r="A982" s="12"/>
-      <c r="C982" s="12"/>
+      <c r="A982" s="11"/>
+      <c r="C982" s="11"/>
     </row>
     <row r="983" customHeight="1" spans="1:3">
-      <c r="A983" s="12"/>
-      <c r="C983" s="12"/>
+      <c r="A983" s="11"/>
+      <c r="C983" s="11"/>
     </row>
     <row r="984" customHeight="1" spans="1:3">
-      <c r="A984" s="12"/>
-      <c r="C984" s="12"/>
+      <c r="A984" s="11"/>
+      <c r="C984" s="11"/>
     </row>
     <row r="985" customHeight="1" spans="1:3">
-      <c r="A985" s="12"/>
-      <c r="C985" s="12"/>
+      <c r="A985" s="11"/>
+      <c r="C985" s="11"/>
     </row>
     <row r="986" customHeight="1" spans="1:3">
-      <c r="A986" s="12"/>
-      <c r="C986" s="12"/>
+      <c r="A986" s="11"/>
+      <c r="C986" s="11"/>
     </row>
     <row r="987" customHeight="1" spans="1:3">
-      <c r="A987" s="12"/>
-      <c r="C987" s="12"/>
+      <c r="A987" s="11"/>
+      <c r="C987" s="11"/>
     </row>
     <row r="988" customHeight="1" spans="1:3">
-      <c r="A988" s="12"/>
-      <c r="C988" s="12"/>
+      <c r="A988" s="11"/>
+      <c r="C988" s="11"/>
     </row>
     <row r="989" customHeight="1" spans="1:3">
-      <c r="A989" s="12"/>
-      <c r="C989" s="12"/>
+      <c r="A989" s="11"/>
+      <c r="C989" s="11"/>
     </row>
     <row r="990" customHeight="1" spans="1:3">
-      <c r="A990" s="12"/>
-      <c r="C990" s="12"/>
+      <c r="A990" s="11"/>
+      <c r="C990" s="11"/>
     </row>
     <row r="991" customHeight="1" spans="1:3">
-      <c r="A991" s="12"/>
-      <c r="C991" s="12"/>
+      <c r="A991" s="11"/>
+      <c r="C991" s="11"/>
     </row>
     <row r="992" customHeight="1" spans="1:3">
-      <c r="A992" s="12"/>
-      <c r="C992" s="12"/>
+      <c r="A992" s="11"/>
+      <c r="C992" s="11"/>
     </row>
     <row r="993" customHeight="1" spans="1:3">
-      <c r="A993" s="12"/>
-      <c r="C993" s="12"/>
-    </row>
-    <row r="994" customHeight="1" spans="1:3">
-      <c r="A994" s="12"/>
-      <c r="C994" s="12"/>
-    </row>
-    <row r="995" customHeight="1" spans="1:3">
-      <c r="A995" s="12"/>
-      <c r="C995" s="12"/>
-    </row>
-    <row r="996" customHeight="1" spans="1:3">
-      <c r="A996" s="12"/>
-      <c r="C996" s="12"/>
-    </row>
-    <row r="997" customHeight="1" spans="1:3">
-      <c r="A997" s="12"/>
-      <c r="C997" s="12"/>
-    </row>
-    <row r="998" customHeight="1" spans="1:3">
-      <c r="A998" s="12"/>
-      <c r="C998" s="12"/>
-    </row>
-    <row r="999" customHeight="1" spans="1:3">
-      <c r="A999" s="12"/>
-      <c r="C999" s="12"/>
-    </row>
-    <row r="1000" customHeight="1" spans="1:3">
-      <c r="A1000" s="12"/>
-      <c r="C1000" s="12"/>
+      <c r="A993" s="11"/>
+      <c r="C993" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="10">
     <mergeCell ref="A2:A21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="A27:A31"/>
@@ -5734,9 +5664,6 @@
     <mergeCell ref="A52:A56"/>
     <mergeCell ref="A57:A61"/>
     <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Vowel Count"/>
@@ -5803,12 +5730,7 @@
     <hyperlink ref="B64" r:id="rId62" display="Double Char"/>
     <hyperlink ref="B65" r:id="rId63" display="Unfinished Loop - Bug Fixing #1"/>
     <hyperlink ref="B66" r:id="rId64" display="Sum of numbers from 0 to N"/>
-    <hyperlink ref="B67" r:id="rId65" display="Multiples of 3 or 5"/>
-    <hyperlink ref="B68" r:id="rId66" display="Sum of Digits / Digital Root"/>
-    <hyperlink ref="B69" r:id="rId67" display="Who likes it?"/>
-    <hyperlink ref="B70" r:id="rId68" display="Find The Parity Outlier"/>
-    <hyperlink ref="B27" r:id="rId69" display="**Return Negative                                "/>
-    <hyperlink ref="B71" r:id="rId70" display="Stop gninnipS My sdroW!"/>
+    <hyperlink ref="B27" r:id="rId65" display="**Return Negative                                "/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/algoDs/CodeWars Challenge Guide.xlsx
+++ b/algoDs/CodeWars Challenge Guide.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t>Category</t>
   </si>
@@ -1471,8 +1471,8 @@
   </sheetPr>
   <dimension ref="A1:C993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
@@ -1924,25 +1924,33 @@
       <c r="B63" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="6"/>
+      <c r="C63" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="64" customHeight="1" spans="2:3">
       <c r="B64" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="6"/>
+      <c r="C64" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="65" customHeight="1" spans="2:3">
       <c r="B65" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="6"/>
+      <c r="C65" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="66" customHeight="1" spans="2:3">
       <c r="B66" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="6"/>
+      <c r="C66" s="6" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="67" customHeight="1" spans="1:2">
       <c r="A67" s="9"/>
